--- a/productos_aliexpress.xlsx
+++ b/productos_aliexpress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,182 +453,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B Pi 4B Original, 2GB/4GB/8GB de RAM</t>
+          <t>Jersey patrón de fútbol sala Vl Replika Blue Lock Anime Bastard Munich camisetas de verano para hombres y mujeres camisetas deportivas casuales Top</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006856494505.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-0&amp;pdp_npi=4%40dis%21MXN%213516.96%211024.25%21%21%211214.67%21353.75%21%402101c80217315618515658768e74eb%2112000038528487752%21sea%21MX%210%21ABX&amp;curPageLogUid=u7GgX17hQyro&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007529281601.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-0&amp;pdp_npi=4%40dis%21MXN%21179.49%2161.04%21%21%2161.99%2121.08%21%402101e9a217315932871814545e4870%2112000041172058868%21sea%21MX%210%21ABX&amp;curPageLogUid=s8kgCwrGusEj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MX$1,024.25</t>
+          <t>MX$61.04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B Pi 4B 2GB/4GB/8GB RAM</t>
+          <t>Camiseta con estampado 3D de anime, top de manga corta, informal, cómodo, neutral, Harajuku, nueva tendencia de moda de verano</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005761716573.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-1&amp;pdp_npi=4%40dis%21MXN%211072.57%21873.29%21%21%21370.44%21301.61%21%402101c80217315618515658768e74eb%2112000037092949162%21sea%21MX%210%21ABX&amp;curPageLogUid=mqWJDGEsc9DG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007499966527.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-1&amp;pdp_npi=4%40dis%21MXN%21180.76%2175.92%21%21%2162.43%2126.22%21%402101e9a217315932871814545e4870%2112000041037934374%21sea%21MX%210%21ABX&amp;curPageLogUid=jrBqdcJ50Szj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MX$873.29</t>
+          <t>MX$75.92</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Original modelo B 1GB/2GB/4GB/8GB RAM 64 bits 1,5 GHz cpu de cuatro núcleos compatible con WIFI Bluetooth 5,0 Placa de desarrollo</t>
+          <t>Camiseta con estampado de Cazador X Hunter para hombre, camisa lavada de Anime japonés, ropa de calle de Hip Hop, Harajuku, de algodón con ácido, Unisex</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006778713594.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-2&amp;pdp_npi=4%40dis%21MXN%213000.27%21871.80%21%21%211036.22%21301.10%21%402101c80217315618515658768e74eb%2112000038571235794%21sea%21MX%210%21ABX&amp;curPageLogUid=Xo7fepcbdJZX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007493286192.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-2&amp;pdp_npi=4%40dis%21MXN%21319.10%21104.61%21%21%21110.21%2136.13%21%402101e9a217315932871814545e4870%2112000041017360839%21sea%21MX%210%21ABX&amp;curPageLogUid=ugMkIKWABRVU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MX$871.8</t>
+          <t>MX$104.61</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Placa de desarrollo Raspberry Pi 5, Kit opcional de ordenador, 4GB, 8GB de RAM</t>
+          <t>Camiseta Dragon Ball Z Goku de talla grande para hombre, ropa informal de manga corta de algodón con estampado de Anime nuevo, regalo de cumpleaños para niños 2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007708570069.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;aem_p4p_detail=2024111321241113072495127395500001401943&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-3&amp;pdp_npi=4%40dis%21MXN%212287.37%212287.37%21%21%21790.00%21790.00%21%402101c80217315618515658768e74eb%2112000041930001317%21sea%21MX%210%21ABX&amp;curPageLogUid=6a2l5gk1q388&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111321241113072495127395500001401943_1</t>
+          <t>https://es.aliexpress.com/item/1005007470728830.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;aem_p4p_detail=202411140608072864245298496200000135700&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-3&amp;pdp_npi=4%40dis%21MXN%21358.57%21313.84%21%21%21123.84%21108.39%21%402101e9a217315932871814545e4870%2112000040889558082%21sea%21MX%210%21ABX&amp;curPageLogUid=EvTC0qwSDR6P&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608072864245298496200000135700_1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MX$2,287.37</t>
+          <t>MX$313.84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B, 1G, 2G, 4G, 8 GB de RAM, carcasa, ventilador, disipadores de calor, adaptador de corriente opcional EU/UK/US, 32, 64, 128 GB, tarjeta TF RPI 4</t>
+          <t>Camiseta de Anime Berserk Guts Acid para hombre, camisa Retro Vintage con gráfico lavado, Harajuku, de algodón, informal, de manga corta, Unisex</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006827333491.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-4&amp;pdp_npi=4%40dis%21MXN%211231.65%211095.30%21%21%21425.38%21378.29%21%402101c80217315618515658768e74eb%2112000038431333798%21sea%21MX%210%21ABX&amp;curPageLogUid=gGRKZ9eB0LYZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007305933049.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-4&amp;pdp_npi=4%40dis%21MXN%21423.25%21166.45%21%21%21146.18%2157.49%21%402101e9a217315932871814545e4870%2112000040184142290%21sea%21MX%210%21ABX&amp;curPageLogUid=ZLanOiFx9dCa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MX$1,095.3</t>
+          <t>MX$166.45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Para Raspberry Pi 4B carcasa de aleación de aluminio con ventilador de refrigeración Dual carcasa de Metal carcasa negra para Raspberry Pi 4 modelo B Accesorios</t>
+          <t>Camiseta de Anime Satoru Gojo Jujutsu Kaisen para mujer, blusa holgada de manga corta de gran tamaño, ropa deportiva informal, Tops suaves</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005515444894.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-5&amp;pdp_npi=4%40dis%21MXN%21177.25%2140.90%21%21%218.45%211.95%21%402101c80217315618515658768e74eb%2112000033376180802%21sea%21MX%210%21ABX&amp;curPageLogUid=l1IWmU7wHMUz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007408857874.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-5&amp;pdp_npi=4%40dis%21MXN%21215.45%2188.34%21%21%2174.41%2130.51%21%402101e9a217315932871814545e4870%2112000040631049723%21sea%21MX%210%21ABX&amp;curPageLogUid=QMqFHqZpJ2m7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MX$40.9</t>
+          <t>MX$88.34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Disipador de calor de aluminio para Raspberry Pi 2/3/4 3B + 4B, Kit de enfriador de radiador para Raspberry Pi 4 (Dorado), 5 piezas</t>
+          <t>Camiseta con estampado de Anime para hombre y mujer, camisa informal de Jujutsu Kaisen Fushiguro Toji To The One Who Lfft It All Behind, estilo Harajuku, Y2k</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006357921611.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-6&amp;pdp_npi=4%40dis%21MXN%2183.79%2120.77%21%21%2128.94%217.17%21%402101c80217315618515658768e74eb%2112000036878781328%21sea%21MX%210%21ABX&amp;curPageLogUid=S2EYCYC6d4ZQ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006767398631.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-6&amp;pdp_npi=4%40dis%21MXN%21341.66%21146.92%21%21%21118.00%2150.74%21%402101e9a217315932871814545e4870%2112000038231164146%21sea%21MX%210%21ABX&amp;curPageLogUid=NcVAcrEXpnnb&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$146.92</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Freenove-Kit de Robot Hexapod grande para Raspberry Pi 5 4 B 3 B + B A +, reconocimiento facial, rango ultrasónico, Control por aplicación, Servo de cámara</t>
+          <t>Camiseta de Goku de Dragon Ball Z para hombre, camisa de gran tamaño a la moda, Vegeta, Anime Essentials, 100-5XL, estilo Harajuku, tendencia 2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004885366236.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;aem_p4p_detail=2024111321241113072495127395500001401943&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-7&amp;pdp_npi=4%40dis%21MXN%213092.06%212955.71%21%21%211067.92%211020.83%21%402101c80217315618515658768e74eb%2112000030890180049%21sea%21MX%210%21ABX&amp;curPageLogUid=pS02iEsCitLT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111321241113072495127395500001401943_2</t>
+          <t>https://es.aliexpress.com/item/1005006950708141.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;aem_p4p_detail=202411140608072864245298496200000135700&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-7&amp;pdp_npi=4%40dis%21MXN%21105.36%2193.43%21%21%2136.39%2132.27%21%402101e9a217315932871814545e4870%2112000038833273440%21sea%21MX%210%21ABX&amp;curPageLogUid=FN6OGKwpSy2H&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608072864245298496200000135700_2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MX$2,955.71</t>
+          <t>MX$93.43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 4B Original, accesorio oficial modelo B 1GB 2GB 4GB 8GB RAM opción de agregar accesorios, Kit para principiantes con IA</t>
+          <t>Camiseta Vintage lavada de algodón para hombre y mujer, camisa holgada de Anime, Hajime No Ippo, Kamogawa, boxeo, gimnasio, Hip Hop, Y2K, Verano</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007789891902.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-8&amp;pdp_npi=4%40dis%21MXN%21935.76%21757.46%21%21%21323.19%21261.61%21%402101c80217315618515658768e74eb%2112000042216361244%21sea%21MX%210%21ABX&amp;curPageLogUid=23eSRhfbiqhm&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006949011059.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-8&amp;pdp_npi=4%40dis%21MXN%21414.94%21150.19%21%21%21143.31%2151.87%21%402101e9a217315932871814545e4870%2112000038825275737%21sea%21MX%210%21ABX&amp;curPageLogUid=kkRvUHLSJLwa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MX$757.46</t>
+          <t>MX$150.19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carcasa de acrílico transparente para Raspberry Pi 4B, 9 capas, ventilador de refrigeración y disipador de calor, accesorios Modelo B</t>
+          <t>Camiseta de algodón para hombre, camisa informal con estampado de gran tamaño, Anime japonés Drift AE86 Inifirst D, Unisex, R34 Skyline GTR JDM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005677434595.html?algo_pvid=68571f49-815d-418e-a307-3869c4c3a89b&amp;algo_exp_id=68571f49-815d-418e-a307-3869c4c3a89b-9&amp;pdp_npi=4%40dis%21MXN%21114.53%21114.53%21%21%215.46%215.46%21%402101c80217315618515658768e74eb%2112000033982764510%21sea%21MX%210%21ABX&amp;curPageLogUid=1qJcAVVZRq8R&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006996514244.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-9&amp;pdp_npi=4%40dis%21MXN%21263.48%21110.66%21%21%2191.00%2138.22%21%402101e9a217315932871814545e4870%2112000038988443764%21sea%21MX%210%21ABX&amp;curPageLogUid=kAo5VAIMJtqO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MX$114.53</t>
+          <t>MX$110.66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carcasa transparente de acrílico para Raspberry Pi Pico, carcasa para placa Pico RP2040, microordenadores, Pico W</t>
+          <t>Camiseta de algodón para hombre, camisa con estampado de Anime japonés Drift AE86 Inifirst D, Unisex, R34 Skyline GTR JDM, 62457</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003949992954.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-0&amp;pdp_npi=4%40dis%21MXN%2149.71%2120.77%21%21%212.37%210.99%21%402103241117315618528301908ec3ac%2112000037502133320%21sea%21MX%210%21ABX&amp;curPageLogUid=sb5yICax2d6f&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007256605454.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-0&amp;pdp_npi=4%40dis%21MXN%21307.64%2120.77%21%21%21106.25%217.17%21%402103246617315932885411353e47f7%2112000039967585988%21sea%21MX%210%21ABX&amp;curPageLogUid=2f3gwqXPJ7U4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,80 +640,80 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4, carcasa de aleación de aluminio, carcasa de Metal negra y gris, carcasa de cierre de refrigeración pasiva para Raspberry Pi 4 modelo B RPI 4B Pi4</t>
+          <t>Camiseta de ácido para hombre, ropa de calle de gran tamaño con gráfico de Anime japonés, camiseta negra lavada de verano, camisetas de algodón Harajuku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005008045488236.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-1&amp;pdp_npi=4%40dis%21MXN%21121.66%2166.91%21%21%215.80%213.19%21%402103241117315618528301908ec3ac%2112000043408136383%21sea%21MX%210%21ABX&amp;curPageLogUid=e5Cw9z8726yZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007345035798.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-1&amp;pdp_npi=4%40dis%21MXN%21377.50%21158.55%21%21%21130.38%2154.76%21%402103246617315932885411353e47f7%2112000040354212401%21sea%21MX%210%21ABX&amp;curPageLogUid=rSfWkLTu7yew&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MX$66.91</t>
+          <t>MX$158.55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pantalla táctil DSI de 7 pulgadas para Raspberry Pi 5, 4B, 3B +, 3B, IPS, 800x480, LCD MIPI CSI, Cable con Monitor estándar para RPI 5 Pi5</t>
+          <t>Camiseta gráfica Bertram Eats I Eat para niños, ropa de calle informal de manga corta, divertida, Unisex, verano, 2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006739026067.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-2&amp;pdp_npi=4%40dis%21MXN%211957.99%21451.04%21%21%21676.24%21155.78%21%402103241117315618528301908ec3ac%2112000038141306666%21sea%21MX%210%21ABX&amp;curPageLogUid=d75QiO9W4LKV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006999702911.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-2&amp;pdp_npi=4%40dis%21MXN%21193.33%2120.77%21%21%2166.77%217.17%21%402103246617315932885411353e47f7%2112000039005549232%21sea%21MX%210%21ABX&amp;curPageLogUid=jV708788NBUF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MX$451.04</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Freenove Ultimate Starter Kit para Raspberry Pi 5 4 B 3 400 Zero 2 W, tutorial de 962 páginas, 223 artículos, 128 proyectos, Python C Java</t>
+          <t>Camiseta de anime japonés Super Saiya Goku para hombre, 100-5XL, Y2k, ropa de tendencia de gran tamaño, Vegeta</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004335519625.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;aem_p4p_detail=2024111321241217153920191102640000612552&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-3&amp;pdp_npi=4%40dis%21MXN%21871.63%21735.28%21%21%21301.04%21253.95%21%402103241117315618528301908ec3ac%2112000028804847325%21sea%21MX%210%21ABX&amp;curPageLogUid=itq30UekUGMU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111321241217153920191102640000612552_1</t>
+          <t>https://es.aliexpress.com/item/1005006963455113.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;aem_p4p_detail=2024111406080810805487490626450000128006&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-3&amp;pdp_npi=4%40dis%21MXN%21103.97%2120.77%21%21%2135.91%217.17%21%402103246617315932885411353e47f7%2112000038872914475%21sea%21MX%210%21ABX&amp;curPageLogUid=6r7vPRFKrEws&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406080810805487490626450000128006_1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MX$735.28</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Enfriador activo de argón para Raspberry Pi 5, ventilador PWM de refrigeración pasiva, radiador de aletas de Aluninum para RPi 5, THRML, 30mm</t>
+          <t>Camiseta de motosierra de Anime para hombre y mujer, camisa con estampado de ácido Retro, Vintage, estampada, Harajuku, de algodón, informal, de manga corta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006447904597.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-4&amp;pdp_npi=4%40dis%21MXN%21148.09%2120.77%21%21%217.06%210.99%21%402103241117315618528301908ec3ac%2112000037205726720%21sea%21MX%210%21ABX&amp;curPageLogUid=pqy1nyRiwU8Y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007436309680.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-4&amp;pdp_npi=4%40dis%21MXN%21423.74%2124.66%21%21%21146.35%218.52%21%402103246617315932885411353e47f7%2112000040749490506%21sea%21MX%210%21ABX&amp;curPageLogUid=AgUw2VheYMvO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$24.66</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ventilador de refrigeración Raspberry Pi 4, ventilador enfriador de 30x30mm para carcasa de acrílico ABS para Raspbery Pi para Orange Pi para carcasa de retroflag</t>
+          <t>Camisetas de manga corta para gimnasio, camisetas de Anime japonés a la moda, camisetas de Hip-Hop Unisex 100% de algodón, ropa nueva de 2023 para hombre, S-4XL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/32227750468.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-5&amp;pdp_npi=4%40dis%21MXN%2155.38%2120.77%21%21%212.64%210.99%21%402103241117315618528301908ec3ac%2112000037474021431%21sea%21MX%210%21ABX&amp;curPageLogUid=jFlyfK3WG86c&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006191040720.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-5&amp;pdp_npi=4%40dis%21MXN%21329.15%2120.77%21%21%21113.68%217.17%21%402103246617315932885411353e47f7%2112000036202276065%21sea%21MX%210%21ABX&amp;curPageLogUid=mxVagQIIHMyP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,63 +725,63 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carcasa de aluminio para Raspberry Pi 4, carcasa de disipador térmico, ventilador frío instalable</t>
+          <t>Camiseta de Demon Slayer para mujer, camiseta de Kimetsu No Yaiba Nezuko, camiseta gráfica de Tanjirou Kamado, camiseta de Manga de Anime japonés</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006283757010.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-6&amp;pdp_npi=4%40dis%21MXN%2156.43%2153.28%21%21%212.69%212.54%21%402103241117315618528301908ec3ac%2112000036604499386%21sea%21MX%210%21ABX&amp;curPageLogUid=Gwz8TtvKhE6y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006746616060.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-6&amp;pdp_npi=4%40dis%21MXN%21206.91%2120.77%21%21%2171.46%217.17%21%402103246617315932885411353e47f7%2112000038170460067%21sea%21MX%210%21ABX&amp;curPageLogUid=6tIavgwmz6XM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MX$53.28</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Banana Pi BPI-R4-NIC-BE14 módulo wifi7, accesorios para BPI-R4</t>
+          <t>Polo de Cosplay para hombre y niño, Camiseta corta de Goku, Anime japonés, Vegeta, Super Saiya, Hip Hop, 5XL, tendencia Y2k, novedad</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007308694959.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;aem_p4p_detail=2024111321241217153920191102640000612552&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-7&amp;pdp_npi=4%40dis%21MXN%21532.93%21490.31%21%21%21184.06%21169.34%21%402103241117315618528301908ec3ac%2112000040188830132%21sea%21MX%210%21ABX&amp;curPageLogUid=GDKdxxptDqWs&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111321241217153920191102640000612552_2</t>
+          <t>https://es.aliexpress.com/item/1005006977099378.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;aem_p4p_detail=2024111406080810805487490626450000128006&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-7&amp;pdp_npi=4%40dis%21MXN%21175.95%21163.79%21%21%2160.77%2156.57%21%402103246617315932885411353e47f7%2112000038916365674%21sea%21MX%210%21ABX&amp;curPageLogUid=Y71P1sJMxwGn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406080810805487490626450000128006_2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MX$490.31</t>
+          <t>MX$163.79</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Raspberry Pi fuente de alimentación USB-C oficial 5,1 V 3A adaptador de corriente cargador UE EE. UU. para Raspberry Pi 4 modelo B 1GB 2GB 4GB 8GB</t>
+          <t>Jujutsu Kaisen Satoru Gojo Anime Camiseta de manga corta para mujer, cuello redondo, negro, blanco, poliéster</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006298508708.html?algo_pvid=5066eac0-4429-422b-8c33-68fb44d31407&amp;algo_exp_id=5066eac0-4429-422b-8c33-68fb44d31407-9&amp;pdp_npi=4%40dis%21MXN%21785.32%21267.01%21%21%21271.23%2192.22%21%402103241117315618528301908ec3ac%2112000036665321755%21sea%21MX%210%21ABX&amp;curPageLogUid=NypnN4tHD9Ch&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006418564325.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-8&amp;pdp_npi=4%40dis%21MXN%21199.70%2120.77%21%21%2168.97%217.17%21%402103246617315932885411353e47f7%2112000037096105335%21sea%21MX%210%21ABX&amp;curPageLogUid=66TBXAPqicIl&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MX$267.01</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Disipador de calor para Raspberry Pi 4, disipador de calor de Metal de aluminio, almohadilla de refrigeración plateada, dorada, azul y negra, Enfriador de RAM de CPU para Raspberry Pi 4 Modelo B</t>
+          <t>Ropa con estampado 3D de chicas de Anime con estampado de rosas, camisetas gráficas de manga corta Unisex de Anime para chicas, camiseta gótica, camisetas de cuello redondo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/4000266052801.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-0&amp;pdp_npi=4%40dis%21MXN%2143.42%2120.77%21%21%212.07%210.99%21%402103241117315618540651934ec3ac%2112000037405194771%21sea%21MX%210%21ABX&amp;curPageLogUid=vhuN9hAGBY9q&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007626883112.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-9&amp;pdp_npi=4%40dis%21MXN%21104.06%2120.77%21%21%2135.94%217.17%21%402103246617315932885411353e47f7%2112000041555998959%21sea%21MX%210%21ABX&amp;curPageLogUid=NIP7T4iWJiVq&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carcasa de plástico para Raspberry Pi 4, Carcasa de ABS roja y blanca, ventilador de refrigeración de 40x40 con LED azul para Pi 4</t>
+          <t>Jujutsu Kaisen Satoru Gojo Anime Camiseta de manga corta para mujer, cuello redondo, negro, blanco, poliéster</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006159903704.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-1&amp;pdp_npi=4%40dis%21MXN%2166.91%2120.77%21%21%213.19%210.99%21%402103241117315618540651934ec3ac%2112000036046518028%21sea%21MX%210%21ABX&amp;curPageLogUid=9eS0jrRGNplE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006418564325.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-0&amp;pdp_npi=4%40dis%21MXN%21199.70%2120.77%21%21%2168.97%217.17%21%402103246617315932899911399e47f7%2112000037096105335%21sea%21MX%210%21ABX&amp;curPageLogUid=VlDNwVuSgcKw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,80 +810,80 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SIM7600G-H 4G sombrero (B) Para Raspberry Pi 4 3 Zero LTE Cat-4 4G 3G 2G, soporte de posicionamiento GNSS, banda Global a través de Micro USB Pogo Pin</t>
+          <t>Sakura Cardcaptor ropa para mujer, camisas para mujer, ropa de dibujos animados</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003460775984.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-2&amp;pdp_npi=4%40dis%21MXN%211354.87%211354.87%21%21%2164.59%2164.59%21%402103241117315618540651934ec3ac%2112000038848386618%21sea%21MX%210%21ABX&amp;curPageLogUid=vm4QCwYZtxov&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007313280631.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-1&amp;pdp_npi=4%40dis%21MXN%21197.78%2120.77%21%21%2168.31%217.18%21%402103246617315932899911399e47f7%2112000040221432902%21sea%21MX%210%21ABX&amp;curPageLogUid=j64ODXLFhB5x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MX$1,354.87</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B disipador de calor, ventilador de refrigeración único, Kit de disipador de calor RAM para Raspberry Pi 4 Pi4</t>
+          <t>MINISO-Camiseta de One Piece para hombre, camisa con estampado 3d de Cartoo, informal, de manga corta, ropa de calle de gran tamaño, camisetas de Anime de moda</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/4001107566068.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;aem_p4p_detail=20241113212414274182214289200001405084&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-3&amp;pdp_npi=4%40dis%21MXN%21277.73%21166.56%21%21%2113.24%217.94%21%402103241117315618540651934ec3ac%2110000014932176380%21sea%21MX%210%21ABX&amp;curPageLogUid=STgph3btgczD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241113212414274182214289200001405084_1</t>
+          <t>https://es.aliexpress.com/item/1005007881858984.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-2&amp;pdp_npi=4%40dis%21MXN%21127.54%2120.77%21%21%216.08%210.99%21%402103246617315932899911399e47f7%2112000042697817051%21sea%21MX%210%21ABX&amp;curPageLogUid=sRIpQmXYvWbI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MX$166.56</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cámara Raspberry Pi 4, 5MP, visión nocturna, 1080P, ojo de pez gran angular opcional, IR-CUT, FF AF para Raspberry Pi 4B 3B + 3B Zero</t>
+          <t>Camisa de manga corta con estampado de gato samurái de arte japonés para hombre, camisa informal cómoda con solapa y botones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/32668508991.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-4&amp;pdp_npi=4%40dis%21MXN%21102.57%2120.77%21%21%214.89%210.99%21%402103241117315618540651934ec3ac%2112000029286584261%21sea%21MX%210%21ABX&amp;curPageLogUid=Npi10j8HK7he&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006205011049.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;aem_p4p_detail=202411140608101346182348091920000140969&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-3&amp;pdp_npi=4%40dis%21MXN%21333.38%21196.69%21%21%21115.14%2167.93%21%402103246617315932899911399e47f7%2112000036265851312%21sea%21MX%210%21ABX&amp;curPageLogUid=6uT0hsBM3XE4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608101346182348091920000140969_1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$196.69</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Carcasa de aluminio para Raspberry Pi 4, carcasa de disipador térmico, ventilador frío instalable</t>
+          <t>Capitán Tsubasa Anime camiseta Hyuga animación Cosplay manga corta 3D estampado FÚTBOL Camisetas Camisetas Hombre diseñador ropa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007803666283.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-5&amp;pdp_npi=4%40dis%21MXN%2158.10%2158.10%21%21%212.77%212.77%21%402103241117315618540651934ec3ac%2112000042256185088%21sea%21MX%210%21ABX&amp;curPageLogUid=wzPtbzAQbSV3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007351736976.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-4&amp;pdp_npi=4%40dis%21MXN%21119.72%2120.77%21%21%2141.35%217.18%21%402103246617315932899911399e47f7%2112000040386850705%21sea%21MX%210%21ABX&amp;curPageLogUid=prY4xvgZP3WT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MX$58.1</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pantalla LCD MHS con disipador de calor ABS para Raspberry Pi 4 Modelo B, 50 FPS</t>
+          <t>Camiseta de Anime japonés para mujer, camiseta de Jiu-Jitsu Kaisen para mujer, Top gráfico Y2k, camiseta fresca Unisex, Tops góticos para hombre 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005478047525.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-6&amp;pdp_npi=4%40dis%21MXN%2175.52%2120.77%21%21%213.60%210.99%21%402103241117315618540651934ec3ac%2112000033243163959%21sea%21MX%210%21ABX&amp;curPageLogUid=kEeiZDHhIxLa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007452735149.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-5&amp;pdp_npi=4%40dis%21MXN%21189.01%2120.77%21%21%2165.28%217.17%21%402103246617315932899911399e47f7%2112000040815846811%21sea%21MX%210%21ABX&amp;curPageLogUid=YXPPehqCuLVU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chip Hwfly Picofly Raspberry pi RP2040 para consola Switch Core, Oled, Lite, V1, V2 Erista y Mariko, actualizable y Flashable</t>
+          <t>Camiseta con estampado de The Quackin Duck para hombre y mujer, camisa de culturismo para levantamiento de pesas, ropa de calle</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007689194584.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;aem_p4p_detail=20241113212414274182214289200001405084&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-7&amp;pdp_npi=4%40dis%21MXN%21137.56%2120.77%21%21%2147.51%217.17%21%402103241117315618540651934ec3ac%2112000041851632525%21sea%21MX%210%21ABX&amp;curPageLogUid=PEKe2wFo5yWN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241113212414274182214289200001405084_2</t>
+          <t>https://es.aliexpress.com/item/1005007839574253.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-6&amp;pdp_npi=4%40dis%21MXN%21202.21%2120.77%21%21%2169.84%217.18%21%402103246617315932899911399e47f7%2112000042432850628%21sea%21MX%210%21ABX&amp;curPageLogUid=7ZTgQ7vRD5vD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -912,46 +912,46 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kit de soporte de acero para montaje en rack 52Pi 1U para Raspberry Pi 5 19 pulgadas 4 ranuras M.2 NVMe SSD 2230/2242/2260/2280</t>
+          <t>Camisetas con estampado 3D de Saint Seiya para hombres y mujeres, ropa de calle informal, camiseta de manga corta a la moda, camisetas con cuello redondo para niños, ropa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007868523153.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-8&amp;pdp_npi=4%40dis%21MXN%211803.76%211659.44%21%21%2185.99%2179.11%21%402103241117315618540651934ec3ac%2112000042621029466%21sea%21MX%210%21ABX&amp;curPageLogUid=bi2SKjFkMo2p&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006161094829.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;aem_p4p_detail=202411140608101346182348091920000140969&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-7&amp;pdp_npi=4%40dis%21MXN%21133.45%2120.77%21%21%2146.09%217.17%21%402103246617315932899911399e47f7%2112000036049954728%21sea%21MX%210%21ABX&amp;curPageLogUid=y3oxRGkAtpTH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608101346182348091920000140969_2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MX$1,659.44</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carcasa de aluminio para Raspberry Pi 4B, carcasa de Metal de refrigeración automática con adhesivo térmico para disipador térmico y ventiladores duales</t>
+          <t>Camiseta de uniforme de dibujos animados rojos Haikyuu Fukurodani para hombres, disfraz de Anime, camiseta de Karasuno, camisetas de voleibol para niños de secundaria</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007438111213.html?algo_pvid=95d3e79c-51ae-4f61-8a91-f98447ddf6cf&amp;algo_exp_id=95d3e79c-51ae-4f61-8a91-f98447ddf6cf-9&amp;pdp_npi=4%40dis%21MXN%21289.47%21214.16%21%21%2113.80%2110.21%21%402103241117315618540651934ec3ac%2112000040754799831%21sea%21MX%210%21ABX&amp;curPageLogUid=0Kark38TJ3IL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007498428580.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-8&amp;pdp_npi=4%40dis%21MXN%21121.78%2120.77%21%21%2142.06%217.17%21%402103246617315932899911399e47f7%2112000041032337611%21sea%21MX%210%21ABX&amp;curPageLogUid=Kmx5661RibrS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MX$214.16</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ventilador de refrigeración para Raspberry Pi 4, disipador de calor de aluminio con almohadilla de silicona, modelo B</t>
+          <t>Camiseta de dibujos animados de serie de Tv Friends para mujer, remera Harajuku con gráfico de mejores amigos, camiseta de estilo coreano, Top Vintage para mujer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/4000279401589.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-0&amp;pdp_npi=4%40dis%21MXN%2171.32%2120.77%21%21%213.40%210.99%21%402101c5a417315618552753615ea544%2110000001145919687%21sea%21MX%210%21ABX&amp;curPageLogUid=tTRSTijHRs7e&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006985060099.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-9&amp;pdp_npi=4%40dis%21MXN%21192.08%2120.77%21%21%2166.34%217.17%21%402103246617315932899911399e47f7%2112000038945758098%21sea%21MX%210%21ABX&amp;curPageLogUid=2kRm1FnVLupU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,80 +963,80 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Divisor de corriente USB para Raspberry Pi BliKVM y PiKVM "KVM sobre IP" compatible con HDMI CSI 1 en 2 tipo C divisor de potencia</t>
+          <t>Camiseta con estampado 3D de araña roja de Anime COSPALY para hombre y niño, camiseta transpirable con cuello redondo, ropa deportiva para exteriores, camisetas de manga corta para hombre</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006990346843.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-1&amp;pdp_npi=4%40dis%21MXN%2199.01%2120.77%21%21%214.72%210.99%21%402101c5a417315618552753615ea544%2112000038967974439%21sea%21MX%210%21ABX&amp;curPageLogUid=YuQnoyrEfP57&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007997971457.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-0&amp;pdp_npi=4%40dis%21MXN%21166.80%21166.80%21%21%2157.61%2157.61%21%402101e9a217315932914606456e4863%2112000043209191214%21sea%21MX%210%21ABX&amp;curPageLogUid=324uAOxf1oph&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$166.8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Carcasa de Metal de aluminio para Raspberry Pi 4, carcasa de argón NEO, cubierta magnética deslizante, refrigeración pasiva, disipador de calor opcional, ventilador para Pi 4 B</t>
+          <t>Camiseta lavada de Anime Attack on Titan para hombre, ropa de calle de Hip Hop, camiseta de gran tamaño con estampado gráfico, camisetas Vintage sueltas de algodón de manga corta</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/4000312472171.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-2&amp;pdp_npi=4%40dis%21MXN%21299.12%21162.77%21%21%2114.26%217.76%21%402101c5a417315618552753615ea544%2112000037481486129%21sea%21MX%210%21ABX&amp;curPageLogUid=NwCAia5jTlqo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007475073917.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-1&amp;pdp_npi=4%40dis%21MXN%21430.72%2120.77%21%21%21148.76%217.17%21%402101e9a217315932914606456e4863%2112000040918787100%21sea%21MX%210%21ABX&amp;curPageLogUid=5c82s2rMD2PY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MX$162.77</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Raspberry Pi Zero tira de 2x20 pines, cabezal macho Dual, cabezal de apilamiento multicolor, extensor para Raspberry Pi Zero, Pi0 W, 2 w</t>
+          <t>Camiseta con estampado de Fairy Tail END Natsu Manga, camisa Vintage de gran tamaño con estampado gráfico de Anime, ropa suelta informal de algodón lavado</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003780489823.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;aem_p4p_detail=202411132124152814601134481290001398968&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-3&amp;pdp_npi=4%40dis%21MXN%21106.56%2163.98%21%21%215.08%213.05%21%402101c5a417315618552753615ea544%2112000027143912480%21sea%21MX%210%21ABX&amp;curPageLogUid=7N9bBj7kyPSf&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411132124152814601134481290001398968_1</t>
+          <t>https://es.aliexpress.com/item/1005007858204811.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-2&amp;pdp_npi=4%40dis%21MXN%21581.02%21278.89%21%21%21200.67%2196.32%21%402101e9a217315932914606456e4863%2112000042564077616%21sea%21MX%210%21ABX&amp;curPageLogUid=WxVi7tEDPZUP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MX$63.98</t>
+          <t>MX$278.89</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pantalla táctil LCD IPS de 10,1 pulgadas para Raspberry Pi 5/4, 1024x600/1280x800, Monitor con soporte para Raspberry Pi 5 4B PC</t>
+          <t>Camiseta con estampado de personaje de Anime en 3D para hombre, ropa de calle de manga corta, estilo de Póster Artístico de Graffiti, Sexy, 2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005001311947746.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-4&amp;pdp_npi=4%40dis%21MXN%212426.55%211076.93%21%21%21115.68%2151.34%21%402101c5a417315618552753615ea544%2112000015661776796%21sea%21MX%210%21ABX&amp;curPageLogUid=RQi4KXUtSHuH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007821373673.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;aem_p4p_detail=202411140608115588279843988170000141458&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-3&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402101e9a217315932914606456e4863%2112000042328391291%21sea%21MX%210%21ABX&amp;curPageLogUid=AZirB42JhmP4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608115588279843988170000141458_1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MX$1,076.93</t>
+          <t>MX$65.66</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Raspberry Pi 3,5-pantalla táctil LCD TFT, ventilador de refrigeración con carcasa de Metal ABS opcional, 480x320, modelo B o 3B + 3B</t>
+          <t>Camisa de compresión de araña de Anime para hombre, ropa deportiva de manga corta para gimnasio, Fitness, Rashguard, culturismo, ajuste seco, ropa para correr</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007485364154.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-5&amp;pdp_npi=4%40dis%21MXN%21173.89%2120.77%21%21%218.29%210.99%21%402101c5a417315618552753615ea544%2112000040964650517%21sea%21MX%210%21ABX&amp;curPageLogUid=jGM0ZrOdfdUL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007740135186.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-4&amp;pdp_npi=4%40dis%21MXN%21112.34%2120.77%21%21%2138.80%217.17%21%402101e9a217315932914606456e4863%2112000042048384513%21sea%21MX%210%21ABX&amp;curPageLogUid=cep5KpaL7e10&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1048,68 +1048,2788 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Batería de polímero de litio para Raspberry Pi 4, solución de Banco de energía SW6106 con circuitos de protección (no incluye batería) para RPI 4/3B +</t>
+          <t>Miniso Disney-Camiseta de manga corta para hombre, camisa con estampado 3D de dibujos animados de Anime, Snoopy, personalizada, a la moda, novedad de verano, 2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003977476724.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-6&amp;pdp_npi=4%40dis%21MXN%21379.04%21199.90%21%21%2118.07%219.53%21%402101c5a417315618552753615ea544%2112000027622278487%21sea%21MX%210%21ABX&amp;curPageLogUid=4jIY26Uhmr2W&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007564171630.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-5&amp;pdp_npi=4%40dis%21MXN%21323.10%2120.77%21%21%21111.59%217.17%21%402101e9a217315932914606456e4863%2112000041313742377%21sea%21MX%210%21ABX&amp;curPageLogUid=pu04PgFXcoF9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MX$199.9</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Orange Pi CM4-memoria Ram de 1GB, 2GB, 4GB, 8GB, DDR4, RK3566, 8GB, 32GB, 64GB, Emmc, WIFI5-BT5.0, Orangepi, CM4, Android, Ubuntu, Linux OS, OPi CM 4</t>
+          <t>Camiseta de Dandad Japanaise Anime Manga regalo camisa exclusiva todas las tallas</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007356267284.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;aem_p4p_detail=202411132124152814601134481290001398968&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-7&amp;pdp_npi=4%40dis%21MXN%21376.49%21376.49%21%21%21130.03%21130.03%21%402101c5a417315618552753615ea544%2112000040404247056%21sea%21MX%210%21ABX&amp;curPageLogUid=Vw7qgBJOR0jI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411132124152814601134481290001398968_2</t>
+          <t>https://es.aliexpress.com/item/1005007935092354.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-6&amp;pdp_npi=4%40dis%21MXN%21191.15%2120.77%21%21%2166.02%217.18%21%402101e9a217315932914606456e4863%2112000042930599432%21sea%21MX%210%21ABX&amp;curPageLogUid=6hLvKYrg2rNN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MX$376.49</t>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fuente de alimentación Orange Pi 3 LTS, adaptador de corriente USB tipo C, 5V, 4A, 100-240V, enchufe europeo y estadounidense, cargador para OPI 5 Plus 5B 4 LTS Raspberry Pi 4B</t>
+          <t>Camisa de manga corta para hombre, camisa hawaiana con estampado japonés Ukiyoe, informal, ligera, para playa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004708389834.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-8&amp;pdp_npi=4%40dis%21MXN%21106.35%2120.77%21%21%215.07%210.99%21%402101c5a417315618552753615ea544%2112000030180927324%21sea%21MX%210%21ABX&amp;curPageLogUid=0VMHv7pAYRgI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006983053577.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;aem_p4p_detail=202411140608115588279843988170000141458&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-7&amp;pdp_npi=4%40dis%21MXN%21324.28%21275.64%21%21%21112.00%2195.20%21%402101e9a217315932914606456e4863%2112000038938553812%21sea%21MX%210%21ABX&amp;curPageLogUid=yFHYnSMCI5XS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608115588279843988170000141458_2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$275.64</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Carcasa de aluminio para Raspberry Pi 4, carcasa de argón One M.2 con ranura de expansión SSD SATA M2, cubierta GPIO, ventilador de refrigeración para Raspberry Pi 4 Modelo B</t>
+          <t>Camiseta Unisex Midoriya Izuku Deku, camiseta de dibujos animados japoneses para mujer, camiseta de Boku No Hero Academia de Anime My Hero Academia para mujer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005001721899988.html?algo_pvid=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7&amp;algo_exp_id=769825a4-dd20-4cc3-b58f-ab8d18f0e8a7-9&amp;pdp_npi=4%40dis%21MXN%211504.64%21842.62%21%21%2171.73%2140.17%21%402101c5a417315618552753615ea544%2112000017339140304%21sea%21MX%210%21ABX&amp;curPageLogUid=4wcdbj5CQY8w&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007908408576.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-8&amp;pdp_npi=4%40dis%21MXN%2196.28%2120.77%21%21%214.59%210.99%21%402101e9a217315932914606456e4863%2112000042796998826%21sea%21MX%210%21ABX&amp;curPageLogUid=NOv9FpJkqkjM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MX$842.62</t>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Dan Da Dan, camisetas Vintage lavadas de gran tamaño para Dandadan, ropa de calle Retro de Manga Ayase Momo Takakura Ken, camisetas para hombres</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007922836990.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-9&amp;pdp_npi=4%40dis%21MXN%21319.68%21282.34%21%21%2115.24%2113.46%21%402101e9a217315932914606456e4863%2112000042859741188%21sea%21MX%210%21ABX&amp;curPageLogUid=bvagJSkbP0w3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MX$282.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Camiseta Candy, shojo,riyoko, ikedarose of versailes, anime kawaii, todas las tallas</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007506935177.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-0&amp;pdp_npi=4%40dis%21MXN%21203.14%2120.77%21%21%2170.16%217.17%21%402103246617315932929611451e47f7%2112000041061849260%21sea%21MX%210%21ABX&amp;curPageLogUid=swY0cZIjMCy1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mob Psycho-Camiseta con estampado divertido para mujer, camisa de manga corta con cuello redondo, Top de alta calidad, 100</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007283416833.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-1&amp;pdp_npi=4%40dis%21MXN%21212.64%2120.77%21%21%2173.44%217.17%21%402103246617315932929611451e47f7%2112000040064446492%21sea%21MX%210%21ABX&amp;curPageLogUid=fXMWVgrOhBxY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Camisetas de dibujos animados japoneses para hombres y mujeres, camisetas de Anime Kawaii, Anya, Forger, Spy X Family, moda de verano</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006677313159.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-2&amp;pdp_npi=4%40dis%21MXN%21147.93%2120.77%21%21%2151.09%217.17%21%402103246617315932929611451e47f7%2112000037990011796%21sea%21MX%210%21ABX&amp;curPageLogUid=Uw6rbGVTg1nP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Anime Fate/kaleid para hombre y mujer, camisa de manga corta con estampado divertido, ropa de calle para Cosplay, moda de verano</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007278670146.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;aem_p4p_detail=20241114060813467564591849760000142535&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-3&amp;pdp_npi=4%40dis%21MXN%21101.34%2165.87%21%21%2135.00%2122.75%21%402103246617315932929611451e47f7%2112000040043030613%21sea%21MX%210%21ABX&amp;curPageLogUid=MuXu91Pg3AxK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060813467564591849760000142535_1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MX$65.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Camiseta de algodón con estampado gráfico de Attack on Titan para hombre y mujer, camisa informal de manga corta, talla grande, moda de Anime japonés, Verano</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007184672783.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-4&amp;pdp_npi=4%40dis%21MXN%21321.10%21134.87%21%21%21110.90%2146.58%21%402103246617315932929611451e47f7%2112000039734004498%21sea%21MX%210%21ABX&amp;curPageLogUid=dmmjaGrYAIn4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MX$134.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Camiseta lavada de trébol negro de Anime, ropa de calle Harajuku, camiseta Vintage gráfica, camiseta de manga corta de Hip Hop de algodón 100% de verano</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007217281068.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-5&amp;pdp_npi=4%40dis%21MXN%21423.28%2120.77%21%21%21146.19%217.17%21%402103246617315932929611451e47f7%2112000039840674859%21sea%21MX%210%21ABX&amp;curPageLogUid=IeB7xuXNUc4W&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con estampado de Anime de Deku, camiseta informal de moda, Tops de verano</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006735966623.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-6&amp;pdp_npi=4%40dis%21MXN%21145.93%2120.77%21%21%2150.40%217.17%21%402103246617315932929611451e47f7%2112000038131585006%21sea%21MX%210%21ABX&amp;curPageLogUid=YN8LJ046pZjF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Camisa hawaiana de manga corta para hombre, camisa informal con estampado de nutria, cuello levantado, talla grande, a la moda, para uso diario, 2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007119778110.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;aem_p4p_detail=20241114060813467564591849760000142535&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-7&amp;pdp_npi=4%40dis%21MXN%21324.28%21184.84%21%21%21112.00%2163.84%21%402103246617315932929611451e47f7%2112000039466043842%21sea%21MX%210%21ABX&amp;curPageLogUid=UWjrNwKKoFJ9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060813467564591849760000142535_2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MX$184.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime japonés Harajuku Berserk Guts Eyes Print, divertida camiseta gráfica, camiseta de Manga, camisetas de Hip Hop</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006739370929.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-8&amp;pdp_npi=4%40dis%21MXN%21310.59%2120.77%21%21%21107.27%217.17%21%402103246617315932929611451e47f7%2112000038143330540%21sea%21MX%210%21ABX&amp;curPageLogUid=XpXLeJ5yxk9n&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de ataque gigante a los Titanes para hombre y mujer, camiseta de Anime de moda con cuello redondo, ropa de calle, Top genial</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006793845240.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-9&amp;pdp_npi=4%40dis%21MXN%21121.61%21121.61%21%21%2142.00%2142.00%21%402103246617315932929611451e47f7%2112000040770826169%21sea%21MX%210%21ABX&amp;curPageLogUid=ylekqH6WwGlh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MX$121.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Camiseta de compresión estética de Anime para hombre, ropa deportiva de secado rápido, camisetas ajustadas para gimnasio, ropa interior de verano, chándal, 2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007758913041.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-0&amp;pdp_npi=4%40dis%21MXN%21112.34%2120.77%21%21%2138.80%217.17%21%402103246617315932946071478e47f7%2112000042106368216%21sea%21MX%210%21ABX&amp;curPageLogUid=02KKoP6sec27&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Camiseta estampada de Manga Anya Forger para mujer, remera de Anime Rosa divertida de la familia Spy X, playera informal Harajuku de Manga corta para mujer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006936912999.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-1&amp;pdp_npi=4%40dis%21MXN%2185.73%2120.77%21%21%2129.61%217.17%21%402103246617315932946071478e47f7%2112000038788379883%21sea%21MX%210%21ABX&amp;curPageLogUid=8hc7t3416uwc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Camisetas con patrón divertido de dragón Harajuku para hombres y mujeres, camiseta de Hip Hop, ropa de algodón para parejas, camiseta suelta de algodón de verano</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006768129826.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-2&amp;pdp_npi=4%40dis%21MXN%21290.93%2120.77%21%21%21100.48%217.17%21%402103246617315932946071478e47f7%2112000038233935030%21sea%21MX%210%21ABX&amp;curPageLogUid=wztTTSkJPJbL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Camisa informal con estampado de mono de Anime para hombre, ropa de gran tamaño, camisetas Kawaii de manga corta, ropa de calle Harajuku, Tops 2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007425668514.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;aem_p4p_detail=2024111406081413102788296487000000127948&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-3&amp;pdp_npi=4%40dis%21MXN%21182.08%21168.24%21%21%218.68%218.02%21%402103246617315932946071478e47f7%2112000040711852857%21sea%21MX%210%21ABX&amp;curPageLogUid=3IT52sKEEjRX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081413102788296487000000127948_1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MX$168.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con cuello redondo para hombre, ropa de calle de algodón con estampado Retro de los 90, serie animada de Marvel x-men</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007347579752.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-4&amp;pdp_npi=4%40dis%21MXN%21340.15%2120.77%21%21%21117.48%217.17%21%402103246617315932946071478e47f7%2112000040362920446%21sea%21MX%210%21ABX&amp;curPageLogUid=eRKv4cxtCVKw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Camiseta de pirata Ace Edward Newgate para hombre y mujer, camisa de Cosplay de Anime de una pieza, Tops de manga corta de algodón, ropa Harajuku</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007638654545.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-5&amp;pdp_npi=4%40dis%21MXN%21336.07%2120.77%21%21%21116.07%217.17%21%402103246617315932946071478e47f7%2112000041601651067%21sea%21MX%210%21ABX&amp;curPageLogUid=HO8O8Up023d2&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Camisetas de Jojo Bizarre Adventure para hombre y mujer, ropa de calle con estampado 3D de Manga de Anime, Tops de gran tamaño a la moda para niños, novedad de 2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006982803261.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-6&amp;pdp_npi=4%40dis%21MXN%21230.68%2120.77%21%21%2179.67%217.17%21%402103246617315932946071478e47f7%2112000038936709362%21sea%21MX%210%21ABX&amp;curPageLogUid=soATp1mt15IX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Camisetas de Anime Baki The Grappler para hombres y mujeres, ropa de calle con estampado 3D de Yujiro Hanma, camiseta de manga corta a la moda, camisetas para niños, ropa</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007327823874.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;aem_p4p_detail=2024111406081413102788296487000000127948&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-7&amp;pdp_npi=4%40dis%21MXN%21134.55%2120.77%21%21%2146.47%217.17%21%402103246617315932946071478e47f7%2112000040284436572%21sea%21MX%210%21ABX&amp;curPageLogUid=aM67MbHnruze&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081413102788296487000000127948_2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado Berserk para hombre, camiseta lavada Vintage, camiseta gráfica de Anime Guts, ropa de calle de hip hop, camisetas informales de verano, ropa Berserk</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007381729812.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-8&amp;pdp_npi=4%40dis%21MXN%21576.68%2182.78%21%21%21199.17%2128.59%21%402103246617315932946071478e47f7%2112000040511975913%21sea%21MX%210%21ABX&amp;curPageLogUid=EMGnfJOWlVGh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MX$82.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Genshin Impact Raiden Shogun camiseta Anime Unisex Harajuku camiseta todas las tallas</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007985467217.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-9&amp;pdp_npi=4%40dis%21MXN%21192.86%21172.01%21%21%2166.61%2159.41%21%402103246617315932946071478e47f7%2112000043163136494%21sea%21MX%210%21ABX&amp;curPageLogUid=I2grsjio3itd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MX$172.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado divertido de Mob Psycho para mujer, camiseta divertida de Anime, Hip Hop, manga corta, cuello redondo, Top de alta calidad</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007633198491.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-0&amp;pdp_npi=4%40dis%21MXN%21220.25%21103.51%21%21%2176.07%2135.75%21%402101ea8c17315932961395783e5f0a%2112000041581304228%21sea%21MX%210%21ABX&amp;curPageLogUid=KtoB9c8PKasX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MX$103.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Anime Horror Jujutsu Kaisen Fushiguro Toji camiseta negra de manga corta, todas las tallas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007492422254.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-1&amp;pdp_npi=4%40dis%21MXN%21186.72%2120.77%21%21%2164.49%217.17%21%402101ea8c17315932961395783e5f0a%2112000041008477031%21sea%21MX%210%21ABX&amp;curPageLogUid=804o5muv6yq6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Camiseta de Manga corta para hombre, camisa divertida de anime, bleach Gotei 13, Kyoraku, Shunsui, Ichimaru, Gin, Unisex</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005261254949.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-2&amp;pdp_npi=4%40dis%21MXN%21171.17%2120.77%21%21%218.16%210.99%21%402101ea8c17315932961395783e5f0a%2112000032398599639%21sea%21MX%210%21ABX&amp;curPageLogUid=tAr32Nba02kY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Camisetas de Anime con estampado 3D Oshi No Ko para mujer, ropa de calle informal, camiseta de manga corta, camisetas de cuello redondo para niños, ropa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006249309304.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;aem_p4p_detail=20241114060816510564306154140000141801&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-3&amp;pdp_npi=4%40dis%21MXN%21132.70%2120.77%21%21%2145.83%217.17%21%402101ea8c17315932961395783e5f0a%2112000036465066234%21sea%21MX%210%21ABX&amp;curPageLogUid=HoYBCHPUNjUv&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060816510564306154140000141801_1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Attack On Titan para hombre y mujer, ropa de calle informal Harajuku, Hip Hop, transpirable, de verano</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007092599108.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-4&amp;pdp_npi=4%40dis%21MXN%21104.38%2120.77%21%21%2136.05%217.17%21%402101ea8c17315932961395783e5f0a%2112000039375892284%21sea%21MX%210%21ABX&amp;curPageLogUid=P97ZIyizDGO9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Camiseta Tokio Hotel para mujer, camiseta de anime para mujer, ropa japonesa de anime de los años 2000</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005967575926.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-5&amp;pdp_npi=4%40dis%21MXN%2165.03%2120.77%21%21%213.10%210.99%21%402101ea8c17315932961395783e5f0a%2112000035094063365%21sea%21MX%210%21ABX&amp;curPageLogUid=BWBxjRH2a66b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Valorant para hombre, de alta calidad Camisa de algodón, talla europea, ropa de calle de dibujos animados Unisex, camiseta estampada Vintage</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005147498403.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-6&amp;pdp_npi=4%40dis%21MXN%21265.77%2120.77%21%21%2112.67%210.99%21%402101ea8c17315932961395783e5f0a%2112000031855867572%21sea%21MX%210%21ABX&amp;curPageLogUid=Wkwhyuah394P&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Polo informal con botones para hombre, Camiseta con estampado completo de máscara japonesa samurái, Polo gráfico de manga corta, camiseta de talla grande</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007475874556.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;aem_p4p_detail=20241114060816510564306154140000141801&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-7&amp;pdp_npi=4%40dis%21MXN%21226.13%2174.68%21%21%2110.78%213.56%21%402101ea8c17315932961395783e5f0a%2112000040906218023%21sea%21MX%210%21ABX&amp;curPageLogUid=raKAXr1r0P0x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060816510564306154140000141801_2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MX$74.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Camisas de compresión de manga larga para hombre, camiseta de Cosplay de Comics Spider, Top de superhéroe, ropa deportiva elástica para Fitness, ropa de Halloween</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007517179777.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-8&amp;pdp_npi=4%40dis%21MXN%21222.05%2120.77%21%21%2176.69%217.17%21%402101ea8c17315932961395783e5f0a%2112000041099132633%21sea%21MX%210%21ABX&amp;curPageLogUid=q04BBvTaP8iw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Camiseta de compresión de Anime para hombre, ropa interior deportiva de secado rápido, ajustada, para gimnasio, verano, 2023</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007298798529.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-9&amp;pdp_npi=4%40dis%21MXN%21192.40%2171.20%21%21%2166.45%2124.59%21%402101ea8c17315932961395783e5f0a%2112000040110422636%21sea%21MX%210%21ABX&amp;curPageLogUid=rhC5Fg3Vka5v&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MX$71.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Camisa con estampado Hentai de Anime, Camiseta estampada de última moda de verano, camiseta de moda urbana, Camiseta 100% de algodón de gran tamaño</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007423656769.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-0&amp;pdp_npi=4%40dis%21MXN%21339.37%21141.50%21%21%21117.21%2148.87%21%402101e9a217315932976676643e4863%2112000040699809098%21sea%21MX%210%21ABX&amp;curPageLogUid=LLSm9hMTWKKu&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MX$141.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Camiseta gráfica para amantes del Anime, ropa de algodón de todos los tamaños, Thorn Princes Yor Forger</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007791807080.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-1&amp;pdp_npi=4%40dis%21MXN%21194.57%21175.37%21%21%2167.20%2160.57%21%402101e9a217315932976676643e4863%2112000042215806602%21sea%21MX%210%21ABX&amp;curPageLogUid=zSuteafVATGD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MX$175.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con estampado 3D de Anime Demon Slayer, Kimetsu no Yaiba, Kamado, Nezuko, Kochou, Shinobu</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005877867635.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-2&amp;pdp_npi=4%40dis%21MXN%21100.30%2120.77%21%21%2134.64%217.17%21%402101e9a217315932976676643e4863%2112000034675027377%21sea%21MX%210%21ABX&amp;curPageLogUid=DMpCHiyMtcVF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Demon Slayer Anime japonés Manga frinend gráfico divertido dibujos animados Harajuku verano manga corta simple Tops camisetas</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007432712192.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;aem_p4p_detail=2024111406081715762603329496450000139925&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-3&amp;pdp_npi=4%40dis%21MXN%21196.02%2168.59%21%21%2167.70%2123.69%21%402101e9a217315932976676643e4863%2112000040732664747%21sea%21MX%210%21ABX&amp;curPageLogUid=XMUaiUYyGYYH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081715762603329496450000139925_1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MX$68.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de All Might My Hero Academia para hombre y mujer, ropa informal de gran tamaño con dibujos animados de Anime, novedad de 2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007888916715.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-4&amp;pdp_npi=4%40dis%21MXN%21144.77%2147.42%21%21%2150.00%2116.38%21%402101e9a217315932976676643e4863%2112000042732749325%21sea%21MX%210%21ABX&amp;curPageLogUid=3MPuNtluNxdL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MX$47.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jersey patrón de fútbol sala Vl Replika Blue Lock Anime Bastard Munich verano hombres y mujeres 3dt camisa Casual deportes camiseta Top</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007763920041.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-5&amp;pdp_npi=4%40dis%21MXN%21124.01%21112.43%21%21%2142.83%2138.83%21%402101e9a217315932976676643e4863%2112000042126377265%21sea%21MX%210%21ABX&amp;curPageLogUid=xIkMYBSZz54Y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MX$112.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Camisetas de dibujos animados de Hello Kitty para hombre, ropa de algodón, ropa de calle de playa, camiseta de manga corta con cuello redondo, camiseta con estampado Hippie de talla grande</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007946475241.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-6&amp;pdp_npi=4%40dis%21MXN%21202.68%2195.26%21%21%2170.00%2132.90%21%402101e9a217315932976676643e4863%2112000042971000198%21sea%21MX%210%21ABX&amp;curPageLogUid=TmIATVLHtNQy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MX$95.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AKIRA-Camiseta de manga larga Y2K para hombre y mujer, camisa gótica Vintage de gran tamaño, Hip Hop, primavera y otoño, nueva</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007639611405.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;aem_p4p_detail=2024111406081715762603329496450000139925&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-7&amp;pdp_npi=4%40dis%21MXN%21202.39%21202.39%21%21%2169.90%2169.90%21%402101e9a217315932976676643e4863%2112000041605516999%21sea%21MX%210%21ABX&amp;curPageLogUid=rxPBbOXcaYrd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081715762603329496450000139925_2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MX$202.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Calcifer-Camiseta harajuku de diseñador para mujer, ropa de manga japonesa, top de verano</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007407258330.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-8&amp;pdp_npi=4%40dis%21MXN%21108.24%2120.77%21%21%215.16%210.99%21%402101e9a217315932976676643e4863%2112000040618429632%21sea%21MX%210%21ABX&amp;curPageLogUid=k7RnsfFqlUzT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(Miniso) camiseta de Anime de una pieza para hombre y mujer, Camiseta estampada de Tony Chopper, Camiseta deportiva de ocio, ropa de calle para hombre y mujer</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007790651328.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-9&amp;pdp_npi=4%40dis%21MXN%21328.34%2120.77%21%21%21113.40%217.17%21%402101e9a217315932976676643e4863%2112000042212651609%21sea%21MX%210%21ABX&amp;curPageLogUid=4fq7sFHMWIVN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de gato para mujer, ropa de calle Y2K, harajuku japonés, ropa de anime</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007584796794.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-0&amp;pdp_npi=4%40dis%21MXN%2195.86%2120.77%21%21%214.57%210.99%21%402101e9a217315932990056672e4863%2112000041393337563%21sea%21MX%210%21ABX&amp;curPageLogUid=2Xtc8qCZrqk7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BUNS OF STEEL Rabbit Camiseta de manga corta para hombre, camisa informal de gran tamaño para Fitness, gimnasio, culturismo, rata, cuello redondo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006676393702.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-1&amp;pdp_npi=4%40dis%21MXN%21301.32%2120.77%21%21%21104.07%217.18%21%402101e9a217315932990056672e4863%2112000037988716867%21sea%21MX%210%21ABX&amp;curPageLogUid=PG4ROZMA7OpE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta informal con estampado de Anime en 3D para hombre, ropa para el hogar, camisetas de manga corta de verano de alta calidad, novedad de 2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007634859604.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-2&amp;pdp_npi=4%40dis%21MXN%21109.65%21103.77%21%21%2137.87%2135.84%21%402101e9a217315932990056672e4863%2112000041587663147%21sea%21MX%210%21ABX&amp;curPageLogUid=pQwLg6LJBnZ7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MX$103.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Anime para niños, camiseta de manga corta, Kit Harajuku bonito, Top de verano</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006967954782.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;aem_p4p_detail=202411140608191411160037114280000127857&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-3&amp;pdp_npi=4%40dis%21MXN%21192.77%2120.77%21%21%219.19%210.99%21%402101e9a217315932990056672e4863%2112000038888051154%21sea%21MX%210%21ABX&amp;curPageLogUid=Sw59iVI8DXKj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608191411160037114280000127857_1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Camiseta con patrón de samurái, Tops informales a la moda, camiseta para hombre, ropa de manga corta, blusa holgada de verano de estilo japonés de Anime 3d 2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007967936120.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-4&amp;pdp_npi=4%40dis%21MXN%2171.32%2121.40%21%21%213.40%211.02%21%402101e9a217315932990056672e4863%2112000043113160335%21sea%21MX%210%21ABX&amp;curPageLogUid=uMzMwcZkOhv0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MX$21.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jujutsu Kaisen Camisetas estampadas Kawaii para mujer, Tops Kawaii de verano, camiseta de dibujos animados Harajuku, camiseta de Anime japonés Ulzzang para mujer</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006360285410.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-5&amp;pdp_npi=4%40dis%21MXN%2195.23%2120.77%21%21%214.54%210.99%21%402101e9a217315932990056672e4863%2112000036890162429%21sea%21MX%210%21ABX&amp;curPageLogUid=EEioctaEFOQZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Camisetas con estampado 3D de Anime para hombres y mujeres, camiseta de manga corta de gran tamaño, a la moda ropa de calle, camisetas con cerradura azul</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007336257349.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-6&amp;pdp_npi=4%40dis%21MXN%21127.08%2120.77%21%21%2143.89%217.17%21%402101e9a217315932990056672e4863%2112000041623243714%21sea%21MX%210%21ABX&amp;curPageLogUid=AZjd2LAVcOJF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Camisas Henley con estampado 3D para hombre, camisa de manga larga con botones, Estilo Vintage, ropa de primavera y otoño</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006847884971.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;aem_p4p_detail=202411140608191411160037114280000127857&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-7&amp;pdp_npi=4%40dis%21MXN%21198.33%2189.23%21%21%2168.50%2130.82%21%402101e9a217315932990056672e4863%2112000038505835761%21sea%21MX%210%21ABX&amp;curPageLogUid=Op8VhCT9usi8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608191411160037114280000127857_2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MX$89.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Camiseta para hombre, camiseta Y2k de otoño, ropa de calle, camiseta de Anime de manga larga de gran tamaño, camisetas de Manga con gráfico Vintage gótico Harajuku</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005004003413878.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-8&amp;pdp_npi=4%40dis%21MXN%21159.00%2120.77%21%21%217.58%210.99%21%402101e9a217315932990056672e4863%2112000027708210844%21sea%21MX%210%21ABX&amp;curPageLogUid=a1k23t0O1Kxr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Camiseta de Cosplay de Anime Haikyuu para hombre, uniforme de voleibol Karasuno, Hinata, Shoyo, Kageyama, Tobio, ropa divertida para niño</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007318139683.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-9&amp;pdp_npi=4%40dis%21MXN%21303.24%2120.77%21%21%21104.73%217.17%21%402101e9a217315932990056672e4863%2112000040486511134%21sea%21MX%210%21ABX&amp;curPageLogUid=zdxe4XT0HtGT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Camiseta de compresión con estampado de Anime para hombre, ropa interior elástica de secado rápido para gimnasio, Verano</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007852640448.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-0&amp;pdp_npi=4%40dis%21MXN%21173.72%2120.77%21%21%2160.00%217.17%21%402101c80217315933005146131e4bb8%2112000042545596002%21sea%21MX%210%21ABX&amp;curPageLogUid=GTpkvHWbIdpN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Camiseta de animación clásica Mazinger Z para hombres y mujeres, ropa de calle de manga corta con estampado 3D de Robot de Anime, Tops Harajuku para niños, nueva gran oferta</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007099140884.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-1&amp;pdp_npi=4%40dis%21MXN%21149.11%2120.77%21%21%2151.50%217.18%21%402101c80217315933005146131e4bb8%2112000039400196421%21sea%21MX%210%21ABX&amp;curPageLogUid=q3QxjyjttJul&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Camiseta gráfica del rapero Mf Doom MM FOOD Doomsday para hombres y mujeres, camiseta Vintage lavada de Hip Hop Rap, camisetas geniales de gran tamaño a la moda para hombre</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007492705859.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-2&amp;pdp_npi=4%40dis%21MXN%21317.34%2120.77%21%21%21109.60%217.17%21%402101c80217315933005146131e4bb8%2112000041010489755%21sea%21MX%210%21ABX&amp;curPageLogUid=zypXT3gm4wCh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Camisa de Horror de samurái para hombre, Camisa Masculina Retro, ajustada, con estampado japonés, informal, de gran tamaño, Estilo Hawaiano</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007486756903.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;aem_p4p_detail=2024111406082011798106394202400000142255&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-3&amp;pdp_npi=4%40dis%21MXN%21282.97%2193.34%21%21%2113.49%214.45%21%402101c80217315933005146131e4bb8%2112000040972484925%21sea%21MX%210%21ABX&amp;curPageLogUid=pZIgXQzrBSjL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406082011798106394202400000142255_1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MX$93.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de Jojo Bizarre Adventure para hombre y mujer, Tops informales de manga corta a la moda, Tops de algodón de gran tamaño, ropa de calle</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006773862431.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-4&amp;pdp_npi=4%40dis%21MXN%21301.32%2120.77%21%21%21104.07%217.18%21%402101c80217315933005146131e4bb8%2112000038256625389%21sea%21MX%210%21ABX&amp;curPageLogUid=go8igoQFBghV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bubu Dudu-Camiseta de anime para mujer, camisa de moda clásica gótica Retro, ropa de calle Punk, Digital, Pastel, Y2k</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007861915806.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-5&amp;pdp_npi=4%40dis%21MXN%21101.60%21101.60%21%21%2135.09%2135.09%21%402101c80217315933005146131e4bb8%2112000042587655525%21sea%21MX%210%21ABX&amp;curPageLogUid=wluTe6M8JkLe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MX$101.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Camiseta de Johnny Depp Today I m Feeling para hombre, # P1 # o</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007078718214.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-6&amp;pdp_npi=4%40dis%21MXN%21188.26%21188.26%21%21%2165.02%2165.02%21%402101c80217315933005146131e4bb8%2112000039351961602%21sea%21MX%210%21ABX&amp;curPageLogUid=2WAfnTejwZXO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MX$188.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Camiseta Popular de Anime para hombres y mujeres, camisa con estampado 3D, estilo Harajuku informal, ropa de calle, Kangan Ashura</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007591228840.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;aem_p4p_detail=2024111406082011798106394202400000142255&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-7&amp;pdp_npi=4%40dis%21MXN%21100.99%2120.77%21%21%2134.88%217.17%21%402101c80217315933005146131e4bb8%2112000041419006110%21sea%21MX%210%21ABX&amp;curPageLogUid=OkD4nt9bYqMY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406082011798106394202400000142255_2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Top corto gótico Y2k para mujer, camiseta de Manga de los años 90, ropa recortada, ropa de calle femenina, camiseta gótica Punk Grunge, camiseta superior</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005710808606.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-8&amp;pdp_npi=4%40dis%21MXN%2173.84%2120.77%21%21%213.52%210.99%21%402101c80217315933005146131e4bb8%2112000034085544708%21sea%21MX%210%21ABX&amp;curPageLogUid=nhtzKu9d7if1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Camiseta de Freddie Mercury Queen Band para mujer, camiseta Vintage Harajuku Ullzang, camiseta de reina de moda, Top de Rock gráfico para mujer</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005293430931.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-9&amp;pdp_npi=4%40dis%21MXN%21113.06%21113.06%21%21%215.39%215.39%21%402101c80217315933005146131e4bb8%2112000032520360573%21sea%21MX%210%21ABX&amp;curPageLogUid=WXgZYQOiGmVI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MX$113.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Camiseta deportiva de manga corta con estampado de Anime para hombre, sudadera de compresión para gimnasio, chándal para correr</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007739970294.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-0&amp;pdp_npi=4%40dis%21MXN%21112.34%2142.68%21%21%2138.80%2114.74%21%402101c80217315933020026190e4bb8%2112000042047705978%21sea%21MX%210%21ABX&amp;curPageLogUid=FjtImdJ0fa0w&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MX$42.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Camiseta Popular de Anime japonés Demon Slayer para hombres y mujeres, camiseta de Cosplay de Kamado Tanjirou, Camiseta con estampado 3D para niños, camisetas Y2k de manga corta de verano</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007474898428.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-1&amp;pdp_npi=4%40dis%21MXN%21101.34%2120.77%21%21%2135.00%217.17%21%402101c80217315933020026190e4bb8%2112000040901920753%21sea%21MX%210%21ABX&amp;curPageLogUid=TaCpLeL8JAKP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(Uniqlo) Camiseta de una pieza de Anime, Camiseta estampada FRANKY, camiseta deportiva de ocio para hombres y mujeres, ropa de verano para hombres</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007687999544.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-2&amp;pdp_npi=4%40dis%21MXN%21385.55%2120.77%21%21%21133.16%217.18%21%402101c80217315933020026190e4bb8%2112000041841587743%21sea%21MX%210%21ABX&amp;curPageLogUid=gQ4CVxaUfIZz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Summer My Hero Academia Bakugo Katsuki Printed Fashion T shirt Men's Women's Fashion High Quality Loose T-Shirt Casual</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007895960981.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;aem_p4p_detail=20241114060822315023942507520000128554&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-3&amp;pdp_npi=4%40dis%21MXN%21140.98%2120.77%21%21%2148.69%217.17%21%402101c80217315933020026190e4bb8%2112000042754922772%21sea%21MX%210%21ABX&amp;curPageLogUid=w0BrsrSNhGZD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060822315023942507520000128554_1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sabrina-Camiseta de carpintero para mujer, camisa de anime japonés, ropa de diseñador, Y2K</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007567665277.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-4&amp;pdp_npi=4%40dis%21MXN%2188.66%2120.77%21%21%2130.62%217.17%21%402101c80217315933020026190e4bb8%2112000041327598553%21sea%21MX%210%21ABX&amp;curPageLogUid=7bxDt6hQOJ2B&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Camisetas de Anime Attack On Titan, camiseta Vintage de gran tamaño lavada Shingeki no Kyojin, camisetas de Manga corta de Manga Eren Mikasa Levi</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007204867380.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-5&amp;pdp_npi=4%40dis%21MXN%21425.04%2137.92%21%21%21146.80%2113.10%21%402101c80217315933020026190e4bb8%2112000039797505031%21sea%21MX%210%21ABX&amp;curPageLogUid=lp9W2h7v9pOs&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MX$37.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Camiseta de cumpleaños de 40 años para mujer, camiseta kawaii Punk de los años 80, ropa de calle cómoda, ropa coreana</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007864893919.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-6&amp;pdp_npi=4%40dis%21MXN%2175.54%2175.54%21%21%2126.09%2126.09%21%402101c80217315933020026190e4bb8%2112000042599067603%21sea%21MX%210%21ABX&amp;curPageLogUid=GMLU97Kwp09b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MX$75.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Camiseta de dibujos animados de Disney para mujer, Camiseta estampada de Stitch, Top corto, camisetas cortas góticas para mujer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007379422031.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;aem_p4p_detail=20241114060822315023942507520000128554&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-7&amp;pdp_npi=4%40dis%21MXN%21108.66%2120.77%21%21%215.18%210.99%21%402101c80217315933020026190e4bb8%2112000040494569842%21sea%21MX%210%21ABX&amp;curPageLogUid=rHSc9H87sZ3S&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060822315023942507520000128554_2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Camisetas con estampado de camiseta de Anime Blue Lock para hombre, camiseta con estampado Unisex de dibujos animados de fútbol de Bastard Munich, camisetas deportivas de entrenamiento</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007566651766.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-8&amp;pdp_npi=4%40dis%21MXN%21316.32%2120.77%21%21%21109.25%217.17%21%402101c80217315933020026190e4bb8%2112000041324573761%21sea%21MX%210%21ABX&amp;curPageLogUid=we49qyGrm0IK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Berserk Guts camiseta de compresión para hombre, ropa interior de manga larga, ajustada, para deportes de Fitness, correr, gimnasio, cálida, para exteriores, otoño</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007603549672.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-9&amp;pdp_npi=4%40dis%21MXN%21159.88%21159.88%21%21%2155.22%2155.22%21%402101c80217315933020026190e4bb8%2112000041474624467%21sea%21MX%210%21ABX&amp;curPageLogUid=fOJji3klT4qe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MX$159.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta de Anime Berserk Guts para hombre, ropa Rashgard, camiseta de culturismo de segunda piel, Camisa ajustada de compresión de secado rápido</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006498171753.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-0&amp;pdp_npi=4%40dis%21MXN%21334.13%2120.77%21%21%21115.40%217.17%21%402103246617315933034901671e47f7%2112000037422621434%21sea%21MX%210%21ABX&amp;curPageLogUid=cUc62k0j61bF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Camiseta Harajuku con estampado de Ojos de Anime para mujer, camiseta Y2K, camiseta de verano Berserk Guts, ropa de moda, Tops de manga corta</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005004937966827.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-1&amp;pdp_npi=4%40dis%21MXN%21215.22%2120.77%21%21%2110.26%210.99%21%402103246617315933034901671e47f7%2112000031084113751%21sea%21MX%210%21ABX&amp;curPageLogUid=quOpQRVX0Igs&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Camiseta de Manga corta con estampado de Initial D Drift Car Akagi RedSuns, camisa de Anime AE86, JDM, Tops de Takumi Fujiwara</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006628049823.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-2&amp;pdp_npi=4%40dis%21MXN%21127.51%2120.77%21%21%2144.04%217.17%21%402103246617315933034901671e47f7%2112000037865985787%21sea%21MX%210%21ABX&amp;curPageLogUid=0jKtE3ydsLEr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Anime para hombre, ropa de calle informal de manga corta con cuello redondo, Harajuku, Hip Hop, 2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007324853704.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;aem_p4p_detail=20241114060823599215027961880000145078&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-3&amp;pdp_npi=4%40dis%21MXN%21173.72%2152.11%21%21%2160.00%2118.00%21%402103246617315933034901671e47f7%2112000040267254239%21sea%21MX%210%21ABX&amp;curPageLogUid=uV6sCeWTYIHA&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060823599215027961880000145078_1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MX$52.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Camisetas de algodón con estampado de coche para hombre y mujer, ropa de calle de manga corta con estampado de Anime japonés, S-4XL, Envío Gratis</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007047576563.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-4&amp;pdp_npi=4%40dis%21MXN%21301.76%2120.77%21%21%21104.22%217.17%21%402103246617315933034901671e47f7%2112000039216169553%21sea%21MX%210%21ABX&amp;curPageLogUid=0TOUBhNPCCTX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de personaje de Anime japonés en 3D para hombre, camisa informal de tendencia callejera, Tops holgados de manga corta de gran tamaño, novedad de verano</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007430974490.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-5&amp;pdp_npi=4%40dis%21MXN%21106.84%21106.84%21%21%2136.90%2136.90%21%402103246617315933034901671e47f7%2112000040728184468%21sea%21MX%210%21ABX&amp;curPageLogUid=hQwHQnNInWlw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MX$106.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime y Manga para hombre y mujer, ropa de algodón deportiva para gimnasio, HIP HOP japonés, ropa de calle Y2K, Tops de Manga corta</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007625936991.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-6&amp;pdp_npi=4%40dis%21MXN%21351.50%2120.77%21%21%21121.40%217.17%21%402103246617315933034901671e47f7%2112000041553705464%21sea%21MX%210%21ABX&amp;curPageLogUid=4G6NeA58wKFE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Camiseta Vintage para hombre, camisa con estampado de bonitos personajes de Anime, cuello redondo, informal, ropa de gran tamaño, Top</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007489618533.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;aem_p4p_detail=20241114060823599215027961880000145078&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-7&amp;pdp_npi=4%40dis%21MXN%21119.52%21110.25%21%21%2141.28%2138.08%21%402103246617315933034901671e47f7%2112000040987897978%21sea%21MX%210%21ABX&amp;curPageLogUid=1qQonbZdy54X&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060823599215027961880000145078_2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MX$110.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Camiseta Yugioh, camiseta Yu-gi-oh, cartas de Dios egipcio Yu Gi Oh, camiseta de Anime, juego de monstruos duelo, ropa de calle informal estampada para hombre</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005004421632170.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-8&amp;pdp_npi=4%40dis%21MXN%2183.07%2120.77%21%21%213.96%210.99%21%402103246617315933034901671e47f7%2112000030214381930%21sea%21MX%210%21ABX&amp;curPageLogUid=QixmPLM3UT6t&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tsubasa School Nansheng Camiseta de manga corta para niños, camisetas de capitán de animación 3D, Kits de oliva y Benji, Camiseta deportiva de moda</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007335860000.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-9&amp;pdp_npi=4%40dis%21MXN%21272.78%2120.77%21%21%2194.21%217.17%21%402103246617315933034901671e47f7%2112000040316170395%21sea%21MX%210%21ABX&amp;curPageLogUid=pG3aNfMMrLVN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hyperdimension Neptunia camiseta de Anime, Manga, regalo para amantes del Anime, todas las tallas, algodón</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007682672906.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-0&amp;pdp_npi=4%40dis%21MXN%21216.63%21190.57%21%21%2174.82%2165.82%21%402101e9a217315933047296830e4863%2112000041806340854%21sea%21MX%210%21ABX&amp;curPageLogUid=81S1aANnuc4u&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MX$190.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Camiseta Z Goku para hombre, camisa con estampado de dibujos animados de Anime en 3D, imagen de Goku, manga corta, Top cómodo e informal, camisetas deportivas</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005947319075.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-1&amp;pdp_npi=4%40dis%21MXN%21154.79%21154.79%21%21%2153.46%2153.46%21%402101e9a217315933047296830e4863%2112000034977242692%21sea%21MX%210%21ABX&amp;curPageLogUid=DR923LjIFxXl&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>MX$154.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Camiseta de Hunter X Hunter Killua Zoldyck para hombre y mujer, camisa informal de moda Harajuku de manga corta con cuello redondo, Unisex</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007370143186.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-2&amp;pdp_npi=4%40dis%21MXN%21184.41%2120.77%21%21%2163.69%217.17%21%402101e9a217315933047296830e4863%2112000040463520442%21sea%21MX%210%21ABX&amp;curPageLogUid=2DUXaTV89LIu&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Camiseta con cuello redondo para hombre con estampado de fantasma divertido de Halloween</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007884960004.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;aem_p4p_detail=202411140608246345937354505580000136136&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-3&amp;pdp_npi=4%40dis%21MXN%21130.87%2158.89%21%21%2145.20%2120.34%21%402101e9a217315933047296830e4863%2112000042705749409%21sea%21MX%210%21ABX&amp;curPageLogUid=Sv9pMJJXgEPK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608246345937354505580000136136_1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MX$58.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con estampado 3D de Anime Demon Slayer, Kimetsu No Yaiba, Kamado, Nezuko, Kochou, Shinobu</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007568392178.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-4&amp;pdp_npi=4%40dis%21MXN%2198.44%2120.77%21%21%2134.00%217.18%21%402101e9a217315933047296830e4863%2112000041330291887%21sea%21MX%210%21ABX&amp;curPageLogUid=QVq1mxTpqU6b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Camisetas con diseño de Jersey con diseño de Anime azul, camisetas para hombre, bastardo, Munich, fútbol, dibujos animados, verano, camiseta estampada Unisex, camisetas deportivas de entrenamiento</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007338574877.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-5&amp;pdp_npi=4%40dis%21MXN%21122.94%21111.01%21%21%2142.46%2138.34%21%402101e9a217315933047296830e4863%2112000040328938084%21sea%21MX%210%21ABX&amp;curPageLogUid=3AcmQ11LG5mC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>MX$111.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mewing-Camiseta con estampado divertido de gatos para hombre y mujer, camisa de algodón suave con cuello redondo, talla europea</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007686621583.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-6&amp;pdp_npi=4%40dis%21MXN%21182.41%2120.77%21%21%2163.00%217.17%21%402101e9a217315933047296830e4863%2112000041833098961%21sea%21MX%210%21ABX&amp;curPageLogUid=JLB87eiQ42fz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con cuello redondo para hombre, camisa de gran tamaño con estampado 3D de Geisha japonesa, estilo Harajuku, Hip Hop</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005469408536.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;aem_p4p_detail=202411140608246345937354505580000136136&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-7&amp;pdp_npi=4%40dis%21MXN%21119.26%2162.02%21%21%2141.19%2121.42%21%402101e9a217315933047296830e4863%2112000033206580165%21sea%21MX%210%21ABX&amp;curPageLogUid=1z21XGkkTtVM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608246345937354505580000136136_2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MX$62.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta de Anime para hombre, ropa de calle de estilo japonés con patrón de Geisha, de talla grande S-5XL, Hip Hop</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007111872520.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-8&amp;pdp_npi=4%40dis%21MXN%21128.59%21128.59%21%21%216.13%216.13%21%402101e9a217315933047296830e4863%2112000039443653896%21sea%21MX%210%21ABX&amp;curPageLogUid=kTBcZRwdUrMI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MX$128.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Zero Ellen para hombre y mujer, camisa informal de manga corta, estilo Harajuku, Hip Hop, Anime, Zenless Zone</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007596607872.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-9&amp;pdp_npi=4%40dis%21MXN%21103.97%2167.57%21%21%2135.91%2123.34%21%402101e9a217315933047296830e4863%2112000041443270713%21sea%21MX%210%21ABX&amp;curPageLogUid=eQmXmrpPlIKB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MX$67.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Camiseta de Manga corta para hombre, camisa divertida de anime, bleach Gotei 13, Kyoraku, Shunsui, Ichimaru, Gin, Unisex</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005261254949.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-0&amp;pdp_npi=4%40dis%21MXN%21171.17%2120.77%21%21%218.16%210.99%21%402101e9a217315933061706853e4863%2112000032398599639%21sea%21MX%210%21ABX&amp;curPageLogUid=Mw79jZwV11c5&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Camisetas informales de manga larga para hombre, camisas de algodón de peso pesado que absorben la humedad, camisetas clásicas holgadas</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006727679637.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-1&amp;pdp_npi=4%40dis%21MXN%21304.65%21127.94%21%21%21105.22%2144.19%21%402101e9a217315933061706853e4863%2112000038107887097%21sea%21MX%210%21ABX&amp;curPageLogUid=KSRzaM7lz5tr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MX$127.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Camisa Chappell Roan para mujer, camiseta cómoda con gráfico de anime, camiseta gráfica universitaria de moda, harajuku Y2k de los años 2000, Retro para mujer</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007930983419.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-2&amp;pdp_npi=4%40dis%21MXN%2175.54%2175.54%21%21%2126.09%2126.09%21%402101e9a217315933061706853e4863%2112000042912269521%21sea%21MX%210%21ABX&amp;curPageLogUid=6GYBjzu8wSvJ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MX$75.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Takeishi-Camiseta de manga corta con estampado 3D de Japón para hombre, camiseta informal de calle con cuello redondo, Top de gran tamaño</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005435714404.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;aem_p4p_detail=202411140608264814087195751360000141881&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-3&amp;pdp_npi=4%40dis%21MXN%21119.26%2152.46%21%21%2141.19%2118.12%21%402101e9a217315933061706853e4863%2112000033068607765%21sea%21MX%210%21ABX&amp;curPageLogUid=30F2UmTrGUNh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608264814087195751360000141881_1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MX$52.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Valorant para hombre, de alta calidad Camisa de algodón, talla europea, ropa de calle de dibujos animados Unisex, camiseta estampada Vintage</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005147498403.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-4&amp;pdp_npi=4%40dis%21MXN%21265.77%2120.77%21%21%2112.67%210.99%21%402101e9a217315933061706853e4863%2112000031855867572%21sea%21MX%210%21ABX&amp;curPageLogUid=g2KkQ4HGuz7g&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Camiseta de algodón con estampado de Drift Japan Anime AE86 Infirst para hombre, camiseta informal R34 Skyline GTR JDM, talla grande</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007235181305.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-5&amp;pdp_npi=4%40dis%21MXN%21214.09%2187.79%21%21%2173.94%2130.32%21%402101e9a217315933061706853e4863%2112000039904389401%21sea%21MX%210%21ABX&amp;curPageLogUid=kym4SqQUzyPM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MX$87.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Camisetas con estampado 3D de Mazinger Z para hombres y mujeres, ropa de calle de Robot de Anime, camiseta de manga corta de gran tamaño, camisetas para niños, ropa para hombres</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007326675511.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-6&amp;pdp_npi=4%40dis%21MXN%21129.83%2120.77%21%21%2144.84%217.18%21%402101e9a217315933061706853e4863%2112000040280448737%21sea%21MX%210%21ABX&amp;curPageLogUid=eumcsI0nPXH0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>POLO informal con estampado de lino para hombre, camisa de manga corta, popular, retro, coreano y japonés, ropa diaria para vacaciones, 2024</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007432336507.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;aem_p4p_detail=202411140608264814087195751360000141881&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-7&amp;pdp_npi=4%40dis%21MXN%21289.54%21104.23%21%21%21100.00%2136.00%21%402101e9a217315933061706853e4863%2112000040733499084%21sea%21MX%210%21ABX&amp;curPageLogUid=kHfKCsvHeNXj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608264814087195751360000141881_2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MX$104.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Camisetas de Anime japonés Ukiyoe para hombre, camisa de manga corta con estampado 3D de gato samurái, Harajuku de gran tamaño, 2024</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007643465844.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-8&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402101e9a217315933061706853e4863%2112000041701790169%21sea%21MX%210%21ABX&amp;curPageLogUid=xdLVwLKPkXeD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MX$65.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Uniqlo-Camiseta 3D de Pokémon para hombre y mujer, camisa divertida de Pikachu, Anime japonés</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007698607358.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-9&amp;pdp_npi=4%40dis%21MXN%21286.27%21105.92%21%21%2198.87%2136.58%21%402101e9a217315933061706853e4863%2112000041902017113%21sea%21MX%210%21ABX&amp;curPageLogUid=H6fv02KmGa5x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MX$105.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Camisetas con diseño de Jersey con diseño de Anime azul, camisetas para hombre, bastardo, Munich, fútbol, dibujos animados, verano, camiseta estampada Unisex, camisetas deportivas de entrenamiento</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007338574877.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-0&amp;pdp_npi=4%40dis%21MXN%21122.94%21111.01%21%21%2142.46%2138.34%21%402101e9a217315933074776874e4863%2112000040328938084%21sea%21MX%210%21ABX&amp;curPageLogUid=mpMigIhG9ZsZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MX$111.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Camiseta Drift Anime japonés AE86 inicial D, camiseta de manga corta con cuello redondo, moda informal de verano, camiseta Unisex para hombres y mujeres</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006628459094.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-1&amp;pdp_npi=4%40dis%21MXN%21122.59%21113.04%21%21%2142.34%2139.04%21%402101e9a217315933074776874e4863%2112000037866410381%21sea%21MX%210%21ABX&amp;curPageLogUid=p5hatqfnRYnj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MX$113.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con dibujos animados en 3D para hombre, camiseta informal con cuello redondo de talla grande Harajuku y2k, jersey de calle, ropa para hombre</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007911997418.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-2&amp;pdp_npi=4%40dis%21MXN%21127.14%21127.14%21%21%2143.91%2143.91%21%402101e9a217315933074776874e4863%2112000042815251457%21sea%21MX%210%21ABX&amp;curPageLogUid=POOvh2VzBLDY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MX$127.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Death Note para hombre y mujer, camisa de Anime japonés, estilo Harajuku informal, ropa de calle, Hip Hop</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006944589072.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-3&amp;pdp_npi=4%40dis%21MXN%21110.37%21110.37%21%21%2138.12%2138.12%21%402101e9a217315933074776874e4863%2112000038814392870%21sea%21MX%210%21ABX&amp;curPageLogUid=7egS2a9IJMvc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MX$110.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime japonés de Jujutsu Kaisen Gojo Satoru Garphic para hombre, Tops deportivos informales de Otaku Harajuku, camiseta de dibujos animados japoneses de moda</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007878191640.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-4&amp;pdp_npi=4%40dis%21MXN%21161.30%2120.77%21%21%2155.71%217.17%21%402101e9a217315933074776874e4863%2112000042668672450%21sea%21MX%210%21ABX&amp;curPageLogUid=Z7LND8G2rZiU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Camiseta de cuello redondo para hombre, ropa de alta calidad con estampado de Anime Blue Lock, juego de rol de ciudad brillante, Bola Manga, 4</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006819925421.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-5&amp;pdp_npi=4%40dis%21MXN%21265.36%2120.77%21%21%2191.65%217.17%21%402101e9a217315933074776874e4863%2112000038406534708%21sea%21MX%210%21ABX&amp;curPageLogUid=5dcDh28mrsxX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Camiseta de One Piece Roronoa Zoro Luffy para hombre y mujer, ropa de Anime de dibujos animados, estilo japonés, 2024</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007828640121.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-6&amp;pdp_npi=4%40dis%21MXN%21340.30%2120.77%21%21%21117.53%217.17%21%402101e9a217315933074776874e4863%2112000042357599881%21sea%21MX%210%21ABX&amp;curPageLogUid=3pmzATQJvRN0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Camiseta de voleibol Haikyuu Hinata Shoyo Karasuno para hombre, ropa deportiva, Karasuno, High School, Kageyama Tobio</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007342235767.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-7&amp;pdp_npi=4%40dis%21MXN%21147.03%2120.77%21%21%2150.78%217.17%21%402101e9a217315933074776874e4863%2112000040341528942%21sea%21MX%210%21ABX&amp;curPageLogUid=La919zTbO8IU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime para niños y adultos, ropa con estampado de capitán Tsubasa Toho, Kojiro Hyuga, 2024</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007318569284.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-8&amp;pdp_npi=4%40dis%21MXN%21118.74%2120.77%21%21%2141.01%217.17%21%402101e9a217315933074776874e4863%2112000040239886378%21sea%21MX%210%21ABX&amp;curPageLogUid=1ZiukMlqxw7Q&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Camiseta japonesa de anime Deftones para hombre y mujer, Camiseta de algodón, Camiseta cómoda de calle, moda Harajuku, ropa Y2k</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006997992195.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-9&amp;pdp_npi=4%40dis%21MXN%21286.64%2171.66%21%21%2199.00%2124.75%21%402101e9a217315933074776874e4863%2112000038993062984%21sea%21MX%210%21ABX&amp;curPageLogUid=tF4Q5VcirLWO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MX$71.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Camiseta Candy, shojo,riyoko, ikedarose of versailes, anime kawaii, todas las tallas</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007506935177.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-0&amp;pdp_npi=4%40dis%21MXN%21203.14%2120.77%21%21%2170.16%217.17%21%402101e7f617315933089172319eab2f%2112000041061849260%21sea%21MX%210%21ABX&amp;curPageLogUid=vvVpO8mpkIXi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Camiseta de dibujos animados Kawaii para mujer, camiseta de Anime japonés Oshi No Ko, Cosplay de Ai Hoshino, ropa gráfica Harajuku Y2k, Top</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007106901026.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-1&amp;pdp_npi=4%40dis%21MXN%21191.94%2195.96%21%21%2166.29%2133.14%21%402101e7f617315933089172319eab2f%2112000039425333902%21sea%21MX%210%21ABX&amp;curPageLogUid=hDCBDfJpmTuE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MX$95.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Camiseta estampada de Anime japonés para hombre y mujer, camisa de Manga grande a la moda de algodón, Jujutsu Kaisen Fushiguro Toji</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007543168814.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-2&amp;pdp_npi=4%40dis%21MXN%21346.72%2120.77%21%21%21119.75%217.17%21%402101e7f617315933089172319eab2f%2112000041227517676%21sea%21MX%210%21ABX&amp;curPageLogUid=GKvGHu7z8tQD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Initial D Drift AE86 para hombre, camisa con estampado de doble cara, RX-7 R34 Skyline GTR JDM, Harajuku Vintage, de gran tamaño, 2024</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006419516768.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-3&amp;pdp_npi=4%40dis%21MXN%21343.08%2120.77%21%21%21118.49%217.17%21%402101e7f617315933089172319eab2f%2112000037099246713%21sea%21MX%210%21ABX&amp;curPageLogUid=Jnk9yxhsrh1N&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Camiseta de verano para mujer, ropa divertida de Mitski, harajuku de cómic</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007552828019.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-4&amp;pdp_npi=4%40dis%21MXN%2184.84%2120.77%21%21%2129.30%217.17%21%402101e7f617315933089172319eab2f%2112000041266069782%21sea%21MX%210%21ABX&amp;curPageLogUid=pou4j9cqT18B&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con estampado de cinco personas, Camiseta con estampado de Cosplay completo de Anime de Uber Blue Lock, VL Replika, verano 2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005694608438.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-5&amp;pdp_npi=4%40dis%21MXN%21101.11%2120.77%21%21%2134.92%217.17%21%402101e7f617315933089172319eab2f%2112000034035163795%21sea%21MX%210%21ABX&amp;curPageLogUid=lByQCJGvohjV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Camiseta Vintage de verano para mujer, camiseta con estampado de caballo en 3d, camiseta a la moda para mujer, camiseta de manga corta con cuello redondo, camisetas para niños, camisetas de animales</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005008024154218.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-6&amp;pdp_npi=4%40dis%21MXN%21117.18%21117.18%21%21%2140.47%2140.47%21%402101e7f617315933089172319eab2f%2112000043295115174%21sea%21MX%210%21ABX&amp;curPageLogUid=r17xwJ1TnO75&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MX$117.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de Demon Slayer para hombre y mujer, camisa de manga corta con cuello redondo, Anime japonés, informal, de gran tamaño, a la moda, de verano</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006898334084.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-7&amp;pdp_npi=4%40dis%21MXN%21325.36%2120.77%21%21%21112.37%217.17%21%402101e7f617315933089172319eab2f%2112000038653472801%21sea%21MX%210%21ABX&amp;curPageLogUid=oxmPKNTZzxDW&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de ataque gigante a los Titanes para hombre y mujer, camiseta de Anime de moda con cuello redondo, ropa de calle, Top genial</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006793845240.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-8&amp;pdp_npi=4%40dis%21MXN%21121.61%21121.61%21%21%2142.00%2142.00%21%402101e7f617315933089172319eab2f%2112000040770826169%21sea%21MX%210%21ABX&amp;curPageLogUid=EkcWrfUVRj4j&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>MX$121.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Camisetas estampadas de manga corta con capucha para hombre, camisa Harajuku de Anime de dibujos animados, ropa de calle japonesa, ropa informal de verano, 2021</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005003662438311.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-9&amp;pdp_npi=4%40dis%21MXN%21132.57%2120.77%21%21%216.32%210.99%21%402101e7f617315933089172319eab2f%2112000026697777663%21sea%21MX%210%21ABX&amp;curPageLogUid=CRqBQZvB3u2J&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Camiseta divertida con estampado de cerdo en 3D para hombre, ropa de Hip Hop de tendencia urbana, camiseta informal de manga corta con cuello redondo, Tops holgados de moda para verano</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007959837176.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-0&amp;pdp_npi=4%40dis%21MXN%2183.70%2125.18%21%21%213.99%211.20%21%402103010e17315933103727161e62dc%2112000043062124063%21sea%21MX%210%21ABX&amp;curPageLogUid=7CeYOgJJsnu6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MX$25.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Camiseta de lobo para hombre, Top de manga corta con estampado Animal en 3D, informal, de calle, de gran tamaño, ropa Vintage, 2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007423293993.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-1&amp;pdp_npi=4%40dis%21MXN%21225.06%2120.77%21%21%2177.73%217.17%21%402103010e17315933103727161e62dc%2112000040698402932%21sea%21MX%210%21ABX&amp;curPageLogUid=iOtuFPXVJJs7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Redsuns-camisetas góticas de dibujos animados para hombre, camisa de Anime japonés con inicial D, talla de la UE, AE86, divertida, Harajuku, Manga</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006820380657.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-2&amp;pdp_npi=4%40dis%21MXN%21164.04%2120.77%21%21%217.82%210.99%21%402103010e17315933103727161e62dc%2112000038408055087%21sea%21MX%210%21ABX&amp;curPageLogUid=96eg8860aLeB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Camisetas gráficas de Star Wars para hombres y mujeres, Darth Vader, Stormtrooper, operaciones logísticas, Tops de gran tamaño, Verano</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007564998220.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-3&amp;pdp_npi=4%40dis%21MXN%21311.28%2120.77%21%21%21107.51%217.18%21%402103010e17315933103727161e62dc%2112000041318634653%21sea%21MX%210%21ABX&amp;curPageLogUid=prxy6fJbWbfk&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Camiseta 3D de The Foxhole Court Palmetto State Foxes para hombre y mujer, camisa divertida de manga corta con gráfico, ropa de calle, Jersey de Lacrosse</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007480764192.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-4&amp;pdp_npi=4%40dis%21MXN%2186.21%2134.40%21%21%214.11%211.64%21%402103010e17315933103727161e62dc%2112000040925436604%21sea%21MX%210%21ABX&amp;curPageLogUid=bsd80xoC1aU4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>MX$34.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Camisa Formal de manga larga para hombre, camisa de oficina, Color sólido, a rayas, antiarrugas, sin planchado, bolsillo de negocios de moda, blanca, Social, 4XL</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007460969536.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-5&amp;pdp_npi=4%40dis%21MXN%21364.42%2120.77%21%21%21125.86%217.17%21%402103010e17315933103727161e62dc%2112000040850285375%21sea%21MX%210%21ABX&amp;curPageLogUid=dq2H9XaIDDPF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de Jake The Dog para hombres y mujeres, camisetas gráficas divertidas de gran tamaño, Tops</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005905785670.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-6&amp;pdp_npi=4%40dis%21MXN%21326.31%21120.74%21%21%21112.70%2141.70%21%402103010e17315933103727161e62dc%2112000034791319333%21sea%21MX%210%21ABX&amp;curPageLogUid=ml3rOqYAI5gX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MX$120.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>VANCE HINES-Camiseta estampada para hombre, camisa de moda inspirada en sistemas de escape de carreras de motocicletas, informal, holgada, suave, Harajuku</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006092827890.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-7&amp;pdp_npi=4%40dis%21MXN%21169.15%2120.87%21%21%2158.42%217.21%21%402103010e17315933103727161e62dc%2112000040819654092%21sea%21MX%210%21ABX&amp;curPageLogUid=R5q02tFz8NEn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>MX$20.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Camiseta de The Bad Batch para hombres y mujeres, camisa Harajuku Unisex, Hip Hop, dibujos animados, informal, diaria, clásica, manga corta</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007013630099.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-8&amp;pdp_npi=4%40dis%21MXN%21164.04%21147.26%21%21%217.82%217.02%21%402103010e17315933103727161e62dc%2112000039069248688%21sea%21MX%210%21ABX&amp;curPageLogUid=0trwR1X5ugoF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MX$147.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Camiseta inicial D Nissan Skyline R34 para hombre, camisa de manga corta de algodón, estilo Harajuku japonés, moda de coche, ropa de gran tamaño</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006582685263.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-9&amp;pdp_npi=4%40dis%21MXN%21332.25%21132.90%21%21%21114.75%2145.90%21%402103010e17315933103727161e62dc%2112000037726809482%21sea%21MX%210%21ABX&amp;curPageLogUid=Q7v3RF6Ax42Y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MX$132.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Camiseta de la serie de Tv Friends para mujer, ropa de calle de anime harajuku, top de chica, ropa de anime harajuku</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005970508318.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-0&amp;pdp_npi=4%40dis%21MXN%2167.54%2120.77%21%21%213.22%210.99%21%402103209b17315933117878646e6ce4%2112000035106018715%21sea%21MX%210%21ABX&amp;curPageLogUid=o4P0pNh7BRhT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>¡BOCCHI LA ROCA! Camiseta de Anime para hombre, camiseta bonita a la moda para hombre, camiseta de Hitori Gotoh Ijichi Nijika, camisetas informales de manga corta para hombre</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006628364018.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-1&amp;pdp_npi=4%40dis%21MXN%21118.62%2120.77%21%21%2140.97%217.18%21%402103209b17315933117878646e6ce4%2112000037866177298%21sea%21MX%210%21ABX&amp;curPageLogUid=xXvxqnR5RiAF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado divertido de Mob Psycho para mujer, camiseta divertida de Anime, Hip Hop, manga corta, cuello redondo, Top de alta calidad</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007633198491.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-2&amp;pdp_npi=4%40dis%21MXN%21220.25%21103.51%21%21%2176.07%2135.75%21%402103209b17315933117878646e6ce4%2112000041581304228%21sea%21MX%210%21ABX&amp;curPageLogUid=pYH5NkdWTfqD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MX$103.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de levantamiento de pesas de gato, Camisetas divertidas con diseño de gimnasio, Camisetas gráficas de algodón de alta calidad, ropa para hombre</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006916427278.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-3&amp;pdp_npi=4%40dis%21MXN%21164.92%2120.77%21%21%2156.96%217.17%21%402103209b17315933117878646e6ce4%2112000038717027273%21sea%21MX%210%21ABX&amp;curPageLogUid=3dC3oF0MEaue&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Camiseta de baloncesto Slam Dunk 2023, ropa deportiva con diseño de cuello de grupo Unisex de manga corta de algodón puro con tema de película de Anime</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007208848576.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-4&amp;pdp_npi=4%40dis%21MXN%21274.79%2120.77%21%21%2113.10%210.99%21%402103209b17315933117878646e6ce4%2112000039812666726%21sea%21MX%210%21ABX&amp;curPageLogUid=4iKzD2hMoec7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado gráfico de Anime Attack On Titan Levi Ackerman para hombre y mujer, camisetas de algodón lavadas, camiseta holgada Harajuku para hombre</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007936717314.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-5&amp;pdp_npi=4%40dis%21MXN%21194.03%21194.03%21%21%219.25%219.25%21%402103209b17315933117878646e6ce4%2112000042934480960%21sea%21MX%210%21ABX&amp;curPageLogUid=yez1fFpzjlGw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MX$194.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Camiseta de fútbol de Anime con cerradura azul para hombre y mujer, Tops deportivos de cuello redondo, Manga corta informal, novedad de verano 2024</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007557888699.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-6&amp;pdp_npi=4%40dis%21MXN%21178.24%2144.56%21%21%2161.56%2115.39%21%402103209b17315933117878646e6ce4%2112000041285748208%21sea%21MX%210%21ABX&amp;curPageLogUid=GfIBm0oivc3s&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MX$44.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Camiseta de manga corta con estampado 3D de orangután/Mono para hombre, ropa divertida Y2k, camisetas de animales geniales</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007198441256.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-7&amp;pdp_npi=4%40dis%21MXN%21113.33%2148.73%21%21%2139.14%2116.83%21%402103209b17315933117878646e6ce4%2112000039773340912%21sea%21MX%210%21ABX&amp;curPageLogUid=N8hmz1CxD40U&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MX$48.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Camiseta de cazador de monstruos de dibujos animados japoneses para hombre, camiseta de Anime Kawaii, camisetas gráficas divertidas de dinosaurio, camisetas Unisex negras para hombre</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005003439341687.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-8&amp;pdp_npi=4%40dis%21MXN%21176.20%2120.77%21%21%218.40%210.99%21%402103209b17315933117878646e6ce4%2112000025795697794%21sea%21MX%210%21ABX&amp;curPageLogUid=zMkTYYOFCLhn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Tartaglia Face Meme para hombre, camiseta a la moda, camisetas de manga corta Genshin Impact Game, camisetas con cuello redondo para mujer, camiseta</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006350122774.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-9&amp;pdp_npi=4%40dis%21MXN%21195.01%2120.77%21%21%2167.35%217.17%21%402103209b17315933117878646e6ce4%2112000036853827101%21sea%21MX%210%21ABX&amp;curPageLogUid=ITtMKSwu93Yc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Camiseta de fútbol de Anime con cerradura azul para hombre y mujer, Tops deportivos de cuello redondo, camiseta informal de manga corta para niño, novedad de verano 2024</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007529495831.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-0&amp;pdp_npi=4%40dis%21MXN%21123.26%2120.77%21%21%2142.57%217.17%21%402103246417315933134483363e8619%2112000041172747046%21sea%21MX%210%21ABX&amp;curPageLogUid=WSdWSIlYaU3k&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>¡BOCCHI LA ROCA! Camiseta de Anime para hombre, camiseta bonita a la moda para hombre, camiseta de Hitori Gotoh Ijichi Nijika, camisetas informales de manga corta para hombre</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006628364018.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-1&amp;pdp_npi=4%40dis%21MXN%21118.62%2120.77%21%21%2140.97%217.18%21%402103246417315933134483363e8619%2112000037866177298%21sea%21MX%210%21ABX&amp;curPageLogUid=QCiDDnYONxVA&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Uniformes médicos de Marvel para hombre, de dibujos animados Blusa con cuello en V, Tops de fregado de enfermera, Hospital Dental</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007407111052.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-3&amp;pdp_npi=4%40dis%21MXN%21237.65%2120.77%21%21%2182.08%217.18%21%402103246417315933134483363e8619%2112000040666444561%21sea%21MX%210%21ABX&amp;curPageLogUid=OjpUdVJW6DqE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Ropa informal estilo Hip Hop de My Hero Academia, camisetas Harajuku Todoroki, camisetas informales de manga corta de Anime Bakugou Deku, camisetas</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007457801731.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-4&amp;pdp_npi=4%40dis%21MXN%21114.37%2120.77%21%21%2139.50%217.17%21%402103246417315933134483363e8619%2112000040836451320%21sea%21MX%210%21ABX&amp;curPageLogUid=N1x3HnVqdp6u&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Camiseta de oso Panda Bubu Dudu y sus bebés para hombre y mujer, camisa divertida de moda para pareja, camisetas informales de manga corta, ropa</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007423278735.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-5&amp;pdp_npi=4%40dis%21MXN%21148.74%2120.77%21%21%2151.37%217.17%21%402103246417315933134483363e8619%2112000040697577159%21sea%21MX%210%21ABX&amp;curPageLogUid=gFEoilA1hFp9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Disfraz de Demon Slayer de Anime para niños y niñas, camiseta de manga corta en 3D, ropa de calle de gran tamaño, Tops sueltos, encantador, Kamado, Nezuko, nuevo, Verano</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007099396458.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-6&amp;pdp_npi=4%40dis%21MXN%2198.44%2135.44%21%21%2134.00%2112.24%21%402103246417315933134483363e8619%2112000039399939775%21sea%21MX%210%21ABX&amp;curPageLogUid=ca7LC6Mw9jEH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>MX$35.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Camisetas de camuflaje para hombres y mujeres, camisas con estampado 3D de animales de caza, tops de manga corta que combinan todo, moda</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006924499677.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-7&amp;pdp_npi=4%40dis%21MXN%21265.42%2120.77%21%21%2191.67%217.18%21%402103246417315933134483363e8619%2112000038740131573%21sea%21MX%210%21ABX&amp;curPageLogUid=8Wc1l1c4dNKo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Camisetas de dibujos animados de Disney para hombre y mujer, ropa de calle con estampado 3D de Lilo y Stitch, Kawaii, de gran tamaño, a la moda</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007610558772.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-8&amp;pdp_npi=4%40dis%21MXN%21207.95%2120.77%21%21%2171.82%217.17%21%402103246417315933134483363e8619%2112000041523702987%21sea%21MX%210%21ABX&amp;curPageLogUid=O0CW0zgBQ9SH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado 3D de Anime para hombre y mujer, camisa de gran tamaño con diseño de OVNI, grandizer, Robot, estilo Harajuku, ropa de calle de Goldorak Y2k, 2024</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007227255540.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-9&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402103246417315933134483363e8619%2112000039879790415%21sea%21MX%210%21ABX&amp;curPageLogUid=WYob5YRGmGIi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>MX$65.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado Digital de Michael Jackson para mujer, Camiseta de algodón, ropa de tendencia callejera de arte divertido, Top informal de dibujos animados, moda Unisex</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007064736672.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-0&amp;pdp_npi=4%40dis%21MXN%21309.32%2120.77%21%21%21106.83%217.17%21%402103010c17315933149092181e5a5a%2112000039289799121%21sea%21MX%210%21ABX&amp;curPageLogUid=ZlrIbVqRwYas&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Camiseta con estampado de gato Omori para mujer, camiseta Harajuku de manga corta con cuello redondo, ropa</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006363237112.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-1&amp;pdp_npi=4%40dis%21MXN%21201.72%2120.77%21%21%2169.67%217.18%21%402103010c17315933149092181e5a5a%2112000036900144262%21sea%21MX%210%21ABX&amp;curPageLogUid=TGZut651FugY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Camisetas de Ramen con aullido para hombre, camisas de castillos de demonio de fuego, 100% algodón, Vintage, cuello redondo, recién llegadas</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007476570624.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-2&amp;pdp_npi=4%40dis%21MXN%21228.24%2175.97%21%21%2178.83%2126.24%21%402103010c17315933149092181e5a5a%2112000040909991158%21sea%21MX%210%21ABX&amp;curPageLogUid=ZNg4HE77eks1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MX$75.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Si hablan detrás de yo, peido, lobo, literalmente yo, divertido Meme Emo, camiseta, ropa para hombre, Camiseta de algodón de gran tamaño Retro Harajuku</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007393597213.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-3&amp;pdp_npi=4%40dis%21MXN%21209.57%2120.77%21%21%2172.38%217.17%21%402103010c17315933149092181e5a5a%2112000040564206120%21sea%21MX%210%21ABX&amp;curPageLogUid=LxrYU2QaJu4p&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Fushiguro-Camiseta con estampado de Toji para hombre y mujer, camisa de Anime Jujutsu Kaisen, camisetas holgadas informales, Camiseta de algodón lavado, Tops Harajuku para hombre</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007433505104.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-4&amp;pdp_npi=4%40dis%21MXN%21237.45%21101.10%21%21%2111.32%214.82%21%402103010c17315933149092181e5a5a%2112000043230394611%21sea%21MX%210%21ABX&amp;curPageLogUid=dhE1fbb5IH9q&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MX$101.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Camiseta de juego de rol REO14 para hombre y mujer, pantalones cortos deportivos informales de anime con bloqueo azul, nueva camiseta de verano</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005754948748.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-5&amp;pdp_npi=4%40dis%21MXN%21101.40%2120.77%21%21%2135.02%217.17%21%402103010c17315933149092181e5a5a%2112000034235227710%21sea%21MX%210%21ABX&amp;curPageLogUid=Y7PnUvIlpLwe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Camiseta de Anime Vintage especial Unisex, camiseta de Manga, camisa exclusiva de Anime soni</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007540014499.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-6&amp;pdp_npi=4%40dis%21MXN%21193.88%2120.77%21%21%2166.96%217.17%21%402103010c17315933149092181e5a5a%2112000041213140421%21sea%21MX%210%21ABX&amp;curPageLogUid=gWz9XZJ5AB0d&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Camiseta de algodón para hombre, camisa de Jujutsu Kaisen, Nanami Kento, Top novedoso, ropa de calle de Anime, Verano</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005006727446030.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-7&amp;pdp_npi=4%40dis%21MXN%21314.30%2120.77%21%21%21108.55%217.17%21%402103010c17315933149092181e5a5a%2112000038106873486%21sea%21MX%210%21ABX&amp;curPageLogUid=996eui8oJaNn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Camiseta con capucha de Anime para hombre, ropa de calle informal de Son Goku, manga corta, 3XL talla grande, nueva</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005005672010323.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-8&amp;pdp_npi=4%40dis%21MXN%21192.14%2155.79%21%21%219.16%212.66%21%402103010c17315933149092181e5a5a%2112000033965159409%21sea%21MX%210%21ABX&amp;curPageLogUid=V2kyN6ozMEFC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MX$55.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Eren Jaeger-camisetas Vintage de algodón para hombre y mujer, camisa de Manga corta de Anime, Titan on Attack, Shingeki No Kyojin Levi Mikasa</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://es.aliexpress.com/item/1005007730461803.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-9&amp;pdp_npi=4%40dis%21MXN%21326.46%2120.77%21%21%21112.75%217.17%21%402103010c17315933149092181e5a5a%2112000042013916329%21sea%21MX%210%21ABX&amp;curPageLogUid=Vj72wwqa7bqH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>MX$20.77</t>
         </is>
       </c>
     </row>

--- a/productos_aliexpress.xlsx
+++ b/productos_aliexpress.xlsx
@@ -453,3383 +453,3383 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jersey patrón de fútbol sala Vl Replika Blue Lock Anime Bastard Munich camisetas de verano para hombres y mujeres camisetas deportivas casuales Top</t>
+          <t>Zapatos mary janes de tacón alto para mujer, calzado de plataforma, estilo universitario Vintage, Lolita, color negro, 2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007529281601.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-0&amp;pdp_npi=4%40dis%21MXN%21179.49%2161.04%21%21%2161.99%2121.08%21%402101e9a217315932871814545e4870%2112000041172058868%21sea%21MX%210%21ABX&amp;curPageLogUid=s8kgCwrGusEj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007483244031.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-0&amp;pdp_npi=4%40dis%21MXN%21571.29%21239.94%21%21%21197.98%2183.15%21%402101e7f617316988054457375ede08%2112000040935183734%21sea%21MX%210%21ABX&amp;curPageLogUid=ChcOkn713Lho&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MX$61.04</t>
+          <t>MX$239.94</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de anime, top de manga corta, informal, cómodo, neutral, Harajuku, nueva tendencia de moda de verano</t>
+          <t>Zapatos de tacón de plataforma Para Mujer, botines elásticos de diseñador hasta la rodilla, zapatos góticos negros hasta el muslo de tendencia Para Mujer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007499966527.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-1&amp;pdp_npi=4%40dis%21MXN%21180.76%2175.92%21%21%2162.43%2126.22%21%402101e9a217315932871814545e4870%2112000041037934374%21sea%21MX%210%21ABX&amp;curPageLogUid=jrBqdcJ50Szj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007262963528.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-1&amp;pdp_npi=4%40dis%21MXN%21899.10%21232.82%21%21%21311.58%2180.68%21%402101e7f617316988054457375ede08%2112000040700345966%21sea%21MX%210%21ABX&amp;curPageLogUid=P0jqUPb53KYe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MX$75.92</t>
+          <t>MX$232.82</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Cazador X Hunter para hombre, camisa lavada de Anime japonés, ropa de calle de Hip Hop, Harajuku, de algodón con ácido, Unisex</t>
+          <t>Zapatos Derby de charol para hombre y mujer, calzado de suela gruesa, estilo británico, punta cuadrada negra, Estilo Vintage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007493286192.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-2&amp;pdp_npi=4%40dis%21MXN%21319.10%21104.61%21%21%21110.21%2136.13%21%402101e9a217315932871814545e4870%2112000041017360839%21sea%21MX%210%21ABX&amp;curPageLogUid=ugMkIKWABRVU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007864250143.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-2&amp;pdp_npi=4%40dis%21MXN%212371.96%211019.94%21%21%21822.00%21353.46%21%402101e7f617316988054457375ede08%2112000042595929633%21sea%21MX%210%21ABX&amp;curPageLogUid=D8kmsqrevZHJ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MX$104.61</t>
+          <t>MX$1,019.94</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camiseta Dragon Ball Z Goku de talla grande para hombre, ropa informal de manga corta de algodón con estampado de Anime nuevo, regalo de cumpleaños para niños 2024</t>
+          <t>Zapatillas de deporte ligeras para mujer, zapatos planos con cordones, de malla transpirable, informales, para caminar, tenis negros, Verano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007470728830.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;aem_p4p_detail=202411140608072864245298496200000135700&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-3&amp;pdp_npi=4%40dis%21MXN%21358.57%21313.84%21%21%21123.84%21108.39%21%402101e9a217315932871814545e4870%2112000040889558082%21sea%21MX%210%21ABX&amp;curPageLogUid=EvTC0qwSDR6P&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608072864245298496200000135700_1</t>
+          <t>https://es.aliexpress.com/item/33038915425.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-4&amp;pdp_npi=4%40dis%21MXN%21224.20%2171.46%21%21%2110.73%213.42%21%402101e7f617316988054457375ede08%2167313142398%21sea%21MX%210%21ABX&amp;curPageLogUid=pTKumzmsogtD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MX$313.84</t>
+          <t>MX$71.46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Berserk Guts Acid para hombre, camisa Retro Vintage con gráfico lavado, Harajuku, de algodón, informal, de manga corta, Unisex</t>
+          <t>Zapatillas de deporte de cuero PU negro para mujer, zapatos para correr, Tenis antideslizantes, suela gruesa suave, deportes ligeros informales, diseño ligeramente impermeable</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007305933049.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-4&amp;pdp_npi=4%40dis%21MXN%21423.25%21166.45%21%21%21146.18%2157.49%21%402101e9a217315932871814545e4870%2112000040184142290%21sea%21MX%210%21ABX&amp;curPageLogUid=ZLanOiFx9dCa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007301169945.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-5&amp;pdp_npi=4%40dis%21MXN%21640.60%21313.89%21%21%21222.00%21108.78%21%402101e7f617316988054457375ede08%2112000040122240505%21sea%21MX%210%21ABX&amp;curPageLogUid=g37b8kYIZDMb&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MX$166.45</t>
+          <t>MX$313.89</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Satoru Gojo Jujutsu Kaisen para mujer, blusa holgada de manga corta de gran tamaño, ropa deportiva informal, Tops suaves</t>
+          <t>Zapatillas de plataforma para mujer, zapatos informales con cordones, color Beige, vulcanizados de cuero</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007408857874.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-5&amp;pdp_npi=4%40dis%21MXN%21215.45%2188.34%21%21%2174.41%2130.51%21%402101e9a217315932871814545e4870%2112000040631049723%21sea%21MX%210%21ABX&amp;curPageLogUid=QMqFHqZpJ2m7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004851991328.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-6&amp;pdp_npi=4%40dis%21MXN%21215.22%21155.04%21%21%2110.30%217.42%21%402101e7f617316988054457375ede08%2112000030746236917%21sea%21MX%210%21ABX&amp;curPageLogUid=WR0NtSp4VIFI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MX$88.34</t>
+          <t>MX$155.04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Anime para hombre y mujer, camisa informal de Jujutsu Kaisen Fushiguro Toji To The One Who Lfft It All Behind, estilo Harajuku, Y2k</t>
+          <t>Zapatos de mujer tendencia 2024, zapatos de tacón para mujer, marca de fondo rojo brillante, charol, punta estrecha, tacones altos negros para fiesta, zapatos de mujer 35-43</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006767398631.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-6&amp;pdp_npi=4%40dis%21MXN%21341.66%21146.92%21%21%21118.00%2150.74%21%402101e9a217315932871814545e4870%2112000038231164146%21sea%21MX%210%21ABX&amp;curPageLogUid=NcVAcrEXpnnb&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004856360073.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;aem_p4p_detail=202411151126452346521638009800000912028&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-7&amp;pdp_npi=4%40dis%21MXN%212561.08%21846.87%21%21%21122.57%2140.53%21%402101e7f617316988054457375ede08%2112000030765634362%21sea%21MX%210%21ABX&amp;curPageLogUid=m73Vf0vAl7hn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126452346521638009800000912028_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MX$146.92</t>
+          <t>MX$846.87</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Camiseta de Goku de Dragon Ball Z para hombre, camisa de gran tamaño a la moda, Vegeta, Anime Essentials, 100-5XL, estilo Harajuku, tendencia 2024</t>
+          <t>Zapatillas góticas negras para mujer, zapatos de cuero con plataforma de Metal, estilo Punk, zapatos de motocicleta con cordones, estilo Punk Y2K, venta</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006950708141.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;aem_p4p_detail=202411140608072864245298496200000135700&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-7&amp;pdp_npi=4%40dis%21MXN%21105.36%2193.43%21%21%2136.39%2132.27%21%402101e9a217315932871814545e4870%2112000038833273440%21sea%21MX%210%21ABX&amp;curPageLogUid=FN6OGKwpSy2H&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608072864245298496200000135700_2</t>
+          <t>https://es.aliexpress.com/item/1005007140526520.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-8&amp;pdp_npi=4%40dis%21MXN%212937.48%211321.86%21%21%211017.98%21458.09%21%402101e7f617316988054457375ede08%2112000039550353290%21sea%21MX%210%21ABX&amp;curPageLogUid=lHxvEFR7rzRV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MX$93.43</t>
+          <t>MX$1,321.86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Camiseta Vintage lavada de algodón para hombre y mujer, camisa holgada de Anime, Hajime No Ippo, Kamogawa, boxeo, gimnasio, Hip Hop, Y2K, Verano</t>
+          <t>Botas hasta la rodilla con cremallera para mujer, zapatos de tacón alto, concisos, Sexy, a la moda, 2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006949011059.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-8&amp;pdp_npi=4%40dis%21MXN%21414.94%21150.19%21%21%21143.31%2151.87%21%402101e9a217315932871814545e4870%2112000038825275737%21sea%21MX%210%21ABX&amp;curPageLogUid=kkRvUHLSJLwa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007467902845.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-9&amp;pdp_npi=4%40dis%21MXN%21507.87%2130.62%21%21%21176.00%2110.61%21%402101e7f617316988054457375ede08%2112000040879156525%21sea%21MX%210%21ABX&amp;curPageLogUid=BBY9hSkdrzzN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MX$150.19</t>
+          <t>MX$30.62</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Camiseta de algodón para hombre, camisa informal con estampado de gran tamaño, Anime japonés Drift AE86 Inifirst D, Unisex, R34 Skyline GTR JDM</t>
+          <t>Zapatos informales góticos Punk para mujer, zapatos de locomotora metálicos con plataforma y cordones, zapatos de cuero negro, zapatos de estilo Rock de diseñador de moda</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006996514244.html?algo_pvid=a986e0e8-e97d-45db-84bc-ecff31696a50&amp;algo_exp_id=a986e0e8-e97d-45db-84bc-ecff31696a50-9&amp;pdp_npi=4%40dis%21MXN%21263.48%21110.66%21%21%2191.00%2138.22%21%402101e9a217315932871814545e4870%2112000038988443764%21sea%21MX%210%21ABX&amp;curPageLogUid=kAo5VAIMJtqO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007178433612.html?algo_pvid=2161e780-50d4-4db6-ae1f-2851b0561dff&amp;algo_exp_id=2161e780-50d4-4db6-ae1f-2851b0561dff-10&amp;pdp_npi=4%40dis%21MXN%213226.04%211451.71%21%21%211117.98%21503.09%21%402101e7f617316988054457375ede08%2112000039715740516%21sea%21MX%210%21ABX&amp;curPageLogUid=vMK1jU8gkIY5&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MX$110.66</t>
+          <t>MX$1,451.71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Camiseta de algodón para hombre, camisa con estampado de Anime japonés Drift AE86 Inifirst D, Unisex, R34 Skyline GTR JDM, 62457</t>
+          <t>Zapatos de cuero transpirables para hombre, mocasines sin cordones, informales, planos, negros, para conducir y caminar, Verano</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007256605454.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-0&amp;pdp_npi=4%40dis%21MXN%21307.64%2120.77%21%21%21106.25%217.17%21%402103246617315932885411353e47f7%2112000039967585988%21sea%21MX%210%21ABX&amp;curPageLogUid=2f3gwqXPJ7U4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006957254914.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-0&amp;pdp_npi=4%40dis%21MXN%21355.97%2120.69%21%21%21123.36%217.17%21%40210318c317316988067074292e85f7%2112000038856639248%21sea%21MX%210%21ABX&amp;curPageLogUid=c2bRddFcNn5j&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Camiseta de ácido para hombre, ropa de calle de gran tamaño con gráfico de Anime japonés, camiseta negra lavada de verano, camisetas de algodón Harajuku</t>
+          <t>Zapatos de cuero de negocios para hombre, mocasines suaves, cómodos, informales, zapatillas de deporte, color blanco y negro sólido, otoño</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007345035798.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-1&amp;pdp_npi=4%40dis%21MXN%21377.50%21158.55%21%21%21130.38%2154.76%21%402103246617315932885411353e47f7%2112000040354212401%21sea%21MX%210%21ABX&amp;curPageLogUid=rSfWkLTu7yew&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007532311017.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-1&amp;pdp_npi=4%40dis%21MXN%21836.45%21173.66%21%21%21289.87%2160.18%21%40210318c317316988067074292e85f7%2112000041180836395%21sea%21MX%210%21ABX&amp;curPageLogUid=c364r5ivyQOT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MX$158.55</t>
+          <t>MX$173.66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Camiseta gráfica Bertram Eats I Eat para niños, ropa de calle informal de manga corta, divertida, Unisex, verano, 2024</t>
+          <t>Zapatillas de deporte vulcanizadas para mujer, zapatos de plataforma de malla transpirable a la moda, para gimnasio, color negro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006999702911.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-2&amp;pdp_npi=4%40dis%21MXN%21193.33%2120.77%21%21%2166.77%217.17%21%402103246617315932885411353e47f7%2112000039005549232%21sea%21MX%210%21ABX&amp;curPageLogUid=jV708788NBUF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007370757564.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-2&amp;pdp_npi=4%40dis%21MXN%21458.35%2165.86%21%21%21158.84%2122.82%21%40210318c317316988067074292e85f7%2112000040465978133%21sea%21MX%210%21ABX&amp;curPageLogUid=3dGCrMYWcOdy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$65.86</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Camiseta de anime japonés Super Saiya Goku para hombre, 100-5XL, Y2k, ropa de tendencia de gran tamaño, Vegeta</t>
+          <t>Botas de nieve de lana de piel Ultra Mini para mujer, zapatillas de lujo, zapatos de Tasman, botines de plataforma, zapatos de gamuza, invierno, nuevo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006963455113.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;aem_p4p_detail=2024111406080810805487490626450000128006&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-3&amp;pdp_npi=4%40dis%21MXN%21103.97%2120.77%21%21%2135.91%217.17%21%402103246617315932885411353e47f7%2112000038872914475%21sea%21MX%210%21ABX&amp;curPageLogUid=6r7vPRFKrEws&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406080810805487490626450000128006_1</t>
+          <t>https://es.aliexpress.com/item/1005007851409295.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;aem_p4p_detail=202411151126466978011029978860000920195&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-3&amp;pdp_npi=4%40dis%21MXN%211645.28%21822.62%21%21%21570.17%21285.08%21%40210318c317316988067074292e85f7%2112000042537900259%21sea%21MX%210%21ABX&amp;curPageLogUid=pN3ng9MMmCe7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126466978011029978860000920195_1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$822.62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Camiseta de motosierra de Anime para hombre y mujer, camisa con estampado de ácido Retro, Vintage, estampada, Harajuku, de algodón, informal, de manga corta</t>
+          <t>Zapatos planos de cuero genuino para hombre, calzado informal de alta calidad, suave y cómodo, con cordones, color negro, ZH740</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007436309680.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-4&amp;pdp_npi=4%40dis%21MXN%21423.74%2124.66%21%21%21146.35%218.52%21%402103246617315932885411353e47f7%2112000040749490506%21sea%21MX%210%21ABX&amp;curPageLogUid=AgUw2VheYMvO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/32704932130.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-4&amp;pdp_npi=4%40dis%21MXN%21510.88%21331.60%21%21%2124.45%2115.87%21%40210318c317316988067074292e85f7%2160785079268%21sea%21MX%210%21ABX&amp;curPageLogUid=NvRNKAWSFXy4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MX$24.66</t>
+          <t>MX$331.6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Camisetas de manga corta para gimnasio, camisetas de Anime japonés a la moda, camisetas de Hip-Hop Unisex 100% de algodón, ropa nueva de 2023 para hombre, S-4XL</t>
+          <t>Zapatos informales de piel auténtica para hombre, mocasines ligeros de suela suave con cordones, de marca de lujo, de mediana edad, gran oferta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006191040720.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-5&amp;pdp_npi=4%40dis%21MXN%21329.15%2120.77%21%21%21113.68%217.17%21%402103246617315932885411353e47f7%2112000036202276065%21sea%21MX%210%21ABX&amp;curPageLogUid=mxVagQIIHMyP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007211821268.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-5&amp;pdp_npi=4%40dis%21MXN%21476.79%21312.46%21%21%21165.23%21108.28%21%40210318c317316988067074292e85f7%2112000039822285832%21sea%21MX%210%21ABX&amp;curPageLogUid=5HZQc0ZrJxqC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$312.46</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Camiseta de Demon Slayer para mujer, camiseta de Kimetsu No Yaiba Nezuko, camiseta gráfica de Tanjirou Kamado, camiseta de Manga de Anime japonés</t>
+          <t>ZAPATOS DE TRABAJO ANTIPERFORACIONES para hombre, zapatillas de seguridad transpirables con punta de hierro, protección antideslizante, color negro, regalo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006746616060.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-6&amp;pdp_npi=4%40dis%21MXN%21206.91%2120.77%21%21%2171.46%217.17%21%402103246617315932885411353e47f7%2112000038170460067%21sea%21MX%210%21ABX&amp;curPageLogUid=6tIavgwmz6XM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007046150497.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-6&amp;pdp_npi=4%40dis%21MXN%211277.93%21359.18%21%21%2161.16%2117.19%21%40210318c317316988067074292e85f7%2112000039210332044%21sea%21MX%210%21ABX&amp;curPageLogUid=FHxErUKCMwRY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$359.18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Polo de Cosplay para hombre y niño, Camiseta corta de Goku, Anime japonés, Vegeta, Super Saiya, Hip Hop, 5XL, tendencia Y2k, novedad</t>
+          <t>Botas de nieve de lana de piel Ultra Mini para mujer, zapatillas de lujo, zapatos de Tasman, botines de plataforma, zapatos de gamuza, invierno, nuevo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006977099378.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;aem_p4p_detail=2024111406080810805487490626450000128006&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-7&amp;pdp_npi=4%40dis%21MXN%21175.95%21163.79%21%21%2160.77%2156.57%21%402103246617315932885411353e47f7%2112000038916365674%21sea%21MX%210%21ABX&amp;curPageLogUid=Y71P1sJMxwGn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406080810805487490626450000128006_2</t>
+          <t>https://es.aliexpress.com/item/1005007839733870.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;aem_p4p_detail=202411151126466978011029978860000920195&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-7&amp;pdp_npi=4%40dis%21MXN%211644.79%21822.39%21%21%21570.00%21285.00%21%40210318c317316988067074292e85f7%2112000042434242500%21sea%21MX%210%21ABX&amp;curPageLogUid=euROkexi9ioF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126466978011029978860000920195_2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MX$163.79</t>
+          <t>MX$822.39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jujutsu Kaisen Satoru Gojo Anime Camiseta de manga corta para mujer, cuello redondo, negro, blanco, poliéster</t>
+          <t>2023 zapatillas de deporte impermeables de cuero de otoño para hombre, zapatos deportivos informales, zapatos de trabajo de moda negros, zapatillas de deporte de moda para hombre, calzado masculino</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006418564325.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-8&amp;pdp_npi=4%40dis%21MXN%21199.70%2120.77%21%21%2168.97%217.17%21%402103246617315932885411353e47f7%2112000037096105335%21sea%21MX%210%21ABX&amp;curPageLogUid=66TBXAPqicIl&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005758792994.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-8&amp;pdp_npi=4%40dis%21MXN%21215.43%2120.69%21%21%2110.31%210.99%21%40210318c317316988067074292e85f7%2112000034249543123%21sea%21MX%210%21ABX&amp;curPageLogUid=VRGi9Cl95He5&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ropa con estampado 3D de chicas de Anime con estampado de rosas, camisetas gráficas de manga corta Unisex de Anime para chicas, camiseta gótica, camisetas de cuello redondo</t>
+          <t>Nike-zapatillas de skate Air Force 1 07 para hombre y mujer, zapatos clásicos de cuero genuino, antideslizantes y cómodos, color blanco y negro, Af1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007626883112.html?algo_pvid=bb543ebe-1429-4857-a0ea-f85eb38a26a9&amp;algo_exp_id=bb543ebe-1429-4857-a0ea-f85eb38a26a9-9&amp;pdp_npi=4%40dis%21MXN%21104.06%2120.77%21%21%2135.94%217.17%21%402103246617315932885411353e47f7%2112000041555998959%21sea%21MX%210%21ABX&amp;curPageLogUid=NIP7T4iWJiVq&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007212998064.html?algo_pvid=4c30c8d3-c2c4-4eb1-9334-ef5462301f73&amp;algo_exp_id=4c30c8d3-c2c4-4eb1-9334-ef5462301f73-9&amp;pdp_npi=4%40dis%21MXN%211555.34%211045.77%21%21%21539.00%21362.41%21%40210318c317316988067074292e85f7%2112000039826266867%21sea%21MX%210%21ABX&amp;curPageLogUid=I98jgIvFnAgi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,045.77</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jujutsu Kaisen Satoru Gojo Anime Camiseta de manga corta para mujer, cuello redondo, negro, blanco, poliéster</t>
+          <t>Nike Air Force 1 zapatos de skate para hombres y mujeres zapatos clásicos AF1 Tripe negro blanco zapatillas de deporte casuales</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006418564325.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-0&amp;pdp_npi=4%40dis%21MXN%21199.70%2120.77%21%21%2168.97%217.17%21%402103246617315932899911399e47f7%2112000037096105335%21sea%21MX%210%21ABX&amp;curPageLogUid=VlDNwVuSgcKw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007453190918.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-0&amp;pdp_npi=4%40dis%21MXN%212077.55%21923.37%21%21%21719.97%21319.99%21%402103011117316988079546728eb450%2112000041115762738%21sea%21MX%210%21ABX&amp;curPageLogUid=pfq0Zl0fscRM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$923.37</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sakura Cardcaptor ropa para mujer, camisas para mujer, ropa de dibujos animados</t>
+          <t>Adidas Clover SAMBA OG zapatos de tablero clásicos para hombre y mujer, zapatillas antideslizantes, resistentes al desgaste, cómodas y transpirables, originales</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007313280631.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-1&amp;pdp_npi=4%40dis%21MXN%21197.78%2120.77%21%21%2168.31%217.18%21%402103246617315932899911399e47f7%2112000040221432902%21sea%21MX%210%21ABX&amp;curPageLogUid=j64ODXLFhB5x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007814015193.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-1&amp;pdp_npi=4%40dis%21MXN%212374.76%21978.24%21%21%21822.97%21339.01%21%402103011117316988079546728eb450%2112000042293547954%21sea%21MX%210%21ABX&amp;curPageLogUid=aX6aLFU9Lmjy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$978.24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MINISO-Camiseta de One Piece para hombre, camisa con estampado 3d de Cartoo, informal, de manga corta, ropa de calle de gran tamaño, camisetas de Anime de moda</t>
+          <t>Nuevos zapatos deportivos de plataforma a la moda para mujer, zapatillas gruesas informales negras de verano 20224, zapatos de plataforma de cuero de malla para mujer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007881858984.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-2&amp;pdp_npi=4%40dis%21MXN%21127.54%2120.77%21%21%216.08%210.99%21%402103246617315932899911399e47f7%2112000042697817051%21sea%21MX%210%21ABX&amp;curPageLogUid=sRIpQmXYvWbI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007506537698.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-2&amp;pdp_npi=4%40dis%21MXN%21638.12%21125.82%21%21%21221.14%2143.60%21%402103011117316988079546728eb450%2112000041063153586%21sea%21MX%210%21ABX&amp;curPageLogUid=SqzeaCxWEduw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$125.82</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Camisa de manga corta con estampado de gato samurái de arte japonés para hombre, camisa informal cómoda con solapa y botones</t>
+          <t>Zapatos planos puntiagudos de estilo francés para mujer, calzado con remaches a la moda, de charol negro poco profundo, 2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006205011049.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;aem_p4p_detail=202411140608101346182348091920000140969&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-3&amp;pdp_npi=4%40dis%21MXN%21333.38%21196.69%21%21%21115.14%2167.93%21%402103246617315932899911399e47f7%2112000036265851312%21sea%21MX%210%21ABX&amp;curPageLogUid=6uT0hsBM3XE4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608101346182348091920000140969_1</t>
+          <t>https://es.aliexpress.com/item/1005006862806146.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;aem_p4p_detail=20241115112648298304440600530000917702&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-3&amp;pdp_npi=4%40dis%21MXN%212264.88%211132.43%21%21%21784.89%21392.44%21%402103011117316988079546728eb450%2112000038550898458%21sea%21MX%210%21ABX&amp;curPageLogUid=KRZqiplTr3XH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241115112648298304440600530000917702_1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MX$196.69</t>
+          <t>MX$1,132.43</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Capitán Tsubasa Anime camiseta Hyuga animación Cosplay manga corta 3D estampado FÚTBOL Camisetas Camisetas Hombre diseñador ropa</t>
+          <t>Adidas Campus 00s Core Black HQ8708 Zapatos clásicos de tabla baja, transpirables y informales para hombres y mujeres</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007351736976.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-4&amp;pdp_npi=4%40dis%21MXN%21119.72%2120.77%21%21%2141.35%217.18%21%402103246617315932899911399e47f7%2112000040386850705%21sea%21MX%210%21ABX&amp;curPageLogUid=prY4xvgZP3WT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007989633946.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-4&amp;pdp_npi=4%40dis%21MXN%211255.24%211014.87%21%21%21435.00%21351.70%21%402103011117316988079546728eb450%2112000043175274896%21sea%21MX%210%21ABX&amp;curPageLogUid=yhwKMJr2Qxy8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,014.87</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Camiseta de Anime japonés para mujer, camiseta de Jiu-Jitsu Kaisen para mujer, Top gráfico Y2k, camiseta fresca Unisex, Tops góticos para hombre 2022</t>
+          <t>Nike Dunk Sb-zapatos de Skateboard informales para hombre y mujer, zapatillas cómodas antideslizantes de color rosa, Panda genuino</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007452735149.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-5&amp;pdp_npi=4%40dis%21MXN%21189.01%2120.77%21%21%2165.28%217.17%21%402103246617315932899911399e47f7%2112000040815846811%21sea%21MX%210%21ABX&amp;curPageLogUid=YXPPehqCuLVU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007443687395.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-5&amp;pdp_npi=4%40dis%21MXN%212998.92%21842.97%21%21%211039.27%21292.13%21%402103011117316988079546728eb450%2112000040774285731%21sea%21MX%210%21ABX&amp;curPageLogUid=KzLwyLGVM4GK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$842.97</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de The Quackin Duck para hombre y mujer, camisa de culturismo para levantamiento de pesas, ropa de calle</t>
+          <t>Adidas Superstar hombres mujer zapatos casuales clásicos negro blanco al aire libre cómodo plano deportes Skateboard zapatillas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007839574253.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-6&amp;pdp_npi=4%40dis%21MXN%21202.21%2120.77%21%21%2169.84%217.18%21%402103246617315932899911399e47f7%2112000042432850628%21sea%21MX%210%21ABX&amp;curPageLogUid=7ZTgQ7vRD5vD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007958299578.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-6&amp;pdp_npi=4%40dis%21MXN%211145.41%21962.15%21%21%21396.94%21333.43%21%402103011117316988079546728eb450%2112000043029673740%21sea%21MX%210%21ABX&amp;curPageLogUid=5LEQjT1FWxfG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$962.15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Camisetas con estampado 3D de Saint Seiya para hombres y mujeres, ropa de calle informal, camiseta de manga corta a la moda, camisetas con cuello redondo para niños, ropa</t>
+          <t>Nueva moda, espectáculo de club nocturno Sexy, tacones altos finos, cremallera lateral, tubo puntiagudo de diamante de agua, zapatos de tacón para mujer, zapatos de boda туфли жletiе</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006161094829.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;aem_p4p_detail=202411140608101346182348091920000140969&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-7&amp;pdp_npi=4%40dis%21MXN%21133.45%2120.77%21%21%2146.09%217.17%21%402103246617315932899911399e47f7%2112000036049954728%21sea%21MX%210%21ABX&amp;curPageLogUid=y3oxRGkAtpTH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608101346182348091920000140969_2</t>
+          <t>https://es.aliexpress.com/item/1005008002697285.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;aem_p4p_detail=20241115112648298304440600530000917702&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-7&amp;pdp_npi=4%40dis%21MXN%212045.26%21879.48%21%21%21708.78%21304.78%21%402103011117316988079546728eb450%2112000043224567981%21sea%21MX%210%21ABX&amp;curPageLogUid=d10Wog0AGYJd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241115112648298304440600530000917702_2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$879.48</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Camiseta de uniforme de dibujos animados rojos Haikyuu Fukurodani para hombres, disfraz de Anime, camiseta de Karasuno, camisetas de voleibol para niños de secundaria</t>
+          <t>Onitsuka-Zapatillas deportivas Tiger MEXICO 66 para hombre y mujer, zapatos de Skateboarding Unisex, zapatillas bajas para exteriores, plateadas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007498428580.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-8&amp;pdp_npi=4%40dis%21MXN%21121.78%2120.77%21%21%2142.06%217.17%21%402103246617315932899911399e47f7%2112000041032337611%21sea%21MX%210%21ABX&amp;curPageLogUid=Kmx5661RibrS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007457948428.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-8&amp;pdp_npi=4%40dis%21MXN%212190.95%21821.94%21%21%21759.27%21284.84%21%402103011117316988079546728eb450%2112000040836501554%21sea%21MX%210%21ABX&amp;curPageLogUid=BEQBwm2F18xt&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$821.94</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Camiseta de dibujos animados de serie de Tv Friends para mujer, remera Harajuku con gráfico de mejores amigos, camiseta de estilo coreano, Top Vintage para mujer</t>
+          <t>Mocasines deportivos antideslizantes para hombre, zapatos de cuero antideslizantes, zapatillas de conducción negras, zapatos de vestir masculinos, calzado plano ligero y transpirable</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006985060099.html?algo_pvid=eeede953-50e0-47bb-885e-a2d26326f587&amp;algo_exp_id=eeede953-50e0-47bb-885e-a2d26326f587-9&amp;pdp_npi=4%40dis%21MXN%21192.08%2120.77%21%21%2166.34%217.17%21%402103246617315932899911399e47f7%2112000038945758098%21sea%21MX%210%21ABX&amp;curPageLogUid=2kRm1FnVLupU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004584065065.html?algo_pvid=7c83328f-4ce3-4c52-916e-7482c75b7538&amp;algo_exp_id=7c83328f-4ce3-4c52-916e-7482c75b7538-9&amp;pdp_npi=4%40dis%21MXN%21282.71%21133.52%21%21%2113.53%216.39%21%402103011117316988079546728eb450%2112000029716895811%21sea%21MX%210%21ABX&amp;curPageLogUid=GIDgvcyAOMzh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$133.52</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de araña roja de Anime COSPALY para hombre y niño, camiseta transpirable con cuello redondo, ropa deportiva para exteriores, camisetas de manga corta para hombre</t>
+          <t>Zapatos de cuero transpirables para hombre, mocasines sin cordones, informales, planos, negros, para conducir y caminar, Verano</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007997971457.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-0&amp;pdp_npi=4%40dis%21MXN%21166.80%21166.80%21%21%2157.61%2157.61%21%402101e9a217315932914606456e4863%2112000043209191214%21sea%21MX%210%21ABX&amp;curPageLogUid=324uAOxf1oph&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007589486311.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-0&amp;pdp_npi=4%40dis%21MXN%21420.20%2128.05%21%21%21145.62%219.72%21%402101c5a717316988091822046e0186%2112000041411135083%21sea%21MX%210%21ABX&amp;curPageLogUid=D36SO0oXp7jX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MX$166.8</t>
+          <t>MX$28.05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Camiseta lavada de Anime Attack on Titan para hombre, ropa de calle de Hip Hop, camiseta de gran tamaño con estampado gráfico, camisetas Vintage sueltas de algodón de manga corta</t>
+          <t>Zapatillas de lona vulcanizadas para mujer, zapatos bajos con plataforma, Tenis planos negros, monopatín clásico para estudiantes y parejas pequeñas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007475073917.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-1&amp;pdp_npi=4%40dis%21MXN%21430.72%2120.77%21%21%21148.76%217.17%21%402101e9a217315932914606456e4863%2112000040918787100%21sea%21MX%210%21ABX&amp;curPageLogUid=5c82s2rMD2PY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007476890283.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-1&amp;pdp_npi=4%40dis%21MXN%21486.63%21204.39%21%21%21168.64%2170.83%21%402101c5a717316988091822046e0186%2112000040910508179%21sea%21MX%210%21ABX&amp;curPageLogUid=JTvH7r1s5Gag&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$204.39</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Fairy Tail END Natsu Manga, camisa Vintage de gran tamaño con estampado gráfico de Anime, ropa suelta informal de algodón lavado</t>
+          <t>Botas de cuero con plataforma para hombre, botines informales británicos, color negro, cómodos, mantienen el calor, Invierno</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007858204811.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-2&amp;pdp_npi=4%40dis%21MXN%21581.02%21278.89%21%21%21200.67%2196.32%21%402101e9a217315932914606456e4863%2112000042564077616%21sea%21MX%210%21ABX&amp;curPageLogUid=WxVi7tEDPZUP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007655568474.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-2&amp;pdp_npi=4%40dis%21MXN%21291.10%21125.18%21%21%21100.88%2143.38%21%402101c5a717316988091822046e0186%2112000041672948269%21sea%21MX%210%21ABX&amp;curPageLogUid=qTLEXqLexMRG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MX$278.89</t>
+          <t>MX$125.18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de personaje de Anime en 3D para hombre, ropa de calle de manga corta, estilo de Póster Artístico de Graffiti, Sexy, 2024</t>
+          <t>Zapatos de mujer tendencia 2024, zapatos de tacón para mujer, marca de fondo rojo brillante, charol, punta estrecha, tacones altos negros para fiesta, zapatos de mujer 35-43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007821373673.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;aem_p4p_detail=202411140608115588279843988170000141458&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-3&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402101e9a217315932914606456e4863%2112000042328391291%21sea%21MX%210%21ABX&amp;curPageLogUid=AZirB42JhmP4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608115588279843988170000141458_1</t>
+          <t>https://es.aliexpress.com/item/1005004856360073.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;aem_p4p_detail=202411151126493586032489769860000910113&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-3&amp;pdp_npi=4%40dis%21MXN%212561.08%21846.87%21%21%21122.57%2140.53%21%402101c5a717316988091822046e0186%2112000030765634362%21sea%21MX%210%21ABX&amp;curPageLogUid=nIow4zSnqm84&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126493586032489769860000910113_1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MX$65.66</t>
+          <t>MX$846.87</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Camisa de compresión de araña de Anime para hombre, ropa deportiva de manga corta para gimnasio, Fitness, Rashguard, culturismo, ajuste seco, ropa para correr</t>
+          <t>Zapatos de cuero para hombre, calzado elevador, plantilla para aumentar la altura, color negro, 6/8CM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007740135186.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-4&amp;pdp_npi=4%40dis%21MXN%21112.34%2120.77%21%21%2138.80%217.17%21%402101e9a217315932914606456e4863%2112000042048384513%21sea%21MX%210%21ABX&amp;curPageLogUid=cep5KpaL7e10&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004540711927.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-4&amp;pdp_npi=4%40dis%21MXN%211029.70%21628.10%21%21%2149.28%2130.06%21%402101c5a717316988091822046e0186%2112000029536326809%21sea%21MX%210%21ABX&amp;curPageLogUid=q4LNRXX0gToV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$628.1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Miniso Disney-Camiseta de manga corta para hombre, camisa con estampado 3D de dibujos animados de Anime, Snoopy, personalizada, a la moda, novedad de verano, 2024</t>
+          <t>Mocasines de diseñador con hebilla de Metal para hombre, zapatos informales de charol negro con punta estrecha, sin cordones</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007564171630.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-5&amp;pdp_npi=4%40dis%21MXN%21323.10%2120.77%21%21%21111.59%217.17%21%402101e9a217315932914606456e4863%2112000041313742377%21sea%21MX%210%21ABX&amp;curPageLogUid=pu04PgFXcoF9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004785200984.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-5&amp;pdp_npi=4%40dis%21MXN%211139.60%21380.70%21%21%2154.54%2118.22%21%402101c5a717316988091822046e0186%2112000030479330456%21sea%21MX%210%21ABX&amp;curPageLogUid=U5Yna8mA0N14&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$380.7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Camiseta de Dandad Japanaise Anime Manga regalo camisa exclusiva todas las tallas</t>
+          <t>Zapatos informales de Skateboarding para hombre, zapatillas de diseñador de marca de lujo, de cuero genuino, color negro puro, talla grande 47 48, Otoño e Invierno</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007935092354.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-6&amp;pdp_npi=4%40dis%21MXN%21191.15%2120.77%21%21%2166.02%217.18%21%402101e9a217315932914606456e4863%2112000042930599432%21sea%21MX%210%21ABX&amp;curPageLogUid=6hLvKYrg2rNN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/4000209810595.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-6&amp;pdp_npi=4%40dis%21MXN%211075.04%21580.46%21%21%2151.45%2127.78%21%402101c5a717316988091822046e0186%2112000031160864695%21sea%21MX%210%21ABX&amp;curPageLogUid=FSio5xjdp4Zz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$580.46</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Camisa de manga corta para hombre, camisa hawaiana con estampado japonés Ukiyoe, informal, ligera, para playa</t>
+          <t>Botas por encima de la rodilla para mujer, zapatos elásticos de cuero con tacón alto Sexy, cremallera lateral, botas largas hasta el muslo, color negro mate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006983053577.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;aem_p4p_detail=202411140608115588279843988170000141458&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-7&amp;pdp_npi=4%40dis%21MXN%21324.28%21275.64%21%21%21112.00%2195.20%21%402101e9a217315932914606456e4863%2112000038938553812%21sea%21MX%210%21ABX&amp;curPageLogUid=yFHYnSMCI5XS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608115588279843988170000141458_2</t>
+          <t>https://es.aliexpress.com/item/1005006019779461.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;aem_p4p_detail=202411151126493586032489769860000910113&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-7&amp;pdp_npi=4%40dis%21MXN%211030.95%21606.36%21%21%2149.34%2129.02%21%402101c5a717316988091822046e0186%2112000035351580828%21sea%21MX%210%21ABX&amp;curPageLogUid=LIY91KWyIuWg&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126493586032489769860000910113_2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MX$275.64</t>
+          <t>MX$606.36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Camiseta Unisex Midoriya Izuku Deku, camiseta de dibujos animados japoneses para mujer, camiseta de Boku No Hero Academia de Anime My Hero Academia para mujer</t>
+          <t>LAORENTOU-zapatos de cuero de vaca genuino para hombre, calzado informal de negocios, transpirable, resistente al desgaste, suela gruesa de tendón de vaca, zapatos negros suaves</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007908408576.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-8&amp;pdp_npi=4%40dis%21MXN%2196.28%2120.77%21%21%214.59%210.99%21%402101e9a217315932914606456e4863%2112000042796998826%21sea%21MX%210%21ABX&amp;curPageLogUid=NOv9FpJkqkjM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007091703477.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-8&amp;pdp_npi=4%40dis%21MXN%212121.61%21869.87%21%21%21735.24%21301.45%21%402101c5a717316988091822046e0186%2112000039371942273%21sea%21MX%210%21ABX&amp;curPageLogUid=YV09WzSPhlwN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$869.87</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Dan Da Dan, camisetas Vintage lavadas de gran tamaño para Dandadan, ropa de calle Retro de Manga Ayase Momo Takakura Ken, camisetas para hombres</t>
+          <t>Zapatos de plataforma de cuero para mujer, zapatillas informales versátiles de Color negro, vulcanizados con cordones, Tenis femeninos, Otoño, 2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007922836990.html?algo_pvid=b2ccd4f1-b4fb-440f-9450-fc8b139fd199&amp;algo_exp_id=b2ccd4f1-b4fb-440f-9450-fc8b139fd199-9&amp;pdp_npi=4%40dis%21MXN%21319.68%21282.34%21%21%2115.24%2113.46%21%402101e9a217315932914606456e4863%2112000042859741188%21sea%21MX%210%21ABX&amp;curPageLogUid=bvagJSkbP0w3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005292704957.html?algo_pvid=84896ab3-f57c-4445-a8c1-daac74672ae3&amp;algo_exp_id=84896ab3-f57c-4445-a8c1-daac74672ae3-9&amp;pdp_npi=4%40dis%21MXN%21459.06%21296.08%21%21%2121.97%2114.17%21%402101c5a717316988091822046e0186%2112000032517551548%21sea%21MX%210%21ABX&amp;curPageLogUid=ZwwuRbORClIW&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MX$282.34</t>
+          <t>MX$296.08</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Camiseta Candy, shojo,riyoko, ikedarose of versailes, anime kawaii, todas las tallas</t>
+          <t>Nike-zapatillas de deporte Air Force1 para hombre y mujer, zapatos versátiles de corte bajo, antideslizantes y duraderos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007506935177.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-0&amp;pdp_npi=4%40dis%21MXN%21203.14%2120.77%21%21%2170.16%217.17%21%402103246617315932929611451e47f7%2112000041061849260%21sea%21MX%210%21ABX&amp;curPageLogUid=swY0cZIjMCy1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007621957194.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-0&amp;pdp_npi=4%40dis%21MXN%213120.78%21823.26%21%21%211081.50%21285.30%21%402101e9ec17316988103207005e65a9%2112000041536614689%21sea%21MX%210%21ABX&amp;curPageLogUid=yukTKxXrZE2f&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$823.26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mob Psycho-Camiseta con estampado divertido para mujer, camisa de manga corta con cuello redondo, Top de alta calidad, 100</t>
+          <t>Adidas samba OG zapatos clásicos de cuero suave para tabla deslizante para hombres y mujeres, zapatos planos wales bonn pony tono, deportes al aire libre y</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007283416833.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-1&amp;pdp_npi=4%40dis%21MXN%21212.64%2120.77%21%21%2173.44%217.17%21%402103246617315932929611451e47f7%2112000040064446492%21sea%21MX%210%21ABX&amp;curPageLogUid=fXMWVgrOhBxY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007657229589.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-1&amp;pdp_npi=4%40dis%21MXN%213404.72%21958.50%21%21%211179.90%21332.17%21%402101e9ec17316988103207005e65a9%2112000041681436572%21sea%21MX%210%21ABX&amp;curPageLogUid=irOPh3WrHqgp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$958.5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Camisetas de dibujos animados japoneses para hombres y mujeres, camisetas de Anime Kawaii, Anya, Forger, Spy X Family, moda de verano</t>
+          <t>Adidas Originals-Zapatillas de Skateboard para hombre y mujer, zapatos informales a la moda, color blanco y negro, Unisex, para exteriores</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006677313159.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-2&amp;pdp_npi=4%40dis%21MXN%21147.93%2120.77%21%21%2151.09%217.17%21%402103246617315932929611451e47f7%2112000037990011796%21sea%21MX%210%21ABX&amp;curPageLogUid=Uw6rbGVTg1nP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007583877495.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-2&amp;pdp_npi=4%40dis%21MXN%212077.55%21840.41%21%21%21719.97%21291.24%21%402101e9ec17316988103207005e65a9%2112000041391025071%21sea%21MX%210%21ABX&amp;curPageLogUid=LKiI2HuyvGEe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$840.41</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Anime Fate/kaleid para hombre y mujer, camisa de manga corta con estampado divertido, ropa de calle para Cosplay, moda de verano</t>
+          <t>Zapatos de tacón alto con diamantes de imitación para mujer, Sandalias de tacón de aguja con encaje de malla, Sexy, serpiente, boda, graduación, verano y otoño</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007278670146.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;aem_p4p_detail=20241114060813467564591849760000142535&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-3&amp;pdp_npi=4%40dis%21MXN%21101.34%2165.87%21%21%2135.00%2122.75%21%402103246617315932929611451e47f7%2112000040043030613%21sea%21MX%210%21ABX&amp;curPageLogUid=MuXu91Pg3AxK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060813467564591849760000142535_1</t>
+          <t>https://es.aliexpress.com/item/1005007279211942.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;aem_p4p_detail=202411151126503916675350116100000901743&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-3&amp;pdp_npi=4%40dis%21MXN%21960.95%21422.91%21%21%2145.99%2120.24%21%402101e9ec17316988103207005e65a9%2112000040045795183%21sea%21MX%210%21ABX&amp;curPageLogUid=U1PEMWaR5N02&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126503916675350116100000901743_1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MX$65.87</t>
+          <t>MX$422.91</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Camiseta de algodón con estampado gráfico de Attack on Titan para hombre y mujer, camisa informal de manga corta, talla grande, moda de Anime japonés, Verano</t>
+          <t>Nike Dunk-zapatillas de Skateboarding para hombre y mujer, zapatos clásicos de cuero genuino, antideslizantes, cómodas, color blanco y negro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007184672783.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-4&amp;pdp_npi=4%40dis%21MXN%21321.10%21134.87%21%21%21110.90%2146.58%21%402103246617315932929611451e47f7%2112000039734004498%21sea%21MX%210%21ABX&amp;curPageLogUid=dmmjaGrYAIn4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007507336080.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-4&amp;pdp_npi=4%40dis%21MXN%211631.72%211223.78%21%21%21565.47%21424.10%21%402101e9ec17316988103207005e65a9%2112000041062884511%21sea%21MX%210%21ABX&amp;curPageLogUid=CDJPPYm61fuP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MX$134.87</t>
+          <t>MX$1,223.78</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Camiseta lavada de trébol negro de Anime, ropa de calle Harajuku, camiseta Vintage gráfica, camiseta de manga corta de Hip Hop de algodón 100% de verano</t>
+          <t>2024 botines negros de gamuza para mujer, zapatos de invierno Antumu de tacón bajo a la moda, botines cortos con cordones y cremallera para mujer de talla grande 35-42</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007217281068.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-5&amp;pdp_npi=4%40dis%21MXN%21423.28%2120.77%21%21%21146.19%217.17%21%402103246617315932929611451e47f7%2112000039840674859%21sea%21MX%210%21ABX&amp;curPageLogUid=IeB7xuXNUc4W&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007840364975.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-5&amp;pdp_npi=4%40dis%21MXN%21294.33%21161.88%21%21%21102.00%2156.10%21%402101e9ec17316988103207005e65a9%2112000042439171619%21sea%21MX%210%21ABX&amp;curPageLogUid=iBBiNWidNJdY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$161.88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con estampado de Anime de Deku, camiseta informal de moda, Tops de verano</t>
+          <t>Adidas Originals-zapatos de corte bajo para hombre y mujer, calzado deportivo, Campus 00s</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006735966623.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-6&amp;pdp_npi=4%40dis%21MXN%21145.93%2120.77%21%21%2150.40%217.17%21%402103246617315932929611451e47f7%2112000038131585006%21sea%21MX%210%21ABX&amp;curPageLogUid=YN8LJ046pZjF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007745279501.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-6&amp;pdp_npi=4%40dis%21MXN%213417.99%21962.85%21%21%211184.50%21333.68%21%402101e9ec17316988103207005e65a9%2112000042069318383%21sea%21MX%210%21ABX&amp;curPageLogUid=njtgWHCpzBpz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$962.85</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Camisa hawaiana de manga corta para hombre, camisa informal con estampado de nutria, cuello levantado, talla grande, a la moda, para uso diario, 2024</t>
+          <t>Zapatos de gimnasio profesionales para hombre y mujer, calzado de entrenamiento para levantamiento de pesas, color negro y rojo, marca de lujo, calzado deportivo para interiores, Unisex</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007119778110.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;aem_p4p_detail=20241114060813467564591849760000142535&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-7&amp;pdp_npi=4%40dis%21MXN%21324.28%21184.84%21%21%21112.00%2163.84%21%402103246617315932929611451e47f7%2112000039466043842%21sea%21MX%210%21ABX&amp;curPageLogUid=UWjrNwKKoFJ9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060813467564591849760000142535_2</t>
+          <t>https://es.aliexpress.com/item/1005007799067278.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;aem_p4p_detail=202411151126503916675350116100000901743&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-7&amp;pdp_npi=4%40dis%21MXN%213055.24%211680.36%21%21%21146.22%2180.42%21%402101e9ec17316988103207005e65a9%2112000042240211231%21sea%21MX%210%21ABX&amp;curPageLogUid=0z0LF0g6NiL1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126503916675350116100000901743_2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MX$184.84</t>
+          <t>MX$1,680.36</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Camiseta de Anime japonés Harajuku Berserk Guts Eyes Print, divertida camiseta gráfica, camiseta de Manga, camisetas de Hip Hop</t>
+          <t>Otoño Verano negro Casual mujer moda plataforma zapatos deportivos mujeres zapatillas gruesas mujeres malla cuero plataforma zapatos de diseñador</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006739370929.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-8&amp;pdp_npi=4%40dis%21MXN%21310.59%2120.77%21%21%21107.27%217.17%21%402103246617315932929611451e47f7%2112000038143330540%21sea%21MX%210%21ABX&amp;curPageLogUid=XpXLeJ5yxk9n&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007650330485.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-8&amp;pdp_npi=4%40dis%21MXN%21702.27%21152.11%21%21%21243.37%2152.71%21%402101e9ec17316988103207005e65a9%2112000041651912236%21sea%21MX%210%21ABX&amp;curPageLogUid=CTm6lfB55LOX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$152.11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de ataque gigante a los Titanes para hombre y mujer, camiseta de Anime de moda con cuello redondo, ropa de calle, Top genial</t>
+          <t>Zapatos de cuero con suela gruesa para hombre, calzado deportivo con suela gruesa, diseño reflectante para exteriores, color blanco y negro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006793845240.html?algo_pvid=b6351c37-f74d-4dd8-b808-3a5c846576b4&amp;algo_exp_id=b6351c37-f74d-4dd8-b808-3a5c846576b4-9&amp;pdp_npi=4%40dis%21MXN%21121.61%21121.61%21%21%2142.00%2142.00%21%402103246617315932929611451e47f7%2112000040770826169%21sea%21MX%210%21ABX&amp;curPageLogUid=ylekqH6WwGlh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007426602955.html?algo_pvid=abe4762d-a997-4cb6-adf2-168de98ca65d&amp;algo_exp_id=abe4762d-a997-4cb6-adf2-168de98ca65d-9&amp;pdp_npi=4%40dis%21MXN%211181.48%21945.18%21%21%21409.44%21327.55%21%402101e9ec17316988103207005e65a9%2112000040715729743%21sea%21MX%210%21ABX&amp;curPageLogUid=LAazbs9V8fiO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MX$121.61</t>
+          <t>MX$945.18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Camiseta de compresión estética de Anime para hombre, ropa deportiva de secado rápido, camisetas ajustadas para gimnasio, ropa interior de verano, chándal, 2024</t>
+          <t>Nike-zapatillas de tabla Air Force 1 para hombre y mujer, zapatos deportivos planos informales, cómodos y a la moda, color blanco y negro, para exteriores</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007758913041.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-0&amp;pdp_npi=4%40dis%21MXN%21112.34%2120.77%21%21%2138.80%217.17%21%402103246617315932946071478e47f7%2112000042106368216%21sea%21MX%210%21ABX&amp;curPageLogUid=02KKoP6sec27&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007656799932.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-0&amp;pdp_npi=4%40dis%21MXN%213108.66%211107.65%21%21%211077.30%21383.85%21%402101c5a417316988115016543eaa17%2112000041678725997%21sea%21MX%210%21ABX&amp;curPageLogUid=eNl7PCDbJSKN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,107.65</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Camiseta estampada de Manga Anya Forger para mujer, remera de Anime Rosa divertida de la familia Spy X, playera informal Harajuku de Manga corta para mujer</t>
+          <t>Adidas samba OG zapatos clásicos de cuero suave para tabla deslizante para hombres y mujeres, zapatos planos wales bonn pony tono, deportes al aire libre y</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006936912999.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-1&amp;pdp_npi=4%40dis%21MXN%2185.73%2120.77%21%21%2129.61%217.17%21%402103246617315932946071478e47f7%2112000038788379883%21sea%21MX%210%21ABX&amp;curPageLogUid=8hc7t3416uwc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007657229589.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-1&amp;pdp_npi=4%40dis%21MXN%213404.72%21958.50%21%21%211179.90%21332.17%21%402101c5a417316988115016543eaa17%2112000041681436572%21sea%21MX%210%21ABX&amp;curPageLogUid=49VzmFJu2AQH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$958.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Camisetas con patrón divertido de dragón Harajuku para hombres y mujeres, camiseta de Hip Hop, ropa de algodón para parejas, camiseta suelta de algodón de verano</t>
+          <t>Zapatos de negocios de cuero para hombre, mocasines sin cordones, transpirables, informales, suaves, planos, negros, para conducir, Verano</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006768129826.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-2&amp;pdp_npi=4%40dis%21MXN%21290.93%2120.77%21%21%21100.48%217.17%21%402103246617315932946071478e47f7%2112000038233935030%21sea%21MX%210%21ABX&amp;curPageLogUid=wztTTSkJPJbL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005810202966.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-2&amp;pdp_npi=4%40dis%21MXN%21134.77%2120.69%21%21%216.45%210.99%21%402101c5a417316988115016543eaa17%2112000034431274831%21sea%21MX%210%21ABX&amp;curPageLogUid=4aFomQ9PHQbU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Camisa informal con estampado de mono de Anime para hombre, ropa de gran tamaño, camisetas Kawaii de manga corta, ropa de calle Harajuku, Tops 2024</t>
+          <t>Tacones altos negros para mujer, 8CM, 10CM, 12CM, tacones finos, zapatos individuales a la moda con punta estrecha, zapatos de tacón de oficina de cuero PU de talla grande 45 para mujer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007425668514.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;aem_p4p_detail=2024111406081413102788296487000000127948&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-3&amp;pdp_npi=4%40dis%21MXN%21182.08%21168.24%21%21%218.68%218.02%21%402103246617315932946071478e47f7%2112000040711852857%21sea%21MX%210%21ABX&amp;curPageLogUid=3IT52sKEEjRX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081413102788296487000000127948_1</t>
+          <t>https://es.aliexpress.com/item/1005008052699378.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;aem_p4p_detail=202411151126513410863816150200000918289&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-3&amp;pdp_npi=4%40dis%21MXN%211243.12%21634.00%21%21%21430.80%21219.71%21%402101c5a417316988115016543eaa17%2112000043454317022%21sea%21MX%210%21ABX&amp;curPageLogUid=155cVuvSCnIR&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126513410863816150200000918289_1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MX$168.24</t>
+          <t>MX$634</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con cuello redondo para hombre, ropa de calle de algodón con estampado Retro de los 90, serie animada de Marvel x-men</t>
+          <t>Nike Air Jordan 1 Mid zapatos de tabla para hombre soporte comodidad zapatos casuales invierno acolchado y ligero transpirable negro y azul</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007347579752.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-4&amp;pdp_npi=4%40dis%21MXN%21340.15%2120.77%21%21%21117.48%217.17%21%402103246617315932946071478e47f7%2112000040362920446%21sea%21MX%210%21ABX&amp;curPageLogUid=eRKv4cxtCVKw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007990767506.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-4&amp;pdp_npi=4%40dis%21MXN%212882.71%211161.40%21%21%21999.00%21402.48%21%402101c5a417316988115016543eaa17%2112000043180848427%21sea%21MX%210%21ABX&amp;curPageLogUid=YwWX3M6gpjtS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,161.4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Camiseta de pirata Ace Edward Newgate para hombre y mujer, camisa de Cosplay de Anime de una pieza, Tops de manga corta de algodón, ropa Harajuku</t>
+          <t>LAORENTOU-zapatos de cuero de vaca transpirables, calzado informal de negocios con suelas gruesas y punta redonda resistente al desgaste, color negro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007638654545.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-5&amp;pdp_npi=4%40dis%21MXN%21336.07%2120.77%21%21%21116.07%217.17%21%402103246617315932946071478e47f7%2112000041601651067%21sea%21MX%210%21ABX&amp;curPageLogUid=HO8O8Up023d2&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007091748437.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-5&amp;pdp_npi=4%40dis%21MXN%212481.67%211042.30%21%21%21860.02%21361.21%21%402101c5a417316988115016543eaa17%2112000039372020314%21sea%21MX%210%21ABX&amp;curPageLogUid=KYefUVZa3heF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,042.3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Camisetas de Jojo Bizarre Adventure para hombre y mujer, ropa de calle con estampado 3D de Manga de Anime, Tops de gran tamaño a la moda para niños, novedad de 2024</t>
+          <t>Zapatos de cuero para hombre, plantilla de aumento de altura, elevador británico, color negro, talla grande 38-44, 6CM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006982803261.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-6&amp;pdp_npi=4%40dis%21MXN%21230.68%2120.77%21%21%2179.67%217.17%21%402103246617315932946071478e47f7%2112000038936709362%21sea%21MX%210%21ABX&amp;curPageLogUid=soATp1mt15IX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004685866985.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-6&amp;pdp_npi=4%40dis%21MXN%211115.78%21470.97%21%21%2153.40%2122.54%21%402101c5a417316988115016543eaa17%2112000030096514484%21sea%21MX%210%21ABX&amp;curPageLogUid=O7fzeC25TqOI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$470.97</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Camisetas de Anime Baki The Grappler para hombres y mujeres, ropa de calle con estampado 3D de Yujiro Hanma, camiseta de manga corta a la moda, camisetas para niños, ropa</t>
+          <t>Nuevos tacones altos negros puntiagudos de 12 cm para mujer con tacones delgados, versátiles y sexys, boca ligera, zapatos individuales de talla grande 33-46</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007327823874.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;aem_p4p_detail=2024111406081413102788296487000000127948&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-7&amp;pdp_npi=4%40dis%21MXN%21134.55%2120.77%21%21%2146.47%217.17%21%402103246617315932946071478e47f7%2112000040284436572%21sea%21MX%210%21ABX&amp;curPageLogUid=aM67MbHnruze&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081413102788296487000000127948_2</t>
+          <t>https://es.aliexpress.com/item/1005008050963983.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;aem_p4p_detail=202411151126513410863816150200000918289&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-7&amp;pdp_npi=4%40dis%21MXN%213748.39%21824.64%21%21%211299.00%21285.78%21%402101c5a417316988115016543eaa17%2112000043446078019%21sea%21MX%210%21ABX&amp;curPageLogUid=k1JvKX36Jv16&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126513410863816150200000918289_2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$824.64</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Camiseta con estampado Berserk para hombre, camiseta lavada Vintage, camiseta gráfica de Anime Guts, ropa de calle de hip hop, camisetas informales de verano, ropa Berserk</t>
+          <t>Zapatos informales de cuero para hombre, calzado de trabajo negro transpirable, hecho a mano, antideslizante, para conducir</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007381729812.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-8&amp;pdp_npi=4%40dis%21MXN%21576.68%2182.78%21%21%21199.17%2128.59%21%402103246617315932946071478e47f7%2112000040511975913%21sea%21MX%210%21ABX&amp;curPageLogUid=EMGnfJOWlVGh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007594366718.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-8&amp;pdp_npi=4%40dis%21MXN%211012.36%21269.12%21%21%21350.83%2193.26%21%402101c5a417316988115016543eaa17%2112000041429771019%21sea%21MX%210%21ABX&amp;curPageLogUid=9PxqurJL6Dk0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MX$82.78</t>
+          <t>MX$269.12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Genshin Impact Raiden Shogun camiseta Anime Unisex Harajuku camiseta todas las tallas</t>
+          <t>Botas de nieve gruesas clásicas de cuero negro para hombre, zapatos deportivos para senderismo al aire libre, cálidos, de felpa súper gruesa, para invierno</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007985467217.html?algo_pvid=b107565e-9110-412b-943c-12d4366fbdc9&amp;algo_exp_id=b107565e-9110-412b-943c-12d4366fbdc9-9&amp;pdp_npi=4%40dis%21MXN%21192.86%21172.01%21%21%2166.61%2159.41%21%402103246617315932946071478e47f7%2112000043163136494%21sea%21MX%210%21ABX&amp;curPageLogUid=I2grsjio3itd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007922303520.html?algo_pvid=273b6de3-0009-4fff-ade6-d7332a46b9f8&amp;algo_exp_id=273b6de3-0009-4fff-ade6-d7332a46b9f8-9&amp;pdp_npi=4%40dis%21MXN%21331.84%21146.01%21%21%21115.00%2150.60%21%402101c5a417316988115016543eaa17%2112000042857212770%21sea%21MX%210%21ABX&amp;curPageLogUid=CbMszaidpEfg&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MX$172.01</t>
+          <t>MX$146.01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Camiseta con estampado divertido de Mob Psycho para mujer, camiseta divertida de Anime, Hip Hop, manga corta, cuello redondo, Top de alta calidad</t>
+          <t>Ricks Genioso Cuero Negro Jumbo Lace Low Top Owens Calidad Hombres Zapato Mujeres Sneaker Casual Lace Up Owens Diseño botas y zapatos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007633198491.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-0&amp;pdp_npi=4%40dis%21MXN%21220.25%21103.51%21%21%2176.07%2135.75%21%402101ea8c17315932961395783e5f0a%2112000041581304228%21sea%21MX%210%21ABX&amp;curPageLogUid=KtoB9c8PKasX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007403303561.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-0&amp;pdp_npi=4%40dis%21MXN%213120.78%211944.52%21%21%211081.50%21673.87%21%402101f04d17316988129364424e037a%2112000040597988318%21sea%21MX%210%21ABX&amp;curPageLogUid=SL5sAkSJKTvV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MX$103.51</t>
+          <t>MX$1,944.52</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Anime Horror Jujutsu Kaisen Fushiguro Toji camiseta negra de manga corta, todas las tallas</t>
+          <t>Zapatos Retro de cuero para hombre, mocasines transpirables de marca de negocios, informales, a la moda, color negro y marrón, 2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007492422254.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-1&amp;pdp_npi=4%40dis%21MXN%21186.72%2120.77%21%21%2164.49%217.17%21%402101ea8c17315932961395783e5f0a%2112000041008477031%21sea%21MX%210%21ABX&amp;curPageLogUid=804o5muv6yq6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006412116677.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-1&amp;pdp_npi=4%40dis%21MXN%21388.63%21182.66%21%21%21134.68%2163.30%21%402101f04d17316988129364424e037a%2112000037071827580%21sea%21MX%210%21ABX&amp;curPageLogUid=BqgamFgtJRz7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$182.66</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Camiseta de Manga corta para hombre, camisa divertida de anime, bleach Gotei 13, Kyoraku, Shunsui, Ichimaru, Gin, Unisex</t>
+          <t>Botas hasta la rodilla elásticas de ante sintético para Mujer, botines hasta el muslo con cremallera y cordones, color negro, otoño</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005261254949.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-2&amp;pdp_npi=4%40dis%21MXN%21171.17%2120.77%21%21%218.16%210.99%21%402101ea8c17315932961395783e5f0a%2112000032398599639%21sea%21MX%210%21ABX&amp;curPageLogUid=tAr32Nba02kY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007498736113.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-2&amp;pdp_npi=4%40dis%21MXN%21480.68%2161.26%21%21%21166.58%2121.23%21%402101f04d17316988129364424e037a%2112000041032845550%21sea%21MX%210%21ABX&amp;curPageLogUid=h60wc3Wvj5dx&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$61.26</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Camisetas de Anime con estampado 3D Oshi No Ko para mujer, ropa de calle informal, camiseta de manga corta, camisetas de cuello redondo para niños, ropa</t>
+          <t>Zapatos de tacón de aguja con hebilla en el tobillo Para mujer, puntiagudos, cremallera lateral, elegante, fiesta, Primavera</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006249309304.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;aem_p4p_detail=20241114060816510564306154140000141801&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-3&amp;pdp_npi=4%40dis%21MXN%21132.70%2120.77%21%21%2145.83%217.17%21%402101ea8c17315932961395783e5f0a%2112000036465066234%21sea%21MX%210%21ABX&amp;curPageLogUid=HoYBCHPUNjUv&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060816510564306154140000141801_1</t>
+          <t>https://es.aliexpress.com/item/1005006761261981.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;aem_p4p_detail=20241115112653336594607035120000919355&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-3&amp;pdp_npi=4%40dis%21MXN%213549.29%211774.65%21%21%211230.00%21615.00%21%402101f04d17316988129364424e037a%2112000038216055957%21sea%21MX%210%21ABX&amp;curPageLogUid=uOCU7ATZcOLw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241115112653336594607035120000919355_1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,774.65</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Attack On Titan para hombre y mujer, ropa de calle informal Harajuku, Hip Hop, transpirable, de verano</t>
+          <t>Adidas Originals SAMBA OG Parte superior suave para una sensación fácil del pie, zapatos bajos para hombres y mujeres en negro, blanco y gris</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007092599108.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-4&amp;pdp_npi=4%40dis%21MXN%21104.38%2120.77%21%21%2136.05%217.17%21%402101ea8c17315932961395783e5f0a%2112000039375892284%21sea%21MX%210%21ABX&amp;curPageLogUid=P97ZIyizDGO9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007939489797.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-4&amp;pdp_npi=4%40dis%21MXN%211237.92%21841.35%21%21%21429.00%21291.57%21%402101f04d17316988129364424e037a%2112000042944752375%21sea%21MX%210%21ABX&amp;curPageLogUid=VaoIpcaZCH4M&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$841.35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Camiseta Tokio Hotel para mujer, camiseta de anime para mujer, ropa japonesa de anime de los años 2000</t>
+          <t>Nike-zapatillas Air Force 1 originales para hombre y mujer, zapatos deportivos informales, clásicos, a la moda, para tabla al aire libre, Af1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005967575926.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-5&amp;pdp_npi=4%40dis%21MXN%2165.03%2120.77%21%21%213.10%210.99%21%402101ea8c17315932961395783e5f0a%2112000035094063365%21sea%21MX%210%21ABX&amp;curPageLogUid=BWBxjRH2a66b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007656553919.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-5&amp;pdp_npi=4%40dis%21MXN%213108.66%21827.86%21%21%211077.30%21286.89%21%402101f04d17316988129364424e037a%2112000041677328222%21sea%21MX%210%21ABX&amp;curPageLogUid=EzjaVcPTfYEc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$827.86</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Valorant para hombre, de alta calidad Camisa de algodón, talla europea, ropa de calle de dibujos animados Unisex, camiseta estampada Vintage</t>
+          <t>Nuevos zapatos deportivos de plataforma a la moda para mujer, zapatillas gruesas informales negras de verano 20224, zapatos de plataforma de cuero de malla para mujer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005147498403.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-6&amp;pdp_npi=4%40dis%21MXN%21265.77%2120.77%21%21%2112.67%210.99%21%402101ea8c17315932961395783e5f0a%2112000031855867572%21sea%21MX%210%21ABX&amp;curPageLogUid=Wkwhyuah394P&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007640966457.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-6&amp;pdp_npi=4%40dis%21MXN%21233.73%2120.69%21%21%2181.00%217.17%21%402101f04d17316988129364424e037a%2112000041611240664%21sea%21MX%210%21ABX&amp;curPageLogUid=0vImQVrIJECB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Polo informal con botones para hombre, Camiseta con estampado completo de máscara japonesa samurái, Polo gráfico de manga corta, camiseta de talla grande</t>
+          <t>Cresfimix-Botas de tacón alto para mujer, botines cómodos de color azul, clásicos, a la moda, para otoño e invierno, A9205</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007475874556.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;aem_p4p_detail=20241114060816510564306154140000141801&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-7&amp;pdp_npi=4%40dis%21MXN%21226.13%2174.68%21%21%2110.78%213.56%21%402101ea8c17315932961395783e5f0a%2112000040906218023%21sea%21MX%210%21ABX&amp;curPageLogUid=raKAXr1r0P0x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060816510564306154140000141801_2</t>
+          <t>https://es.aliexpress.com/item/1005003193810117.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;aem_p4p_detail=20241115112653336594607035120000919355&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-7&amp;pdp_npi=4%40dis%21MXN%21309.24%21173.42%21%21%2114.80%218.30%21%402101f04d17316988129364424e037a%2112000042426585750%21sea%21MX%210%21ABX&amp;curPageLogUid=mYDyyLJHj4oy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241115112653336594607035120000919355_2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MX$74.68</t>
+          <t>MX$173.42</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Camisas de compresión de manga larga para hombre, camiseta de Cosplay de Comics Spider, Top de superhéroe, ropa deportiva elástica para Fitness, ropa de Halloween</t>
+          <t>Zapatos de hombre, zapatos de skate para hombre, zapatillas clásicas para hombre, zapatos negros, Calzado cómodo para hombre</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007517179777.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-8&amp;pdp_npi=4%40dis%21MXN%21222.05%2120.77%21%21%2176.69%217.17%21%402101ea8c17315932961395783e5f0a%2112000041099132633%21sea%21MX%210%21ABX&amp;curPageLogUid=q04BBvTaP8iw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006437053401.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-8&amp;pdp_npi=4%40dis%21MXN%21645.74%21174.12%21%21%21223.78%2160.34%21%402101f04d17316988129364424e037a%2112000037162998226%21sea%21MX%210%21ABX&amp;curPageLogUid=qLNSoMorGK7e&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$174.12</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Camiseta de compresión de Anime para hombre, ropa interior deportiva de secado rápido, ajustada, para gimnasio, verano, 2023</t>
+          <t>Zapatos informales de cuero para hombre, zapatillas de deporte masculinas de negocios, mocasines cómodos sin cordones, Tenis masculinos, gran oferta, 2023</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007298798529.html?algo_pvid=6bafa5c8-aa64-47cf-a224-a476daded0f1&amp;algo_exp_id=6bafa5c8-aa64-47cf-a224-a476daded0f1-9&amp;pdp_npi=4%40dis%21MXN%21192.40%2171.20%21%21%2166.45%2124.59%21%402101ea8c17315932961395783e5f0a%2112000040110422636%21sea%21MX%210%21ABX&amp;curPageLogUid=rhC5Fg3Vka5v&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006084003429.html?algo_pvid=060c1218-2d0a-40ac-8106-33af345e00cb&amp;algo_exp_id=060c1218-2d0a-40ac-8106-33af345e00cb-9&amp;pdp_npi=4%40dis%21MXN%21628.31%21266.41%21%21%2130.07%2112.75%21%402101f04d17316988129364424e037a%2112000035655539000%21sea%21MX%210%21ABX&amp;curPageLogUid=VbELcaUfhrZ3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MX$71.2</t>
+          <t>MX$266.41</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Camisa con estampado Hentai de Anime, Camiseta estampada de última moda de verano, camiseta de moda urbana, Camiseta 100% de algodón de gran tamaño</t>
+          <t>Zapatillas de deporte de cuero PU para hombre, zapatos informales transpirables para hombre, cuñas de llegada, zapatos vulcanizados para hombre, zapatos antideslizantes para tablero masculino, Кроссоkus</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007423656769.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-0&amp;pdp_npi=4%40dis%21MXN%21339.37%21141.50%21%21%21117.21%2148.87%21%402101e9a217315932976676643e4863%2112000040699809098%21sea%21MX%210%21ABX&amp;curPageLogUid=LLSm9hMTWKKu&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007952517744.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-0&amp;pdp_npi=4%40dis%21MXN%21716.21%21164.98%21%21%21248.20%2157.17%21%402101e9ec17316988142637181e65a9%2112000043004418503%21sea%21MX%210%21ABX&amp;curPageLogUid=vmETXqRkc9xv&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MX$141.5</t>
+          <t>MX$164.98</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Camiseta gráfica para amantes del Anime, ropa de algodón de todos los tamaños, Thorn Princes Yor Forger</t>
+          <t>Zapatillas Converse Run Star para hombre y mujer, zapatos informales de piel de ante, cómodas zapatillas antideslizantes para deportes al aire libre y monopatín</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007791807080.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-1&amp;pdp_npi=4%40dis%21MXN%21194.57%21175.37%21%21%2167.20%2160.57%21%402101e9a217315932976676643e4863%2112000042215806602%21sea%21MX%210%21ABX&amp;curPageLogUid=zSuteafVATGD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007952313831.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-1&amp;pdp_npi=4%40dis%21MXN%211221.50%21888.03%21%21%21423.31%21307.75%21%402101e9ec17316988142637181e65a9%2112000043003878433%21sea%21MX%210%21ABX&amp;curPageLogUid=2TQxWuECfOIF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MX$175.37</t>
+          <t>MX$888.03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con estampado 3D de Anime Demon Slayer, Kimetsu no Yaiba, Kamado, Nezuko, Kochou, Shinobu</t>
+          <t>Rick-zapatos informales de tela para hombre, zapatillas de suela gruesa con cordones, de calidad, hechas a mano, de diseñador, color negro, novedad</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005877867635.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-2&amp;pdp_npi=4%40dis%21MXN%21100.30%2120.77%21%21%2134.64%217.17%21%402101e9a217315932976676643e4863%2112000034675027377%21sea%21MX%210%21ABX&amp;curPageLogUid=DMpCHiyMtcVF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005584204464.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-2&amp;pdp_npi=4%40dis%21MXN%212404.28%211361.13%21%21%21833.20%21471.70%21%402101e9ec17316988142637181e65a9%2112000040731312550%21sea%21MX%210%21ABX&amp;curPageLogUid=lZhjx2whpF1K&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,361.13</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Demon Slayer Anime japonés Manga frinend gráfico divertido dibujos animados Harajuku verano manga corta simple Tops camisetas</t>
+          <t>Nuevos tacones altos puntiagudos para mujer con temperamento sexy y color nude versátil, charol, zapatos individuales negros para mujer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007432712192.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;aem_p4p_detail=2024111406081715762603329496450000139925&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-3&amp;pdp_npi=4%40dis%21MXN%21196.02%2168.59%21%21%2167.70%2123.69%21%402101e9a217315932976676643e4863%2112000040732664747%21sea%21MX%210%21ABX&amp;curPageLogUid=XMUaiUYyGYYH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081715762603329496450000139925_1</t>
+          <t>https://es.aliexpress.com/item/1005008012689372.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;aem_p4p_detail=202411151126542974046951777220000922775&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-3&amp;pdp_npi=4%40dis%21MXN%213748.39%21674.71%21%21%211299.00%21233.82%21%402101e9ec17316988142637181e65a9%2112000043248225372%21sea%21MX%210%21ABX&amp;curPageLogUid=6sMPoVbeSBpQ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126542974046951777220000922775_1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MX$68.59</t>
+          <t>MX$674.71</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de All Might My Hero Academia para hombre y mujer, ropa informal de gran tamaño con dibujos animados de Anime, novedad de 2024</t>
+          <t>Zapatos de plataforma con tacón y cordones para hombre y mujer, zapatillas de deporte Unisex, estilo Punk, Rock negro, decoración de Metal, estilo gótico, 2024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007888916715.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-4&amp;pdp_npi=4%40dis%21MXN%21144.77%2147.42%21%21%2150.00%2116.38%21%402101e9a217315932976676643e4863%2112000042732749325%21sea%21MX%210%21ABX&amp;curPageLogUid=3MPuNtluNxdL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007823297538.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-4&amp;pdp_npi=4%40dis%21MXN%211209.07%21606.18%21%21%21419.00%21210.07%21%402101e9ec17316988142637181e65a9%2112000042335138348%21sea%21MX%210%21ABX&amp;curPageLogUid=MLzwmC2fXjiN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MX$47.42</t>
+          <t>MX$606.18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jersey patrón de fútbol sala Vl Replika Blue Lock Anime Bastard Munich verano hombres y mujeres 3dt camisa Casual deportes camiseta Top</t>
+          <t>Zapatos minimalistas anchos para hombres y mujeres, zapatillas de deporte de moda, entrenadores cruzados, zapatos ligeros para caminar, zapatos casuales para correr</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007763920041.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-5&amp;pdp_npi=4%40dis%21MXN%21124.01%21112.43%21%21%2142.83%2138.83%21%402101e9a217315932976676643e4863%2112000042126377265%21sea%21MX%210%21ABX&amp;curPageLogUid=xIkMYBSZz54Y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007162512343.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-5&amp;pdp_npi=4%40dis%21MXN%21450.15%21225.07%21%21%21156.00%2178.00%21%402101e9ec17316988142637181e65a9%2112000039660156310%21sea%21MX%210%21ABX&amp;curPageLogUid=fn9CPwZ7R2tw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MX$112.43</t>
+          <t>MX$225.07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Camisetas de dibujos animados de Hello Kitty para hombre, ropa de algodón, ropa de calle de playa, camiseta de manga corta con cuello redondo, camiseta con estampado Hippie de talla grande</t>
+          <t>Adidas Originals-zapatillas de Skate Spezial para hombre y mujer, calzado deportivo de ante Spzl, para tabla de Skate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007946475241.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-6&amp;pdp_npi=4%40dis%21MXN%21202.68%2195.26%21%21%2170.00%2132.90%21%402101e9a217315932976676643e4863%2112000042971000198%21sea%21MX%210%21ABX&amp;curPageLogUid=TmIATVLHtNQy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007453586187.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-6&amp;pdp_npi=4%40dis%21MXN%212077.55%21965.03%21%21%21719.97%21334.43%21%402101e9ec17316988142637181e65a9%2112000040822483182%21sea%21MX%210%21ABX&amp;curPageLogUid=SSNo1okob7ZK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MX$95.26</t>
+          <t>MX$965.03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AKIRA-Camiseta de manga larga Y2K para hombre y mujer, camisa gótica Vintage de gran tamaño, Hip Hop, primavera y otoño, nueva</t>
+          <t>New European and American 12cm sexy black super high heels, side empty fish mouth sandals, fine order shoes 33-46</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007639611405.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;aem_p4p_detail=2024111406081715762603329496450000139925&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-7&amp;pdp_npi=4%40dis%21MXN%21202.39%21202.39%21%21%2169.90%2169.90%21%402101e9a217315932976676643e4863%2112000041605516999%21sea%21MX%210%21ABX&amp;curPageLogUid=rxPBbOXcaYrd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406081715762603329496450000139925_2</t>
+          <t>https://es.aliexpress.com/item/1005008050819679.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;aem_p4p_detail=202411151126542974046951777220000922775&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-7&amp;pdp_npi=4%40dis%21MXN%213748.39%21787.16%21%21%211299.00%21272.79%21%402101e9ec17316988142637181e65a9%2112000043445272494%21sea%21MX%210%21ABX&amp;curPageLogUid=LkLRqXCtrZEo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126542974046951777220000922775_2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MX$202.39</t>
+          <t>MX$787.16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Calcifer-Camiseta harajuku de diseñador para mujer, ropa de manga japonesa, top de verano</t>
+          <t>Adidas Originals-Zapatillas deportivas para hombre y mujer, calzado sencillo y a la moda, para monopatín, Campus 00S</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007407258330.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-8&amp;pdp_npi=4%40dis%21MXN%21108.24%2120.77%21%21%215.16%210.99%21%402101e9a217315932976676643e4863%2112000040618429632%21sea%21MX%210%21ABX&amp;curPageLogUid=k7RnsfFqlUzT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007487423075.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-8&amp;pdp_npi=4%40dis%21MXN%211355.31%21953.52%21%21%21469.68%21330.44%21%402101e9ec17316988142637181e65a9%2112000040974761386%21sea%21MX%210%21ABX&amp;curPageLogUid=hVAAIa7Noum8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$953.52</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>(Miniso) camiseta de Anime de una pieza para hombre y mujer, Camiseta estampada de Tony Chopper, Camiseta deportiva de ocio, ropa de calle para hombre y mujer</t>
+          <t>Nike Air Force 1 hombres mujer zapatos de skate moda negro blanco cómodo af1 zapatillas casuales zapatillas deportivas planas al aire libre</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007790651328.html?algo_pvid=4221f32a-ba19-4cea-b4ff-d9faee73fca3&amp;algo_exp_id=4221f32a-ba19-4cea-b4ff-d9faee73fca3-9&amp;pdp_npi=4%40dis%21MXN%21328.34%2120.77%21%21%21113.40%217.17%21%402101e9a217315932976676643e4863%2112000042212651609%21sea%21MX%210%21ABX&amp;curPageLogUid=4fq7sFHMWIVN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007745242240.html?algo_pvid=30d97ed1-a893-4849-a563-b6a959ba4958&amp;algo_exp_id=30d97ed1-a893-4849-a563-b6a959ba4958-9&amp;pdp_npi=4%40dis%21MXN%213404.72%21811.24%21%21%211179.90%21281.13%21%402101e9ec17316988142637181e65a9%2112000042068699436%21sea%21MX%210%21ABX&amp;curPageLogUid=Kp0xLVmdPa5K&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$811.24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de gato para mujer, ropa de calle Y2K, harajuku japonés, ropa de anime</t>
+          <t>Zapatos informales para mujer, Tenis blancos, transpirables, ligeros, deportivos, suela de Eva, parte superior de goma, temporada de verano, 2024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007584796794.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-0&amp;pdp_npi=4%40dis%21MXN%2195.86%2120.77%21%21%214.57%210.99%21%402101e9a217315932990056672e4863%2112000041393337563%21sea%21MX%210%21ABX&amp;curPageLogUid=2Xtc8qCZrqk7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007536762196.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-0&amp;pdp_npi=4%40dis%21MXN%21702.90%21302.35%21%21%2133.64%2114.47%21%402101c5a717316988157612118e018a%2112000041198895137%21sea%21MX%210%21ABX&amp;curPageLogUid=72Jlhc2sJHEN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$302.35</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BUNS OF STEEL Rabbit Camiseta de manga corta para hombre, camisa informal de gran tamaño para Fitness, gimnasio, culturismo, rata, cuello redondo</t>
+          <t>Adidas SUPERSTAR XLG W Zapatos de tabla bajos versátiles, cómodos, que absorben los golpes, resistentes al desgaste para mujer, blanco y negro</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006676393702.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-1&amp;pdp_npi=4%40dis%21MXN%21301.32%2120.77%21%21%21104.07%217.18%21%402101e9a217315932990056672e4863%2112000037988716867%21sea%21MX%210%21ABX&amp;curPageLogUid=PG4ROZMA7OpE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008025318084.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-1&amp;pdp_npi=4%40dis%21MXN%211324.49%211019.86%21%21%21459.00%21353.43%21%402101c5a717316988157612118e018a%2112000043301469577%21sea%21MX%210%21ABX&amp;curPageLogUid=nRSkH1tTnL1U&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,019.86</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta informal con estampado de Anime en 3D para hombre, ropa para el hogar, camisetas de manga corta de verano de alta calidad, novedad de 2024</t>
+          <t>Mocasines para Hombre, Zapatos informales, zapatillas de deporte para Hombre con cordones Oxford, Zapatos de seguridad para tabla para correr al aire libre, Zapatos Altos para Hombre, zapatillas informales para Hombre</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007634859604.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-2&amp;pdp_npi=4%40dis%21MXN%21109.65%21103.77%21%21%2137.87%2135.84%21%402101e9a217315932990056672e4863%2112000041587663147%21sea%21MX%210%21ABX&amp;curPageLogUid=pQwLg6LJBnZ7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006792620427.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-2&amp;pdp_npi=4%40dis%21MXN%21227.44%2120.69%21%21%2178.82%217.17%21%402101c5a717316988157612118e018a%2112000038320435101%21sea%21MX%210%21ABX&amp;curPageLogUid=1QTZ4uIyHls6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MX$103.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Anime para niños, camiseta de manga corta, Kit Harajuku bonito, Top de verano</t>
+          <t>Nuevo estilo Wasteland de alta calidad Vintage y2k botas hasta la rodilla desmontables barril Maillard pantalón bota de pierna zapatos negros para mujer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006967954782.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;aem_p4p_detail=202411140608191411160037114280000127857&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-3&amp;pdp_npi=4%40dis%21MXN%21192.77%2120.77%21%21%219.19%210.99%21%402101e9a217315932990056672e4863%2112000038888051154%21sea%21MX%210%21ABX&amp;curPageLogUid=Sw59iVI8DXKj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608191411160037114280000127857_1</t>
+          <t>https://es.aliexpress.com/item/1005007288182326.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;aem_p4p_detail=2024111511265511594483759926560000933809&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-3&amp;pdp_npi=4%40dis%21MXN%211038.24%21383.30%21%21%21359.80%21132.83%21%402101c5a717316988157612118e018a%2112000040078827454%21sea%21MX%210%21ABX&amp;curPageLogUid=OZaeGhYU66mO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111511265511594483759926560000933809_1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$383.3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Camiseta con patrón de samurái, Tops informales a la moda, camiseta para hombre, ropa de manga corta, blusa holgada de verano de estilo japonés de Anime 3d 2024</t>
+          <t>Zapatos planos informales para hombre y mujer, mocasines de lujo con rayas blancas, borde negro y rojo, zapatillas de boda para parejas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007967936120.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-4&amp;pdp_npi=4%40dis%21MXN%2171.32%2121.40%21%21%213.40%211.02%21%402101e9a217315932990056672e4863%2112000043113160335%21sea%21MX%210%21ABX&amp;curPageLogUid=uMzMwcZkOhv0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007221534679.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-4&amp;pdp_npi=4%40dis%21MXN%211673.65%211673.65%21%21%21580.00%21580.00%21%402101c5a717316988157612118e018a%2112000039864503883%21sea%21MX%210%21ABX&amp;curPageLogUid=sNnOyUFlhRo4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MX$21.4</t>
+          <t>MX$1,673.65</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jujutsu Kaisen Camisetas estampadas Kawaii para mujer, Tops Kawaii de verano, camiseta de dibujos animados Harajuku, camiseta de Anime japonés Ulzzang para mujer</t>
+          <t>Zapatos casuales de cuero genuino para hombres, zapatillas de tenis antideslizantes, resistentes al desgaste, Oxford, negocios, oficina, marca de lujo, negro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006360285410.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-5&amp;pdp_npi=4%40dis%21MXN%2195.23%2120.77%21%21%214.54%210.99%21%402101e9a217315932990056672e4863%2112000036890162429%21sea%21MX%210%21ABX&amp;curPageLogUid=EEioctaEFOQZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007459101219.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-5&amp;pdp_npi=4%40dis%21MXN%211313.66%21564.79%21%21%2162.87%2127.03%21%402101c5a717316988157612118e018a%2112000040841443095%21sea%21MX%210%21ABX&amp;curPageLogUid=KSKccue7FwqU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$564.79</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Camisetas con estampado 3D de Anime para hombres y mujeres, camiseta de manga corta de gran tamaño, a la moda ropa de calle, camisetas con cerradura azul</t>
+          <t>Botas de cuero negro para hombre, botas de trabajo de alta moda de estilo nuevo británico, moda urbana para exteriores, zapatos Chelsea para hombre, cómodos y cortos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007336257349.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-6&amp;pdp_npi=4%40dis%21MXN%21127.08%2120.77%21%21%2143.89%217.17%21%402101e9a217315932990056672e4863%2112000041623243714%21sea%21MX%210%21ABX&amp;curPageLogUid=AZjd2LAVcOJF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007559861937.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-6&amp;pdp_npi=4%40dis%21MXN%211088.88%21310.61%21%21%21377.35%21107.64%21%402101c5a717316988157612118e018a%2112000041295233800%21sea%21MX%210%21ABX&amp;curPageLogUid=Mm2qjgJxDGIW&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$310.61</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Camisas Henley con estampado 3D para hombre, camisa de manga larga con botones, Estilo Vintage, ropa de primavera y otoño</t>
+          <t>Zapatos de mujer de diseñador de alta calidad, zapatos Retro sin cordones de un pie con borlas Lefu, zapatos planos individuales suaves, simples y versátiles de cuero</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006847884971.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;aem_p4p_detail=202411140608191411160037114280000127857&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-7&amp;pdp_npi=4%40dis%21MXN%21198.33%2189.23%21%21%2168.50%2130.82%21%402101e9a217315932990056672e4863%2112000038505835761%21sea%21MX%210%21ABX&amp;curPageLogUid=Op8VhCT9usi8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608191411160037114280000127857_2</t>
+          <t>https://es.aliexpress.com/item/1005008007393898.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;aem_p4p_detail=2024111511265511594483759926560000933809&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-7&amp;pdp_npi=4%40dis%21MXN%214524.62%211402.63%21%21%211568.00%21486.08%21%402101c5a717316988157612118e018a%2112000043238272967%21sea%21MX%210%21ABX&amp;curPageLogUid=PtpzEFRwItPV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111511265511594483759926560000933809_2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MX$89.23</t>
+          <t>MX$1,402.63</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Camiseta para hombre, camiseta Y2k de otoño, ropa de calle, camiseta de Anime de manga larga de gran tamaño, camisetas de Manga con gráfico Vintage gótico Harajuku</t>
+          <t>Botas altas de invierno para mujer, zapatos de tacón alto, botines cálidos sexis a la moda para mujer, zapatos de tacón de diseñador, botines para mujer</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004003413878.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-8&amp;pdp_npi=4%40dis%21MXN%21159.00%2120.77%21%21%217.58%210.99%21%402101e9a217315932990056672e4863%2112000027708210844%21sea%21MX%210%21ABX&amp;curPageLogUid=a1k23t0O1Kxr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007622358938.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-8&amp;pdp_npi=4%40dis%21MXN%21236.85%2120.69%21%21%2182.08%217.17%21%402101c5a717316988157612118e018a%2112000041539025714%21sea%21MX%210%21ABX&amp;curPageLogUid=xaNaqMUYSyaO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Camiseta de Cosplay de Anime Haikyuu para hombre, uniforme de voleibol Karasuno, Hinata, Shoyo, Kageyama, Tobio, ropa divertida para niño</t>
+          <t>Adidas originals Gazelle Indoor, zapatos de tabla informales de corte bajo, unisex</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007318139683.html?algo_pvid=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c&amp;algo_exp_id=c4cec0f5-43b0-46aa-9d18-5141bd9dee3c-9&amp;pdp_npi=4%40dis%21MXN%21303.24%2120.77%21%21%21104.73%217.17%21%402101e9a217315932990056672e4863%2112000040486511134%21sea%21MX%210%21ABX&amp;curPageLogUid=zdxe4XT0HtGT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007605431240.html?algo_pvid=f0a528e3-8050-41ca-8177-534dc9f16ace&amp;algo_exp_id=f0a528e3-8050-41ca-8177-534dc9f16ace-9&amp;pdp_npi=4%40dis%21MXN%213389.92%21953.59%21%21%211174.77%21330.47%21%402101c5a717316988157612118e018a%2112000041478595570%21sea%21MX%210%21ABX&amp;curPageLogUid=nHlOUevtnIXt&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$953.59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Camiseta de compresión con estampado de Anime para hombre, ropa interior elástica de secado rápido para gimnasio, Verano</t>
+          <t>Zapatos informales de marca de lujo para hombre, mocasines formales sin cordones, italianos, negros, para conducir, 2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007852640448.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-0&amp;pdp_npi=4%40dis%21MXN%21173.72%2120.77%21%21%2160.00%217.17%21%402101c80217315933005146131e4bb8%2112000042545596002%21sea%21MX%210%21ABX&amp;curPageLogUid=GTpkvHWbIdpN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005894392643.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-0&amp;pdp_npi=4%40dis%21MXN%21160.32%2120.69%21%21%2155.56%217.17%21%402101c59117316988169551090ea3b8%2112000034744940412%21sea%21MX%210%21ABX&amp;curPageLogUid=e05h3w99F35g&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Camiseta de animación clásica Mazinger Z para hombres y mujeres, ropa de calle de manga corta con estampado 3D de Robot de Anime, Tops Harajuku para niños, nueva gran oferta</t>
+          <t>Zapatos informales de cuero para hombre, zapatillas de deporte de alta calidad, botines de plataforma, color negro, novedad de 2023</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007099140884.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-1&amp;pdp_npi=4%40dis%21MXN%21149.11%2120.77%21%21%2151.50%217.18%21%402101c80217315933005146131e4bb8%2112000039400196421%21sea%21MX%210%21ABX&amp;curPageLogUid=q3QxjyjttJul&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005763894786.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-1&amp;pdp_npi=4%40dis%21MXN%21132.26%2120.69%21%21%216.33%210.99%21%402101c59117316988169551090ea3b8%2112000034266775648%21sea%21MX%210%21ABX&amp;curPageLogUid=yXAbisWiG8d7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Camiseta gráfica del rapero Mf Doom MM FOOD Doomsday para hombres y mujeres, camiseta Vintage lavada de Hip Hop Rap, camisetas geniales de gran tamaño a la moda para hombre</t>
+          <t>Zapatos informales de cuero para hombre, zapatillas de deporte masculinas de alta calidad, con plataforma S 2023, novedad de 2023</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007492705859.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-2&amp;pdp_npi=4%40dis%21MXN%21317.34%2120.77%21%21%21109.60%217.17%21%402101c80217315933005146131e4bb8%2112000041010489755%21sea%21MX%210%21ABX&amp;curPageLogUid=zypXT3gm4wCh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006989934667.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-2&amp;pdp_npi=4%40dis%21MXN%21828.08%21389.21%21%21%21286.97%21134.88%21%402101c59117316988169551090ea3b8%2112000038966225083%21sea%21MX%210%21ABX&amp;curPageLogUid=6ywBOA3rZlZO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$389.21</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Camisa de Horror de samurái para hombre, Camisa Masculina Retro, ajustada, con estampado japonés, informal, de gran tamaño, Estilo Hawaiano</t>
+          <t>Zapatos informales para hombre, zapatillas sencillas de color blanco y negro, transpirables, a la moda, 6/8/10cm, aumento de altura Invisible, novedad de verano</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007486756903.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;aem_p4p_detail=2024111406082011798106394202400000142255&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-3&amp;pdp_npi=4%40dis%21MXN%21282.97%2193.34%21%21%2113.49%214.45%21%402101c80217315933005146131e4bb8%2112000040972484925%21sea%21MX%210%21ABX&amp;curPageLogUid=pZIgXQzrBSjL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406082011798106394202400000142255_1</t>
+          <t>https://es.aliexpress.com/item/1005005611013679.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;aem_p4p_detail=202411151126573339751997174400000958285&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-3&amp;pdp_npi=4%40dis%21MXN%211729.88%21476.19%21%21%2182.79%2122.79%21%402101c59117316988169551090ea3b8%2112000033744874100%21sea%21MX%210%21ABX&amp;curPageLogUid=aaY5X7aaHoJc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126573339751997174400000958285_1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MX$93.34</t>
+          <t>MX$476.19</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Jojo Bizarre Adventure para hombre y mujer, Tops informales de manga corta a la moda, Tops de algodón de gran tamaño, ropa de calle</t>
+          <t>Zapatillas de deporte de cuero para hombre, zapatos de elevación informales, plantilla de aumento de altura de 6CM, zapatos de Taller negros para hombre, zapatos deportivos blancos de moda</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006773862431.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-4&amp;pdp_npi=4%40dis%21MXN%21301.32%2120.77%21%21%21104.07%217.18%21%402101c80217315933005146131e4bb8%2112000038256625389%21sea%21MX%210%21ABX&amp;curPageLogUid=go8igoQFBghV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005574797200.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-4&amp;pdp_npi=4%40dis%21MXN%211418.13%21694.96%21%21%2167.87%2133.26%21%402101c59117316988169551090ea3b8%2112000033607750144%21sea%21MX%210%21ABX&amp;curPageLogUid=G6dAOr2MpTzE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$694.96</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bubu Dudu-Camiseta de anime para mujer, camisa de moda clásica gótica Retro, ropa de calle Punk, Digital, Pastel, Y2k</t>
+          <t>Zapatos informales transpirables con punta redonda para mujer, calzado de tacón bajo, Color negro y dorado, Primavera, Otoño e Invierno</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007861915806.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-5&amp;pdp_npi=4%40dis%21MXN%21101.60%21101.60%21%21%2135.09%2135.09%21%402101c80217315933005146131e4bb8%2112000042587655525%21sea%21MX%210%21ABX&amp;curPageLogUid=wluTe6M8JkLe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007347961764.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-5&amp;pdp_npi=4%40dis%21MXN%21219.28%2120.69%21%21%2175.99%217.17%21%402101c59117316988169551090ea3b8%2112000040363955703%21sea%21MX%210%21ABX&amp;curPageLogUid=5A4dqESeKi2o&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MX$101.6</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Camiseta de Johnny Depp Today I m Feeling para hombre, # P1 # o</t>
+          <t>Zapatillas de deporte para mujer, malla transpirable, gran oferta, moda de primavera, informales, cómodas, sin cordones, Color sólido, zapatos vulcanizados, 2024</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007078718214.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-6&amp;pdp_npi=4%40dis%21MXN%21188.26%21188.26%21%21%2165.02%2165.02%21%402101c80217315933005146131e4bb8%2112000039351961602%21sea%21MX%210%21ABX&amp;curPageLogUid=2WAfnTejwZXO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006908249904.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-6&amp;pdp_npi=4%40dis%21MXN%21464.15%2163.78%21%21%21160.85%2122.10%21%402101c59117316988169551090ea3b8%2112000038705877091%21sea%21MX%210%21ABX&amp;curPageLogUid=tsCgW5UN1EXp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MX$188.26</t>
+          <t>MX$63.78</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Camiseta Popular de Anime para hombres y mujeres, camisa con estampado 3D, estilo Harajuku informal, ropa de calle, Kangan Ashura</t>
+          <t>Zapatos cálidos de felpa para exteriores para mujer, botas de nieve con hebilla de cinturón de metal de estilo coreano, zapatos náuticos negros, planos informales para mujer 2023</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007591228840.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;aem_p4p_detail=2024111406082011798106394202400000142255&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-7&amp;pdp_npi=4%40dis%21MXN%21100.99%2120.77%21%21%2134.88%217.17%21%402101c80217315933005146131e4bb8%2112000041419006110%21sea%21MX%210%21ABX&amp;curPageLogUid=OkD4nt9bYqMY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=2024111406082011798106394202400000142255_2</t>
+          <t>https://es.aliexpress.com/item/1005006015764422.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;aem_p4p_detail=202411151126573339751997174400000958285&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-7&amp;pdp_npi=4%40dis%21MXN%21888.19%21351.40%21%21%21307.80%21121.78%21%402101c59117316988169551090ea3b8%2112000035334593683%21sea%21MX%210%21ABX&amp;curPageLogUid=LtukzAVcswUO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126573339751997174400000958285_2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$351.4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Top corto gótico Y2k para mujer, camiseta de Manga de los años 90, ropa recortada, ropa de calle femenina, camiseta gótica Punk Grunge, camiseta superior</t>
+          <t>Zapatos de piel auténtica para hombre, zapatillas de deporte blancas y negras, transpirables, de terciopelo, 2019 Ins</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005710808606.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-8&amp;pdp_npi=4%40dis%21MXN%2173.84%2120.77%21%21%213.52%210.99%21%402101c80217315933005146131e4bb8%2112000034085544708%21sea%21MX%210%21ABX&amp;curPageLogUid=nhtzKu9d7if1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/33056677120.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-8&amp;pdp_npi=4%40dis%21MXN%211210.44%21581.09%21%21%2157.93%2127.81%21%402101c59117316988169551090ea3b8%2167519502977%21sea%21MX%210%21ABX&amp;curPageLogUid=aTZlKT7Oud8v&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$581.09</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Camiseta de Freddie Mercury Queen Band para mujer, camiseta Vintage Harajuku Ullzang, camiseta de reina de moda, Top de Rock gráfico para mujer</t>
+          <t>Mocasines informales hechos a mano para hombre, zapatos planos transpirables para conducir, con plataforma, de negocios, de cuero genuino, sin cordones, gran oferta</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005293430931.html?algo_pvid=9d54e201-028d-4dd8-8402-79fc8a5a6970&amp;algo_exp_id=9d54e201-028d-4dd8-8402-79fc8a5a6970-9&amp;pdp_npi=4%40dis%21MXN%21113.06%21113.06%21%21%215.39%215.39%21%402101c80217315933005146131e4bb8%2112000032520360573%21sea%21MX%210%21ABX&amp;curPageLogUid=WXgZYQOiGmVI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007065122505.html?algo_pvid=5c495cdc-fb59-475d-aa87-94755863bd0c&amp;algo_exp_id=5c495cdc-fb59-475d-aa87-94755863bd0c-9&amp;pdp_npi=4%40dis%21MXN%211321.32%21390.57%21%21%21457.90%21135.35%21%402101c59117316988169551090ea3b8%2112000039289807982%21sea%21MX%210%21ABX&amp;curPageLogUid=z9ntwfoRW5TS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MX$113.06</t>
+          <t>MX$390.57</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Camiseta deportiva de manga corta con estampado de Anime para hombre, sudadera de compresión para gimnasio, chándal para correr</t>
+          <t>Zapatos de cuero cómodos informales para hombre, calzado deportivo transpirable que combina con todo, a la moda, planos para caminar al aire libre</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007739970294.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-0&amp;pdp_npi=4%40dis%21MXN%21112.34%2142.68%21%21%2138.80%2114.74%21%402101c80217315933020026190e4bb8%2112000042047705978%21sea%21MX%210%21ABX&amp;curPageLogUid=FjtImdJ0fa0w&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007221070670.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-0&amp;pdp_npi=4%40dis%21MXN%21157.47%2120.69%21%21%2154.57%217.17%21%402101c5bf17316988183496640e71d2%2112000039861686762%21sea%21MX%210%21ABX&amp;curPageLogUid=zljXHZdepIQZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MX$42.68</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Camiseta Popular de Anime japonés Demon Slayer para hombres y mujeres, camiseta de Cosplay de Kamado Tanjirou, Camiseta con estampado 3D para niños, camisetas Y2k de manga corta de verano</t>
+          <t>Zapatos informales de cuero para hombre, mocasines suaves y cómodos, planos sin cordones, para conducir, trabajo, talla grande, color negro</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007474898428.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-1&amp;pdp_npi=4%40dis%21MXN%21101.34%2120.77%21%21%2135.00%217.17%21%402101c80217315933020026190e4bb8%2112000040901920753%21sea%21MX%210%21ABX&amp;curPageLogUid=TaCpLeL8JAKP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005452310460.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-1&amp;pdp_npi=4%40dis%21MXN%21416.22%21416.22%21%21%2119.92%2119.92%21%402101c5bf17316988183496640e71d2%2112000033153368685%21sea%21MX%210%21ABX&amp;curPageLogUid=2Tn26DrqetOC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$416.22</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>(Uniqlo) Camiseta de una pieza de Anime, Camiseta estampada FRANKY, camiseta deportiva de ocio para hombres y mujeres, ropa de verano para hombres</t>
+          <t>Zapatos Derby de punta redonda para hombre, calzado de cuero con suela gruesa y altura Extra, de alta calidad, estilo británico</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007687999544.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-2&amp;pdp_npi=4%40dis%21MXN%21385.55%2120.77%21%21%21133.16%217.18%21%402101c80217315933020026190e4bb8%2112000041841587743%21sea%21MX%210%21ABX&amp;curPageLogUid=gQ4CVxaUfIZz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006153972472.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-2&amp;pdp_npi=4%40dis%21MXN%211009.43%21902.87%21%21%2148.31%2143.21%21%402101c5bf17316988183496640e71d2%2112000036011481860%21sea%21MX%210%21ABX&amp;curPageLogUid=lvt3wIStKpf6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$902.87</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Summer My Hero Academia Bakugo Katsuki Printed Fashion T shirt Men's Women's Fashion High Quality Loose T-Shirt Casual</t>
+          <t>Nueva moda Jazz Dance Sandalia de mujer Sexy tacones altos finos estilo europeo gladiador punta abierta negro zapatos de baile para mujer talla 47</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007895960981.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;aem_p4p_detail=20241114060822315023942507520000128554&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-3&amp;pdp_npi=4%40dis%21MXN%21140.98%2120.77%21%21%2148.69%217.17%21%402101c80217315933020026190e4bb8%2112000042754922772%21sea%21MX%210%21ABX&amp;curPageLogUid=w0BrsrSNhGZD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060822315023942507520000128554_1</t>
+          <t>https://es.aliexpress.com/item/32863317691.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;aem_p4p_detail=202411151126587222741305018720000966067&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-3&amp;pdp_npi=4%40dis%21MXN%211313.24%21413.34%21%21%21455.10%21143.24%21%402101c5bf17316988183496640e71d2%2112000021582342527%21sea%21MX%210%21ABX&amp;curPageLogUid=pON1ggAlK8VF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126587222741305018720000966067_1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$413.34</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sabrina-Camiseta de carpintero para mujer, camisa de anime japonés, ropa de diseñador, Y2K</t>
+          <t>PUMA-zapatos de ante para hombre y mujer, calzado ligero y versátil, cómodo, para baile</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007567665277.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-4&amp;pdp_npi=4%40dis%21MXN%2188.66%2120.77%21%21%2130.62%217.17%21%402101c80217315933020026190e4bb8%2112000041327598553%21sea%21MX%210%21ABX&amp;curPageLogUid=7bxDt6hQOJ2B&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007801040227.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-4&amp;pdp_npi=4%40dis%21MXN%213388.27%21953.07%21%21%211174.20%21330.29%21%402101c5bf17316988183496640e71d2%2112000042247645608%21sea%21MX%210%21ABX&amp;curPageLogUid=PSvplfD1NF3b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$953.07</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Camisetas de Anime Attack On Titan, camiseta Vintage de gran tamaño lavada Shingeki no Kyojin, camisetas de Manga corta de Manga Eren Mikasa Levi</t>
+          <t>Zapatillas deportivas de cuero genuino para hombre y mujer, zapatos de aumento de altura, transpirables, color blanco y negro, talla grande 6-8, 36-44</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007204867380.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-5&amp;pdp_npi=4%40dis%21MXN%21425.04%2137.92%21%21%21146.80%2113.10%21%402101c80217315933020026190e4bb8%2112000039797505031%21sea%21MX%210%21ABX&amp;curPageLogUid=lp9W2h7v9pOs&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007564164366.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-5&amp;pdp_npi=4%40dis%21MXN%21630.22%21494.40%21%21%21218.40%21171.33%21%402101c5bf17316988183496640e71d2%2112000041312901825%21sea%21MX%210%21ABX&amp;curPageLogUid=GnLFWPHAFJK8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MX$37.92</t>
+          <t>MX$494.4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Camiseta de cumpleaños de 40 años para mujer, camiseta kawaii Punk de los años 80, ropa de calle cómoda, ropa coreana</t>
+          <t>PDEP-zapatos De cuero De 6CM para hombre, Zapatillas De Deporte con elevación interior Invisible, informales, color negro, para otoño</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007864893919.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-6&amp;pdp_npi=4%40dis%21MXN%2175.54%2175.54%21%21%2126.09%2126.09%21%402101c80217315933020026190e4bb8%2112000042599067603%21sea%21MX%210%21ABX&amp;curPageLogUid=GMLU97Kwp09b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005858383657.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-6&amp;pdp_npi=4%40dis%21MXN%21569.80%21569.80%21%21%2127.27%2127.27%21%402101c5bf17316988183496640e71d2%2112000034599485321%21sea%21MX%210%21ABX&amp;curPageLogUid=qduLxr5aqp0j&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MX$75.54</t>
+          <t>MX$569.8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Camiseta de dibujos animados de Disney para mujer, Camiseta estampada de Stitch, Top corto, camisetas cortas góticas para mujer</t>
+          <t>Zapatos de tacón cuadrado de piel sintética para mujer, calzado informal, ligero, cómodo, para primavera y verano, H1173</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007379422031.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;aem_p4p_detail=20241114060822315023942507520000128554&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-7&amp;pdp_npi=4%40dis%21MXN%21108.66%2120.77%21%21%215.18%210.99%21%402101c80217315933020026190e4bb8%2112000040494569842%21sea%21MX%210%21ABX&amp;curPageLogUid=rHSc9H87sZ3S&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060822315023942507520000128554_2</t>
+          <t>https://es.aliexpress.com/item/1005006141343348.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;aem_p4p_detail=202411151126587222741305018720000966067&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-7&amp;pdp_npi=4%40dis%21MXN%21268.29%21132.47%21%21%2112.84%216.34%21%402101c5bf17316988183496640e71d2%2112000037033695504%21sea%21MX%210%21ABX&amp;curPageLogUid=mOg9m092wdlo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126587222741305018720000966067_2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$132.47</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Camisetas con estampado de camiseta de Anime Blue Lock para hombre, camiseta con estampado Unisex de dibujos animados de fútbol de Bastard Munich, camisetas deportivas de entrenamiento</t>
+          <t>Zapatos de cuero genuino para hombre, zapatillas deportivas antideslizantes de alta calidad, color negro, 45</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007566651766.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-8&amp;pdp_npi=4%40dis%21MXN%21316.32%2120.77%21%21%21109.25%217.17%21%402101c80217315933020026190e4bb8%2112000041324573761%21sea%21MX%210%21ABX&amp;curPageLogUid=we49qyGrm0IK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006208133850.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-8&amp;pdp_npi=4%40dis%21MXN%212078.50%21935.31%21%21%21720.30%21324.13%21%402101c5bf17316988183496640e71d2%2112000036284275044%21sea%21MX%210%21ABX&amp;curPageLogUid=6KgNMOAXB4wn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$935.31</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Berserk Guts camiseta de compresión para hombre, ropa interior de manga larga, ajustada, para deportes de Fitness, correr, gimnasio, cálida, para exteriores, otoño</t>
+          <t>Zapatos de traje de cuero italiano para Hombre, calzado Formal de oficina, para fiesta, Social, color negro, 2023</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007603549672.html?algo_pvid=bf01880a-b1c7-4051-b994-350528b46594&amp;algo_exp_id=bf01880a-b1c7-4051-b994-350528b46594-9&amp;pdp_npi=4%40dis%21MXN%21159.88%21159.88%21%21%2155.22%2155.22%21%402101c80217315933020026190e4bb8%2112000041474624467%21sea%21MX%210%21ABX&amp;curPageLogUid=fOJji3klT4qe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005403094991.html?algo_pvid=5737eb54-917d-42ea-9b31-658a364e682b&amp;algo_exp_id=5737eb54-917d-42ea-9b31-658a364e682b-9&amp;pdp_npi=4%40dis%21MXN%21258.05%21219.39%21%21%2112.35%2110.50%21%402101c5bf17316988183496640e71d2%2112000032917926864%21sea%21MX%210%21ABX&amp;curPageLogUid=qQOQWkJkAiin&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MX$159.88</t>
+          <t>MX$219.39</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta de Anime Berserk Guts para hombre, ropa Rashgard, camiseta de culturismo de segunda piel, Camisa ajustada de compresión de secado rápido</t>
+          <t>Botas hasta la rodilla con estampado de llama en blanco y negro para mujer, zapatos de tacón de bloque, sin cordones, vaquero, Vintage, clásico, informal</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006498171753.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-0&amp;pdp_npi=4%40dis%21MXN%21334.13%2120.77%21%21%21115.40%217.17%21%402103246617315933034901671e47f7%2112000037422621434%21sea%21MX%210%21ABX&amp;curPageLogUid=cUc62k0j61bF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005989736226.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-0&amp;pdp_npi=4%40dis%21MXN%213651.37%211825.58%21%21%21174.75%2187.37%21%402101c5bf17316988195226701e71d2%2112000036634394415%21sea%21MX%210%21ABX&amp;curPageLogUid=CQBWUw5olOMj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,825.58</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Camiseta Harajuku con estampado de Ojos de Anime para mujer, camiseta Y2K, camiseta de verano Berserk Guts, ropa de moda, Tops de manga corta</t>
+          <t>Zapatos deportivos de marca para mujer, zapatillas informales impermeables de cuero PU, calzado deportivo para exteriores, Zapatos para Estudiantes, color negro, talla 41</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004937966827.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-1&amp;pdp_npi=4%40dis%21MXN%21215.22%2120.77%21%21%2110.26%210.99%21%402103246617315933034901671e47f7%2112000031084113751%21sea%21MX%210%21ABX&amp;curPageLogUid=quOpQRVX0Igs&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007301293500.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-1&amp;pdp_npi=4%40dis%21MXN%21669.46%21150.43%21%21%21232.00%2152.13%21%402101c5bf17316988195226701e71d2%2112000040121912721%21sea%21MX%210%21ABX&amp;curPageLogUid=nVQDDK5YERGR&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$150.43</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Camiseta de Manga corta con estampado de Initial D Drift Car Akagi RedSuns, camisa de Anime AE86, JDM, Tops de Takumi Fujiwara</t>
+          <t>Zapatillas de deporte de cuero PU para hombre, zapatos informales transpirables con cuñas, vulcanizados, antideslizantes, para tablero</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006628049823.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-2&amp;pdp_npi=4%40dis%21MXN%21127.51%2120.77%21%21%2144.04%217.17%21%402103246617315933034901671e47f7%2112000037865985787%21sea%21MX%210%21ABX&amp;curPageLogUid=0jKtE3ydsLEr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006322466241.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-2&amp;pdp_npi=4%40dis%21MXN%21145.15%2120.69%21%21%2150.30%217.17%21%402101c5bf17316988195226701e71d2%2112000036756968705%21sea%21MX%210%21ABX&amp;curPageLogUid=cPRgzmW7ZJMN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Anime para hombre, ropa de calle informal de manga corta con cuello redondo, Harajuku, Hip Hop, 2024</t>
+          <t>Zapatos de baile latino negro para mujer, botas de suela blanda para baile de Jazz, Salsa moderna, fiesta de salón, 2024</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007324853704.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;aem_p4p_detail=20241114060823599215027961880000145078&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-3&amp;pdp_npi=4%40dis%21MXN%21173.72%2152.11%21%21%2160.00%2118.00%21%402103246617315933034901671e47f7%2112000040267254239%21sea%21MX%210%21ABX&amp;curPageLogUid=uV6sCeWTYIHA&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060823599215027961880000145078_1</t>
+          <t>https://es.aliexpress.com/item/1005007339730341.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;aem_p4p_detail=202411151126593574708266827150000908289&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-3&amp;pdp_npi=4%40dis%21MXN%211393.74%21752.62%21%21%21483.00%21260.82%21%402101c5bf17316988195226701e71d2%2112000040330606368%21sea%21MX%210%21ABX&amp;curPageLogUid=2YmeLJlnhrhi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126593574708266827150000908289_1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MX$52.11</t>
+          <t>MX$752.62</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Camisetas de algodón con estampado de coche para hombre y mujer, ropa de calle de manga corta con estampado de Anime japonés, S-4XL, Envío Gratis</t>
+          <t>Zapatillas de deporte auténticas de piel de cocodrilo con bordado de dragón para hombre, zapatos planos con cordones de cuero genuino de Color negro y azul de diseñador de retazos para hombre</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007047576563.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-4&amp;pdp_npi=4%40dis%21MXN%21301.76%2120.77%21%21%21104.22%217.17%21%402103246617315933034901671e47f7%2112000039216169553%21sea%21MX%210%21ABX&amp;curPageLogUid=0TOUBhNPCCTX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007027391661.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-4&amp;pdp_npi=4%40dis%21MXN%216059.07%213574.89%21%21%21289.98%21171.09%21%402101c5bf17316988195226701e71d2%2112000039140432654%21sea%21MX%210%21ABX&amp;curPageLogUid=y0qfTjTS9Vcx&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$3,574.89</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de personaje de Anime japonés en 3D para hombre, camisa informal de tendencia callejera, Tops holgados de manga corta de gran tamaño, novedad de verano</t>
+          <t>Zapatillas de deporte informales para hombre y mujer, zapatos de marca de diseñador, de alta calidad, color negro 35-46, 2024</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007430974490.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-5&amp;pdp_npi=4%40dis%21MXN%21106.84%21106.84%21%21%2136.90%2136.90%21%402103246617315933034901671e47f7%2112000040728184468%21sea%21MX%210%21ABX&amp;curPageLogUid=hQwHQnNInWlw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007807474091.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-5&amp;pdp_npi=4%40dis%21MXN%213217.44%213217.44%21%21%211115.00%211115.00%21%402101c5bf17316988195226701e71d2%2112000042268745148%21sea%21MX%210%21ABX&amp;curPageLogUid=CJTPqOigmULM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MX$106.84</t>
+          <t>MX$3,217.44</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Camiseta de Anime y Manga para hombre y mujer, ropa de algodón deportiva para gimnasio, HIP HOP japonés, ropa de calle Y2K, Tops de Manga corta</t>
+          <t>Zapatos clásicos De lona con punta redonda para Mujer, Calzado cómodo con cordones, color negro, para estudiantes, F921</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007625936991.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-6&amp;pdp_npi=4%40dis%21MXN%21351.50%2120.77%21%21%21121.40%217.17%21%402103246617315933034901671e47f7%2112000041553705464%21sea%21MX%210%21ABX&amp;curPageLogUid=4G6NeA58wKFE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005379173635.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;aem_p4p_detail=202411151126593574708266827150000908289&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-7&amp;pdp_npi=4%40dis%21MXN%21235.69%21225.24%21%21%2111.28%2110.78%21%402101c5bf17316988195226701e71d2%2112000038135468965%21sea%21MX%210%21ABX&amp;curPageLogUid=kaaZDJXjO394&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411151126593574708266827150000908289_2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$225.24</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Camiseta Vintage para hombre, camisa con estampado de bonitos personajes de Anime, cuello redondo, informal, ropa de gran tamaño, Top</t>
+          <t>Zapatos informales hechos a mano para hombre, zapatillas de cuero genuino con plataforma y cordones, botas de altura de invierno, color negro</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007489618533.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;aem_p4p_detail=20241114060823599215027961880000145078&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-7&amp;pdp_npi=4%40dis%21MXN%21119.52%21110.25%21%21%2141.28%2138.08%21%402103246617315933034901671e47f7%2112000040987897978%21sea%21MX%210%21ABX&amp;curPageLogUid=1qQonbZdy54X&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=20241114060823599215027961880000145078_2</t>
+          <t>https://es.aliexpress.com/item/1005007282605478.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-8&amp;pdp_npi=4%40dis%21MXN%213711.96%212301.35%21%21%21177.65%21110.14%21%402101c5bf17316988195226701e71d2%2112000040060762604%21sea%21MX%210%21ABX&amp;curPageLogUid=i9UpCXPXACp3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MX$110.25</t>
+          <t>MX$2,301.35</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Camiseta Yugioh, camiseta Yu-gi-oh, cartas de Dios egipcio Yu Gi Oh, camiseta de Anime, juego de monstruos duelo, ropa de calle informal estampada para hombre</t>
+          <t>Botas de nieve clásicas para mujer, zapatos planos cálidos de felpa de piel, plataforma de algodón suave y cómoda, color negro y marrón, invierno, nueva marca, 35-42</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005004421632170.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-8&amp;pdp_npi=4%40dis%21MXN%2183.07%2120.77%21%21%213.96%210.99%21%402103246617315933034901671e47f7%2112000030214381930%21sea%21MX%210%21ABX&amp;curPageLogUid=QixmPLM3UT6t&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007843596648.html?algo_pvid=48b404fc-da15-43b8-ab88-8cce35c08582&amp;algo_exp_id=48b404fc-da15-43b8-ab88-8cce35c08582-9&amp;pdp_npi=4%40dis%21MXN%21317.42%21139.67%21%21%21110.00%2148.40%21%402101c5bf17316988195226701e71d2%2112000042470384769%21sea%21MX%210%21ABX&amp;curPageLogUid=zJSsZMYVrJ32&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$139.67</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tsubasa School Nansheng Camiseta de manga corta para niños, camisetas de capitán de animación 3D, Kits de oliva y Benji, Camiseta deportiva de moda</t>
+          <t>Zapatos planos para hombre y mujer, zapatillas deportivas gruesas de estilo coreano, con plataforma, Estilo Vintage informal, color gris y negro, Y2K</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007335860000.html?algo_pvid=cad4e41c-76e3-4baf-96cc-b7e7abc011f9&amp;algo_exp_id=cad4e41c-76e3-4baf-96cc-b7e7abc011f9-9&amp;pdp_npi=4%40dis%21MXN%21272.78%2120.77%21%21%2194.21%217.17%21%402103246617315933034901671e47f7%2112000040316170395%21sea%21MX%210%21ABX&amp;curPageLogUid=pG3aNfMMrLVN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007810991157.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-0&amp;pdp_npi=4%40dis%21MXN%21710.01%21426.05%21%21%2133.98%2120.39%21%402101f04d17316988205454705e037a%2112000042284449416%21sea%21MX%210%21ABX&amp;curPageLogUid=SIopn6hdJpwG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$426.05</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hyperdimension Neptunia camiseta de Anime, Manga, regalo para amantes del Anime, todas las tallas, algodón</t>
+          <t>Zapatillas de deporte minimalistas para hombre, zapatos informales de cuero genuino para exteriores, senderismo, trotar, color blanco</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007682672906.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-0&amp;pdp_npi=4%40dis%21MXN%21216.63%21190.57%21%21%2174.82%2165.82%21%402101e9a217315933047296830e4863%2112000041806340854%21sea%21MX%210%21ABX&amp;curPageLogUid=81S1aANnuc4u&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007063727145.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-1&amp;pdp_npi=4%40dis%21MXN%211113.84%21357.03%21%21%21386.00%21123.73%21%402101f04d17316988205454705e037a%2112000039285494306%21sea%21MX%210%21ABX&amp;curPageLogUid=KR905G7jyGsy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MX$190.57</t>
+          <t>MX$357.03</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Camiseta Z Goku para hombre, camisa con estampado de dibujos animados de Anime en 3D, imagen de Goku, manga corta, Top cómodo e informal, camisetas deportivas</t>
+          <t>Ricks, nuevos zapatos mejorados para hombre, rojo, verde, gris, rosa, negro, largo crin, parte superior baja, zapatos planos de piel de vaca, zapatillas informales para mujer Owens</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005947319075.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-1&amp;pdp_npi=4%40dis%21MXN%21154.79%21154.79%21%21%2153.46%2153.46%21%402101e9a217315933047296830e4863%2112000034977242692%21sea%21MX%210%21ABX&amp;curPageLogUid=DR923LjIFxXl&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007529537162.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-2&amp;pdp_npi=4%40dis%21MXN%214039.84%211366.59%21%21%211400.00%21473.59%21%402101f04d17316988205454705e037a%2112000041172690439%21sea%21MX%210%21ABX&amp;curPageLogUid=JvopjNSyGXtS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MX$154.79</t>
+          <t>MX$1,366.59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Camiseta de Hunter X Hunter Killua Zoldyck para hombre y mujer, camisa informal de moda Harajuku de manga corta con cuello redondo, Unisex</t>
+          <t>Zapatos Derby de negocios a la moda para Hombre, Zapatillas informales de cuero clásico para oficina, color negro y marrón, talla grande 38-46</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007370143186.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-2&amp;pdp_npi=4%40dis%21MXN%21184.41%2120.77%21%21%2163.69%217.17%21%402101e9a217315933047296830e4863%2112000040463520442%21sea%21MX%210%21ABX&amp;curPageLogUid=2DUXaTV89LIu&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006270217235.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-3&amp;pdp_npi=4%40dis%21MXN%211423.52%21711.76%21%21%21493.32%21246.66%21%402101f04d17316988205454705e037a%2112000036545644710%21sea%21MX%210%21ABX&amp;curPageLogUid=iyxin6lthMxF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$711.76</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Camiseta con cuello redondo para hombre con estampado de fantasma divertido de Halloween</t>
+          <t>Zapatos de cuero de alta calidad para Hombre, calzado Formal de oficina con cordones, color negro, sólido, a la moda, blanco, para adolescentes, primavera y otoño</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007884960004.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;aem_p4p_detail=202411140608246345937354505580000136136&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-3&amp;pdp_npi=4%40dis%21MXN%21130.87%2158.89%21%21%2145.20%2120.34%21%402101e9a217315933047296830e4863%2112000042705749409%21sea%21MX%210%21ABX&amp;curPageLogUid=Sv9pMJJXgEPK&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608246345937354505580000136136_1</t>
+          <t>https://es.aliexpress.com/item/1005005083659955.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-4&amp;pdp_npi=4%40dis%21MXN%21709.59%21248.23%21%21%2133.96%2111.88%21%402101f04d17316988205454705e037a%2112000031582943037%21sea%21MX%210%21ABX&amp;curPageLogUid=KwflsDyfSTwz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MX$58.89</t>
+          <t>MX$248.23</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con estampado 3D de Anime Demon Slayer, Kimetsu No Yaiba, Kamado, Nezuko, Kochou, Shinobu</t>
+          <t>Adidas Jeans Zapatos de tabla bajos de cuero antideslizantes, resistentes al desgaste, informales y cómodos tanto para hombres como para mujeres, blanco y negro</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007568392178.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-4&amp;pdp_npi=4%40dis%21MXN%2198.44%2120.77%21%21%2134.00%217.18%21%402101e9a217315933047296830e4863%2112000041330291887%21sea%21MX%210%21ABX&amp;curPageLogUid=QVq1mxTpqU6b&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008047523327.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-5&amp;pdp_npi=4%40dis%21MXN%211411.06%211199.40%21%21%21489.00%21415.65%21%402101f04d17316988205454705e037a%2112000043419040795%21sea%21MX%210%21ABX&amp;curPageLogUid=hBAcLppbZRsF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,199.4</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Camisetas con diseño de Jersey con diseño de Anime azul, camisetas para hombre, bastardo, Munich, fútbol, dibujos animados, verano, camiseta estampada Unisex, camisetas deportivas de entrenamiento</t>
+          <t>Zapatos informales de piel auténtica para hombre, calzado plano de cuero de vaca, color blanco y negro, 2024, A44130</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007338574877.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-5&amp;pdp_npi=4%40dis%21MXN%21122.94%21111.01%21%21%2142.46%2138.34%21%402101e9a217315933047296830e4863%2112000040328938084%21sea%21MX%210%21ABX&amp;curPageLogUid=3AcmQ11LG5mC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006782491900.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-6&amp;pdp_npi=4%40dis%21MXN%211002.95%21511.50%21%21%2148.00%2124.48%21%402101f04d17316988205454705e037a%2112000038281145837%21sea%21MX%210%21ABX&amp;curPageLogUid=vWYW8A5ne7Zd&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MX$111.01</t>
+          <t>MX$511.5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mewing-Camiseta con estampado divertido de gatos para hombre y mujer, camisa de algodón suave con cuello redondo, talla europea</t>
+          <t>Adidas Origins SUPERSTAR zapatos de tabla bajos cómodos, resistentes al desgaste y transpirables con punta redonda para hombre, negro</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007686621583.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-6&amp;pdp_npi=4%40dis%21MXN%21182.41%2120.77%21%21%2163.00%217.17%21%402101e9a217315933047296830e4863%2112000041833098961%21sea%21MX%210%21ABX&amp;curPageLogUid=JLB87eiQ42fz&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007949903391.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-7&amp;pdp_npi=4%40dis%21MXN%213693.57%211477.43%21%21%211280.00%21512.00%21%402101f04d17316988205454705e037a%2112000042994583667%21sea%21MX%210%21ABX&amp;curPageLogUid=pwZQiHmysQH0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,477.43</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con cuello redondo para hombre, camisa de gran tamaño con estampado 3D de Geisha japonesa, estilo Harajuku, Hip Hop</t>
+          <t>Nuevos zapatos informales de cuero blanco y negro para hombre, zapatos de vestir formales de marca de lujo, mocasines de diseñador para hombre, zapatos de conducción transpirables sin cordones</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005469408536.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;aem_p4p_detail=202411140608246345937354505580000136136&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-7&amp;pdp_npi=4%40dis%21MXN%21119.26%2162.02%21%21%2141.19%2121.42%21%402101e9a217315933047296830e4863%2112000033206580165%21sea%21MX%210%21ABX&amp;curPageLogUid=1z21XGkkTtVM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608246345937354505580000136136_2</t>
+          <t>https://es.aliexpress.com/item/1005006006795903.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-8&amp;pdp_npi=4%40dis%21MXN%21828.17%21364.40%21%21%21287.00%21126.28%21%402101f04d17316988205454705e037a%2112000035292536194%21sea%21MX%210%21ABX&amp;curPageLogUid=xrwXDyzqWcAP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MX$62.02</t>
+          <t>MX$364.4</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta de Anime para hombre, ropa de calle de estilo japonés con patrón de Geisha, de talla grande S-5XL, Hip Hop</t>
+          <t>Zapatos planos informales para hombre y mujer, mocasines de cuero a rayas negras y rojas, de lujo, a la moda, para boda y parejas</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007111872520.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-8&amp;pdp_npi=4%40dis%21MXN%21128.59%21128.59%21%21%216.13%216.13%21%402101e9a217315933047296830e4863%2112000039443653896%21sea%21MX%210%21ABX&amp;curPageLogUid=kTBcZRwdUrMI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007221587686.html?algo_pvid=101bbb67-1966-4ba3-b876-8d6695c8fc2e&amp;algo_exp_id=101bbb67-1966-4ba3-b876-8d6695c8fc2e-9&amp;pdp_npi=4%40dis%21MXN%211673.65%211673.65%21%21%21580.00%21580.00%21%402101f04d17316988205454705e037a%2112000039864707938%21sea%21MX%210%21ABX&amp;curPageLogUid=RsAfpHKytviB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MX$128.59</t>
+          <t>MX$1,673.65</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Zero Ellen para hombre y mujer, camisa informal de manga corta, estilo Harajuku, Hip Hop, Anime, Zenless Zone</t>
+          <t>Zapatillas de deporte informales de plataforma para hombre, zapatos deportivos blancos de alta calidad, zapatos de cuero Pu para hombre, zapatos de tenis de mesa con cojín de aire</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007596607872.html?algo_pvid=4c5f688c-3e70-4c61-8588-86be5417400f&amp;algo_exp_id=4c5f688c-3e70-4c61-8588-86be5417400f-9&amp;pdp_npi=4%40dis%21MXN%21103.97%2167.57%21%21%2135.91%2123.34%21%402101e9a217315933047296830e4863%2112000041443270713%21sea%21MX%210%21ABX&amp;curPageLogUid=eQmXmrpPlIKB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006412606499.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-0&amp;pdp_npi=4%40dis%21MXN%21175.16%2120.69%21%21%2160.70%217.17%21%402101ef5e17316988218701463e4213%2112000037073359722%21sea%21MX%210%21ABX&amp;curPageLogUid=P7SR0WiKDt3y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MX$67.57</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Camiseta de Manga corta para hombre, camisa divertida de anime, bleach Gotei 13, Kyoraku, Shunsui, Ichimaru, Gin, Unisex</t>
+          <t>Mocasines clásicos de cuero para Hombre, zapatos de plataforma cómodos, informales, sin cordones, color negro</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005261254949.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-0&amp;pdp_npi=4%40dis%21MXN%21171.17%2120.77%21%21%218.16%210.99%21%402101e9a217315933061706853e4863%2112000032398599639%21sea%21MX%210%21ABX&amp;curPageLogUid=Mw79jZwV11c5&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007093415913.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-1&amp;pdp_npi=4%40dis%21MXN%21589.02%21551.41%21%21%2128.19%2126.39%21%402101ef5e17316988218701463e4213%2112000039381123937%21sea%21MX%210%21ABX&amp;curPageLogUid=b2BRy7spsjGD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$551.41</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Camisetas informales de manga larga para hombre, camisas de algodón de peso pesado que absorben la humedad, camisetas clásicas holgadas</t>
+          <t>Botines de cuero suave para mujer, Botas cortas con plataforma, zapatos cálidos con punta redonda y cremallera trasera, color negro y marrón, invierno, 2024</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006727679637.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-1&amp;pdp_npi=4%40dis%21MXN%21304.65%21127.94%21%21%21105.22%2144.19%21%402101e9a217315933061706853e4863%2112000038107887097%21sea%21MX%210%21ABX&amp;curPageLogUid=KSRzaM7lz5tr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007424250732.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-2&amp;pdp_npi=4%40dis%21MXN%21559.55%2181.26%21%21%21193.91%2128.16%21%402101ef5e17316988218701463e4213%2112000040705784556%21sea%21MX%210%21ABX&amp;curPageLogUid=cgneoLMIGizN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MX$127.94</t>
+          <t>MX$81.26</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Camisa Chappell Roan para mujer, camiseta cómoda con gráfico de anime, camiseta gráfica universitaria de moda, harajuku Y2k de los años 2000, Retro para mujer</t>
+          <t>Zapatillas de malla transpirable para mujer, zapatos de tacón alto transparente, plataforma de 12cm, tacón de cuña, color blanco y negro, novedad de verano</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007930983419.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-2&amp;pdp_npi=4%40dis%21MXN%2175.54%2175.54%21%21%2126.09%2126.09%21%402101e9a217315933061706853e4863%2112000042912269521%21sea%21MX%210%21ABX&amp;curPageLogUid=6GYBjzu8wSvJ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007355926649.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-3&amp;pdp_npi=4%40dis%21MXN%211086.54%21684.52%21%21%21376.54%21237.22%21%402101ef5e17316988218701463e4213%2112000040402641493%21sea%21MX%210%21ABX&amp;curPageLogUid=l0SfThsI0Vas&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MX$75.54</t>
+          <t>MX$684.52</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Takeishi-Camiseta de manga corta con estampado 3D de Japón para hombre, camiseta informal de calle con cuello redondo, Top de gran tamaño</t>
+          <t>Botas hechas a mano para hombre, zapatillas de deporte de diseño, zapatos informales de cuero para exteriores, botines transpirables, gran oferta, novedad de 2024</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005435714404.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;aem_p4p_detail=202411140608264814087195751360000141881&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-3&amp;pdp_npi=4%40dis%21MXN%21119.26%2152.46%21%21%2141.19%2118.12%21%402101e9a217315933061706853e4863%2112000033068607765%21sea%21MX%210%21ABX&amp;curPageLogUid=30F2UmTrGUNh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608264814087195751360000141881_1</t>
+          <t>https://es.aliexpress.com/item/1005006370345068.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-4&amp;pdp_npi=4%40dis%21MXN%21493.74%21315.92%21%21%2123.63%2115.12%21%402101ef5e17316988218701463e4213%2112000036928732919%21sea%21MX%210%21ABX&amp;curPageLogUid=kntTsXuXKSYa&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MX$52.46</t>
+          <t>MX$315.92</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Valorant para hombre, de alta calidad Camisa de algodón, talla europea, ropa de calle de dibujos animados Unisex, camiseta estampada Vintage</t>
+          <t>Botas de nieve a la moda para hombre, zapatos de talla grande, zapatillas tobilleras, calzado negro y azul, Invierno</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005147498403.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-4&amp;pdp_npi=4%40dis%21MXN%21265.77%2120.77%21%21%2112.67%210.99%21%402101e9a217315933061706853e4863%2112000031855867572%21sea%21MX%210%21ABX&amp;curPageLogUid=g2KkQ4HGuz7g&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/10000004346654.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-5&amp;pdp_npi=4%40dis%21MXN%21663.83%21371.72%21%21%2131.77%2117.79%21%402101ef5e17316988218701463e4213%2120000000014638842%21sea%21MX%210%21ABX&amp;curPageLogUid=rdyTFQyA6DZy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$371.72</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Camiseta de algodón con estampado de Drift Japan Anime AE86 Infirst para hombre, camiseta informal R34 Skyline GTR JDM, talla grande</t>
+          <t>Botas Modem de punta redonda con cremallera para mujer, botines de tacón alto con costura, alta calidad, a la moda, gran oferta, 2024</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007235181305.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-5&amp;pdp_npi=4%40dis%21MXN%21214.09%2187.79%21%21%2173.94%2130.32%21%402101e9a217315933061706853e4863%2112000039904389401%21sea%21MX%210%21ABX&amp;curPageLogUid=kym4SqQUzyPM&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007461270990.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-6&amp;pdp_npi=4%40dis%21MXN%21958.83%21257.29%21%21%21332.28%2189.16%21%402101ef5e17316988218701463e4213%2112000040852186250%21sea%21MX%210%21ABX&amp;curPageLogUid=1MBHt8i6Htcp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MX$87.79</t>
+          <t>MX$257.29</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Camisetas con estampado 3D de Mazinger Z para hombres y mujeres, ropa de calle de Robot de Anime, camiseta de manga corta de gran tamaño, camisetas para niños, ropa para hombres</t>
+          <t>Gran oferta de botas de desierto para hombre, botines antideslizantes de alta calidad para hombre, Botas de senderismo al aire libre Unisex, zapatos de seguridad para el trabajo resistentes al desgaste para hombre</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007326675511.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-6&amp;pdp_npi=4%40dis%21MXN%21129.83%2120.77%21%21%2144.84%217.18%21%402101e9a217315933061706853e4863%2112000040280448737%21sea%21MX%210%21ABX&amp;curPageLogUid=eumcsI0nPXH0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007125815615.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-7&amp;pdp_npi=4%40dis%21MXN%21269.86%2120.69%21%21%2193.52%217.17%21%402101ef5e17316988218701463e4213%2112000039485925546%21sea%21MX%210%21ABX&amp;curPageLogUid=aIIwidrQY7LS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>POLO informal con estampado de lino para hombre, camisa de manga corta, popular, retro, coreano y japonés, ropa diaria para vacaciones, 2024</t>
+          <t>Zapatos de cuero con plataforma gruesa para hombre, calzado de trabajo Retro, zapatos Derby de moda con cordones, calzado plano informal, color negro</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007432336507.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;aem_p4p_detail=202411140608264814087195751360000141881&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-7&amp;pdp_npi=4%40dis%21MXN%21289.54%21104.23%21%21%21100.00%2136.00%21%402101e9a217315933061706853e4863%2112000040733499084%21sea%21MX%210%21ABX&amp;curPageLogUid=kHfKCsvHeNXj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202411140608264814087195751360000141881_2</t>
+          <t>https://es.aliexpress.com/item/1005006680811918.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-8&amp;pdp_npi=4%40dis%21MXN%211380.31%21763.91%21%21%2166.06%2136.56%21%402101ef5e17316988218701463e4213%2112000037999742439%21sea%21MX%210%21ABX&amp;curPageLogUid=C7nQWcKhPeHI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MX$104.23</t>
+          <t>MX$763.91</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Camisetas de Anime japonés Ukiyoe para hombre, camisa de manga corta con estampado 3D de gato samurái, Harajuku de gran tamaño, 2024</t>
+          <t>Rick Shoes-Botas de cuero genuino de corte bajo para mujer, zapatos de suela gruesa en blanco y negro, Retro, de tablero oscuro, tendencia 2023</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007643465844.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-8&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402101e9a217315933061706853e4863%2112000041701790169%21sea%21MX%210%21ABX&amp;curPageLogUid=xdLVwLKPkXeD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006177766036.html?algo_pvid=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10&amp;algo_exp_id=36ff3bdb-e6d8-4396-8509-7a8d3a2b1e10-9&amp;pdp_npi=4%40dis%21MXN%211583.93%211330.49%21%21%21548.91%21461.08%21%402101ef5e17316988218701463e4213%2112000036148297745%21sea%21MX%210%21ABX&amp;curPageLogUid=xUKisvwwXylr&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MX$65.66</t>
+          <t>MX$1,330.49</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Uniqlo-Camiseta 3D de Pokémon para hombre y mujer, camisa divertida de Pikachu, Anime japonés</t>
+          <t>Adidas Jeans Zapatos de tabla sencillos, cómodos, informales, resistentes al desgaste, de corte bajo, para hombres y mujeres en color beige y negro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007698607358.html?algo_pvid=b57635e7-c805-422c-960f-91050e86c01e&amp;algo_exp_id=b57635e7-c805-422c-960f-91050e86c01e-9&amp;pdp_npi=4%40dis%21MXN%21286.27%21105.92%21%21%2198.87%2136.58%21%402101e9a217315933061706853e4863%2112000041902017113%21sea%21MX%210%21ABX&amp;curPageLogUid=H6fv02KmGa5x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008055204126.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-0&amp;pdp_npi=4%40dis%21MXN%211411.06%211199.40%21%21%21489.00%21415.65%21%402101e9ec17316988232387551e65a9%2112000043464341524%21sea%21MX%210%21ABX&amp;curPageLogUid=KoYRenrp9XgG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MX$105.92</t>
+          <t>MX$1,199.4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Camisetas con diseño de Jersey con diseño de Anime azul, camisetas para hombre, bastardo, Munich, fútbol, dibujos animados, verano, camiseta estampada Unisex, camisetas deportivas de entrenamiento</t>
+          <t>Adidas Originals Samba zapatos de skate Unisex de cuero hombres mujeres moda básica al aire libre tablero de entrenamiento alemán zapatillas de deporte</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007338574877.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-0&amp;pdp_npi=4%40dis%21MXN%21122.94%21111.01%21%21%2142.46%2138.34%21%402101e9a217315933074776874e4863%2112000040328938084%21sea%21MX%210%21ABX&amp;curPageLogUid=mpMigIhG9ZsZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007589574025.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-1&amp;pdp_npi=4%40dis%21MXN%212376.78%21933.73%21%21%21823.67%21323.58%21%402101e9ec17316988232387551e65a9%2112000041411150146%21sea%21MX%210%21ABX&amp;curPageLogUid=hWaz0Ue1YmFf&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MX$111.01</t>
+          <t>MX$933.73</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Camiseta Drift Anime japonés AE86 inicial D, camiseta de manga corta con cuello redondo, moda informal de verano, camiseta Unisex para hombres y mujeres</t>
+          <t>Anta-zapatos de placa base gruesa para hombre, zapatillas Retro ligeras, color blanco y negro, para estudiantes, regalo, novedad de 2024</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006628459094.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-1&amp;pdp_npi=4%40dis%21MXN%21122.59%21113.04%21%21%2142.34%2139.04%21%402101e9a217315933074776874e4863%2112000037866410381%21sea%21MX%210%21ABX&amp;curPageLogUid=p5hatqfnRYnj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007852936233.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-2&amp;pdp_npi=4%40dis%21MXN%212300.66%211150.32%21%21%21797.29%21398.64%21%402101e9ec17316988232387551e65a9%2112000042547515584%21sea%21MX%210%21ABX&amp;curPageLogUid=YVxWhBlpIo0I&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MX$113.04</t>
+          <t>MX$1,150.32</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con dibujos animados en 3D para hombre, camiseta informal con cuello redondo de talla grande Harajuku y2k, jersey de calle, ropa para hombre</t>
+          <t>Zapatos informales de cuero para hombre, zapatillas nuevas de alta calidad, color negro, botines con plataforma, tendencia, 2024</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007911997418.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-2&amp;pdp_npi=4%40dis%21MXN%21127.14%21127.14%21%21%2143.91%2143.91%21%402101e9a217315933074776874e4863%2112000042815251457%21sea%21MX%210%21ABX&amp;curPageLogUid=POOvh2VzBLDY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005258672866.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-3&amp;pdp_npi=4%40dis%21MXN%21165.60%2120.69%21%21%2157.39%217.17%21%402101e9ec17316988232387551e65a9%2112000032390124286%21sea%21MX%210%21ABX&amp;curPageLogUid=Ptk5KC1Wnnbt&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MX$127.14</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Death Note para hombre y mujer, camisa de Anime japonés, estilo Harajuku informal, ropa de calle, Hip Hop</t>
+          <t>2024 nuevo estilo Punk mujeres negro Rock Metal decoración con cordones tacón altura plataforma zapatos gótico hombre zapatillas mujeres botines</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006944589072.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-3&amp;pdp_npi=4%40dis%21MXN%21110.37%21110.37%21%21%2138.12%2138.12%21%402101e9a217315933074776874e4863%2112000038814392870%21sea%21MX%210%21ABX&amp;curPageLogUid=7egS2a9IJMvc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007910111703.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-4&amp;pdp_npi=4%40dis%21MXN%21963.39%21634.90%21%21%21333.86%21220.02%21%402101e9ec17316988232387551e65a9%2112000042803175441%21sea%21MX%210%21ABX&amp;curPageLogUid=IR2hYL0FJFYS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MX$110.37</t>
+          <t>MX$634.9</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Camiseta de Anime japonés de Jujutsu Kaisen Gojo Satoru Garphic para hombre, Tops deportivos informales de Otaku Harajuku, camiseta de dibujos animados japoneses de moda</t>
+          <t>Zapatos Adidas SUPERSTAR de cuero cómodos, modernos, antideslizantes, resistentes al desgaste y livianos para hombres y mujeres en negro</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007878191640.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-4&amp;pdp_npi=4%40dis%21MXN%21161.30%2120.77%21%21%2155.71%217.17%21%402101e9a217315933074776874e4863%2112000042668672450%21sea%21MX%210%21ABX&amp;curPageLogUid=Z7LND8G2rZiU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008060311529.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-5&amp;pdp_npi=4%40dis%21MXN%211324.49%211324.49%21%21%21459.00%21459.00%21%402101e9ec17316988232387551e65a9%2112000043493513834%21sea%21MX%210%21ABX&amp;curPageLogUid=2KSYv59jACDO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,324.49</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Camiseta de cuello redondo para hombre, ropa de alta calidad con estampado de Anime Blue Lock, juego de rol de ciudad brillante, Bola Manga, 4</t>
+          <t>Vetro-Botas altas con cordones gruesos para hombre y mujer, botas de diseñador transparentes, color negro</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006819925421.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-5&amp;pdp_npi=4%40dis%21MXN%21265.36%2120.77%21%21%2191.65%217.17%21%402101e9a217315933074776874e4863%2112000038406534708%21sea%21MX%210%21ABX&amp;curPageLogUid=5dcDh28mrsxX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007703439877.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-6&amp;pdp_npi=4%40dis%21MXN%217086.89%214393.97%21%21%21339.17%21210.29%21%402101e9ec17316988232387551e65a9%2112000041916381929%21sea%21MX%210%21ABX&amp;curPageLogUid=trHgJm3oyCTV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$4,393.97</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camiseta de One Piece Roronoa Zoro Luffy para hombre y mujer, ropa de Anime de dibujos animados, estilo japonés, 2024</t>
+          <t>Zapatillas deportivas de lona para hombre y mujer, zapatos bajos con estampado de moda, color negro, para monopatín, 2022</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007828640121.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-6&amp;pdp_npi=4%40dis%21MXN%21340.30%2120.77%21%21%21117.53%217.17%21%402101e9a217315933074776874e4863%2112000042357599881%21sea%21MX%210%21ABX&amp;curPageLogUid=3pmzATQJvRN0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004862317306.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-7&amp;pdp_npi=4%40dis%21MXN%21641.26%21397.63%21%21%2130.69%2119.03%21%402101e9ec17316988232387551e65a9%2112000030790372023%21sea%21MX%210%21ABX&amp;curPageLogUid=9HGtILhs5thD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$397.63</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Camiseta de voleibol Haikyuu Hinata Shoyo Karasuno para hombre, ropa deportiva, Karasuno, High School, Kageyama Tobio</t>
+          <t>Brogues-zapatos de cuero de negocios para hombre, mocasines cómodos de verano, mocasines de marca, zapatos informales transpirables, color negro</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007342235767.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-7&amp;pdp_npi=4%40dis%21MXN%21147.03%2120.77%21%21%2150.78%217.17%21%402101e9a217315933074776874e4863%2112000040341528942%21sea%21MX%210%21ABX&amp;curPageLogUid=La919zTbO8IU&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006025108081.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-8&amp;pdp_npi=4%40dis%21MXN%211080.05%21286.88%21%21%2151.69%2113.73%21%402101e9ec17316988232387551e65a9%2112000035374238874%21sea%21MX%210%21ABX&amp;curPageLogUid=D07w2mdnPpqP&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$286.88</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Camiseta de Anime para niños y adultos, ropa con estampado de capitán Tsubasa Toho, Kojiro Hyuga, 2024</t>
+          <t>Botas de media pantorrilla para mujer, zapatos de plataforma de diseñador, estilo Punk, tobilleros negros, tacones de Stripper, Invierno</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007318569284.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-8&amp;pdp_npi=4%40dis%21MXN%21118.74%2120.77%21%21%2141.01%217.17%21%402101e9a217315933074776874e4863%2112000040239886378%21sea%21MX%210%21ABX&amp;curPageLogUid=1ZiukMlqxw7Q&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007497552724.html?algo_pvid=4a848142-b796-45e1-95d1-0a7f1f1c1cfa&amp;algo_exp_id=4a848142-b796-45e1-95d1-0a7f1f1c1cfa-9&amp;pdp_npi=4%40dis%21MXN%21507.87%2186.48%21%21%21176.00%2129.97%21%402101e9ec17316988232387551e65a9%2112000041030408905%21sea%21MX%210%21ABX&amp;curPageLogUid=uEXpsenef0Ia&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$86.48</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camiseta japonesa de anime Deftones para hombre y mujer, Camiseta de algodón, Camiseta cómoda de calle, moda Harajuku, ropa Y2k</t>
+          <t>Mocasines de cuero Pu para hombre, zapatos informales a la moda, Zapatillas altas con cordones, zapatos planos negros</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006997992195.html?algo_pvid=9c89a5a3-a097-488a-bf06-818f4cc22edb&amp;algo_exp_id=9c89a5a3-a097-488a-bf06-818f4cc22edb-9&amp;pdp_npi=4%40dis%21MXN%21286.64%2171.66%21%21%2199.00%2124.75%21%402101e9a217315933074776874e4863%2112000038993062984%21sea%21MX%210%21ABX&amp;curPageLogUid=tF4Q5VcirLWO&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005003766588274.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-0&amp;pdp_npi=4%40dis%21MXN%21590.28%21413.09%21%21%2128.25%2119.77%21%402101f04d17316988244784868e037a%2112000027093759913%21sea%21MX%210%21ABX&amp;curPageLogUid=dbJhDJnB9QsV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MX$71.66</t>
+          <t>MX$413.09</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Camiseta Candy, shojo,riyoko, ikedarose of versailes, anime kawaii, todas las tallas</t>
+          <t>Adidas Handball Spezial Zapatos de entrenamiento moral para hombre y mujer, color beige, blanco, negro, sencillos, cómodos y ligeros con cabeza en T</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007506935177.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-0&amp;pdp_npi=4%40dis%21MXN%21203.14%2120.77%21%21%2170.16%217.17%21%402101e7f617315933089172319eab2f%2112000041061849260%21sea%21MX%210%21ABX&amp;curPageLogUid=vvVpO8mpkIXi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008071439934.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-1&amp;pdp_npi=4%40dis%21MXN%211295.63%211295.63%21%21%21449.00%21449.00%21%402101f04d17316988244784868e037a%2112000043531097455%21sea%21MX%210%21ABX&amp;curPageLogUid=R1itZfAdvN30&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,295.63</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Camiseta de dibujos animados Kawaii para mujer, camiseta de Anime japonés Oshi No Ko, Cosplay de Ai Hoshino, ropa gráfica Harajuku Y2k, Top</t>
+          <t>Zapatillas altas informales de piel de cocodrilo auténtica para hombre, zapatos planos con cordones negros suaves de piel de cocodrilo exótica auténtica</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007106901026.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-1&amp;pdp_npi=4%40dis%21MXN%21191.94%2195.96%21%21%2166.29%2133.14%21%402101e7f617315933089172319eab2f%2112000039425333902%21sea%21MX%210%21ABX&amp;curPageLogUid=hDCBDfJpmTuE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008061051469.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-2&amp;pdp_npi=4%40dis%21MXN%2112931.58%218534.90%21%21%21618.89%21408.47%21%402101f04d17316988244784868e037a%2112000043496178210%21sea%21MX%210%21ABX&amp;curPageLogUid=mXnx8MNHV8E7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MX$95.96</t>
+          <t>MX$8,534.9</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Camiseta estampada de Anime japonés para hombre y mujer, camisa de Manga grande a la moda de algodón, Jujutsu Kaisen Fushiguro Toji</t>
+          <t>Botas de plataforma para mujer, botas de esquí de invierno 2024, botas de nieve impermeables de cuero PU antideslizantes para mujer, botines forrados de algodón de esponja negra</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007543168814.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-2&amp;pdp_npi=4%40dis%21MXN%21346.72%2120.77%21%21%21119.75%217.17%21%402101e7f617315933089172319eab2f%2112000041227517676%21sea%21MX%210%21ABX&amp;curPageLogUid=GKvGHu7z8tQD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007271131561.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-3&amp;pdp_npi=4%40dis%21MXN%211898.49%21778.39%21%21%21657.92%21269.75%21%402101f04d17316988244784868e037a%2112000040017325171%21sea%21MX%210%21ABX&amp;curPageLogUid=5clVDGyJOruy&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$778.39</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Initial D Drift AE86 para hombre, camisa con estampado de doble cara, RX-7 R34 Skyline GTR JDM, Harajuku Vintage, de gran tamaño, 2024</t>
+          <t>PUMA-zapatos de ante para hombre y mujer, calzado ligero y versátil, cómodo, para baile</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006419516768.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-3&amp;pdp_npi=4%40dis%21MXN%21343.08%2120.77%21%21%21118.49%217.17%21%402101e7f617315933089172319eab2f%2112000037099246713%21sea%21MX%210%21ABX&amp;curPageLogUid=Jnk9yxhsrh1N&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007801040227.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-4&amp;pdp_npi=4%40dis%21MXN%213388.27%21953.07%21%21%211174.20%21330.29%21%402101f04d17316988244784868e037a%2112000042247645608%21sea%21MX%210%21ABX&amp;curPageLogUid=aTh3zJhXOsiL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$953.07</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Camiseta de verano para mujer, ropa divertida de Mitski, harajuku de cómic</t>
+          <t>Adidas Samba OG Zapatos de tabla cómodos y versátiles de corte bajo informales resistentes al desgaste para hombres y mujeres en blanco y negro</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007552828019.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-4&amp;pdp_npi=4%40dis%21MXN%2184.84%2120.77%21%21%2129.30%217.17%21%402101e7f617315933089172319eab2f%2112000041266069782%21sea%21MX%210%21ABX&amp;curPageLogUid=pou4j9cqT18B&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008047454848.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-5&amp;pdp_npi=4%40dis%21MXN%211324.49%211125.82%21%21%21459.00%21390.15%21%402101f04d17316988244784868e037a%2112000043419331637%21sea%21MX%210%21ABX&amp;curPageLogUid=gAEuXQgX95gp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,125.82</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con estampado de cinco personas, Camiseta con estampado de Cosplay completo de Anime de Uber Blue Lock, VL Replika, verano 2023</t>
+          <t>Zapatos informales de cuero genuino para hombre, mocasines de marca de lujo, transpirables, sin cordones, color negro, para conducir, de talla grande 37-47, 2021</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005694608438.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-5&amp;pdp_npi=4%40dis%21MXN%21101.11%2120.77%21%21%2134.92%217.17%21%402101e7f617315933089172319eab2f%2112000034035163795%21sea%21MX%210%21ABX&amp;curPageLogUid=lByQCJGvohjV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005297172790.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-6&amp;pdp_npi=4%40dis%21MXN%21202.26%21161.72%21%21%219.68%217.74%21%402101f04d17316988244784868e037a%2112000032533968418%21sea%21MX%210%21ABX&amp;curPageLogUid=soujeIHQIwJj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$161.72</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Camiseta Vintage de verano para mujer, camiseta con estampado de caballo en 3d, camiseta a la moda para mujer, camiseta de manga corta con cuello redondo, camisetas para niños, camisetas de animales</t>
+          <t>Adidas Originals-zapatos clásicos para hombre y mujer, zapatillas antideslizantes, resistentes al desgaste, ligeras, color negro carbono</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005008024154218.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-6&amp;pdp_npi=4%40dis%21MXN%21117.18%21117.18%21%21%2140.47%2140.47%21%402101e7f617315933089172319eab2f%2112000043295115174%21sea%21MX%210%21ABX&amp;curPageLogUid=r17xwJ1TnO75&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007813964038.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-7&amp;pdp_npi=4%40dis%21MXN%212305.59%211152.79%21%21%21799.00%21399.50%21%402101f04d17316988244784868e037a%2112000042293398484%21sea%21MX%210%21ABX&amp;curPageLogUid=jGMBrnqm02p7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MX$117.18</t>
+          <t>MX$1,152.79</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Demon Slayer para hombre y mujer, camisa de manga corta con cuello redondo, Anime japonés, informal, de gran tamaño, a la moda, de verano</t>
+          <t>Converse One Star Academy Ox Egret Negro 163269 Zapatos de tabla antideslizantes con amortiguación C para hombre y mujer</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006898334084.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-7&amp;pdp_npi=4%40dis%21MXN%21325.36%2120.77%21%21%21112.37%217.17%21%402101e7f617315933089172319eab2f%2112000038653472801%21sea%21MX%210%21ABX&amp;curPageLogUid=oxmPKNTZzxDW&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008068311278.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-8&amp;pdp_npi=4%40dis%21MXN%211391.09%211140.71%21%21%21482.08%21395.31%21%402101f04d17316988244784868e037a%2112000043524233493%21sea%21MX%210%21ABX&amp;curPageLogUid=X0LuxfwM4u3x&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,140.71</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de ataque gigante a los Titanes para hombre y mujer, camiseta de Anime de moda con cuello redondo, ropa de calle, Top genial</t>
+          <t>Zapatos para Hombre, botas de cuero negro a la moda de Color sólido, zapatos de algodón cálidos impermeables para invierno, botines antideslizantes para hombre</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006793845240.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-8&amp;pdp_npi=4%40dis%21MXN%21121.61%21121.61%21%21%2142.00%2142.00%21%402101e7f617315933089172319eab2f%2112000040770826169%21sea%21MX%210%21ABX&amp;curPageLogUid=EkcWrfUVRj4j&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007859501344.html?algo_pvid=cb7fdbd8-c91d-4471-9711-8b8e55486e87&amp;algo_exp_id=cb7fdbd8-c91d-4471-9711-8b8e55486e87-9&amp;pdp_npi=4%40dis%21MXN%21394.17%21197.08%21%21%21136.60%2168.30%21%402101f04d17316988244784868e037a%2112000042571727149%21sea%21MX%210%21ABX&amp;curPageLogUid=cwC2gmXUIQiQ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MX$121.61</t>
+          <t>MX$197.08</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Camisetas estampadas de manga corta con capucha para hombre, camisa Harajuku de Anime de dibujos animados, ropa de calle japonesa, ropa informal de verano, 2021</t>
+          <t>Zapatos informales de cuero dorado, plateado y negro, zapatos ostentosos de hip-hop para parejas, zapatillas con cordones, calzado para exteriores, zapatos de calle</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003662438311.html?algo_pvid=4aae8b7a-311a-4376-9a00-e59c895b810e&amp;algo_exp_id=4aae8b7a-311a-4376-9a00-e59c895b810e-9&amp;pdp_npi=4%40dis%21MXN%21132.57%2120.77%21%21%216.32%210.99%21%402101e7f617315933089172319eab2f%2112000026697777663%21sea%21MX%210%21ABX&amp;curPageLogUid=CRqBQZvB3u2J&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004193935817.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-0&amp;pdp_npi=4%40dis%21MXN%21251.99%2120.69%21%21%2112.06%210.99%21%402101c5bf17316988258256863e71d2%2112000028337936202%21sea%21MX%210%21ABX&amp;curPageLogUid=z6aSBsNunAiF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Camiseta divertida con estampado de cerdo en 3D para hombre, ropa de Hip Hop de tendencia urbana, camiseta informal de manga corta con cuello redondo, Tops holgados de moda para verano</t>
+          <t>Liyke-Botas Chelsea con remaches de gemas de cristal para mujer, botines de tacón de Stripper con cremallera, Sexy, punta estrecha, para fiesta, Otoño e Invierno</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007959837176.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-0&amp;pdp_npi=4%40dis%21MXN%2183.70%2125.18%21%21%213.99%211.20%21%402103010e17315933103727161e62dc%2112000043062124063%21sea%21MX%210%21ABX&amp;curPageLogUid=7CeYOgJJsnu6&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007409607784.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-1&amp;pdp_npi=4%40dis%21MXN%211420.01%21460.52%21%21%2167.96%2122.04%21%402101c5bf17316988258256863e71d2%2112000040636648792%21sea%21MX%210%21ABX&amp;curPageLogUid=ubKbDNMgtC4a&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MX$25.18</t>
+          <t>MX$460.52</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Camiseta de lobo para hombre, Top de manga corta con estampado Animal en 3D, informal, de calle, de gran tamaño, ropa Vintage, 2023</t>
+          <t>Botas de nieve para mujer, zapatos planos de piel Natural, mocasines cálidos de ante de vaca, color negro, Invierno</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007423293993.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-1&amp;pdp_npi=4%40dis%21MXN%21225.06%2120.77%21%21%2177.73%217.17%21%402103010e17315933103727161e62dc%2112000040698402932%21sea%21MX%210%21ABX&amp;curPageLogUid=iOtuFPXVJJs7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006065436814.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-2&amp;pdp_npi=4%40dis%21MXN%21998.14%21745.73%21%21%2147.77%2135.69%21%402101c5bf17316988258256863e71d2%2112000035617512528%21sea%21MX%210%21ABX&amp;curPageLogUid=vcpqOjZomgpS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$745.73</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Redsuns-camisetas góticas de dibujos animados para hombre, camisa de Anime japonés con inicial D, talla de la UE, AE86, divertida, Harajuku, Manga</t>
+          <t>Botas de correr para hombre, zapatos deportivos para correr al aire libre, zapatillas de deporte acolchadas, calzado de baloncesto negro, zapatos de algodón al tobillo, moda de invierno</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006820380657.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-2&amp;pdp_npi=4%40dis%21MXN%21164.04%2120.77%21%21%217.82%210.99%21%402103010e17315933103727161e62dc%2112000038408055087%21sea%21MX%210%21ABX&amp;curPageLogUid=96eg8860aLeB&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006129865357.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-3&amp;pdp_npi=4%40dis%21MXN%21961.25%21480.62%21%21%21333.12%21166.56%21%402101c5bf17316988258256863e71d2%2112000035895307579%21sea%21MX%210%21ABX&amp;curPageLogUid=bXvAJF869wxl&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$480.62</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Camisetas gráficas de Star Wars para hombres y mujeres, Darth Vader, Stormtrooper, operaciones logísticas, Tops de gran tamaño, Verano</t>
+          <t>Zapatos De suela gruesa para Hombre, calzado informal De cuero genuino con parte inferior plana, primavera 2024, Zapatos De tablero para Hombre</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007564998220.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-3&amp;pdp_npi=4%40dis%21MXN%21311.28%2120.77%21%21%21107.51%217.18%21%402103010e17315933103727161e62dc%2112000041318634653%21sea%21MX%210%21ABX&amp;curPageLogUid=prxy6fJbWbfk&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005617984498.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-4&amp;pdp_npi=4%40dis%21MXN%21563.07%21133.72%21%21%21195.13%2146.34%21%402101c5bf17316988258256863e71d2%2112000033764810842%21sea%21MX%210%21ABX&amp;curPageLogUid=MwDym2j6LTIk&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$133.72</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Camiseta 3D de The Foxhole Court Palmetto State Foxes para hombre y mujer, camisa divertida de manga corta con gráfico, ropa de calle, Jersey de Lacrosse</t>
+          <t>Adidas originals Superstar-zapatillas clásicas de cuero para hombre y mujer, zapatos de tabla baja, antideslizantes, moda simple multiusos</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007480764192.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-4&amp;pdp_npi=4%40dis%21MXN%2186.21%2134.40%21%21%214.11%211.64%21%402103010e17315933103727161e62dc%2112000040925436604%21sea%21MX%210%21ABX&amp;curPageLogUid=bsd80xoC1aU4&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007813915614.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-5&amp;pdp_npi=4%40dis%21MXN%212158.28%21901.51%21%21%21747.95%21312.42%21%402101c5bf17316988258256863e71d2%2112000042295299470%21sea%21MX%210%21ABX&amp;curPageLogUid=HzIGQrwH1LRY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MX$34.4</t>
+          <t>MX$901.51</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Camisa Formal de manga larga para hombre, camisa de oficina, Color sólido, a rayas, antiarrugas, sin planchado, bolsillo de negocios de moda, blanca, Social, 4XL</t>
+          <t>Zapatos informales de marca de lujo para hombre, zapatillas a la moda en blanco y negro, calzado transpirable de cuero de vaca suave para caminar, 100%</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007460969536.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-5&amp;pdp_npi=4%40dis%21MXN%21364.42%2120.77%21%21%21125.86%217.17%21%402103010e17315933103727161e62dc%2112000040850285375%21sea%21MX%210%21ABX&amp;curPageLogUid=dq2H9XaIDDPF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/4000041735009.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-6&amp;pdp_npi=4%40dis%21MXN%211436.31%21419.15%21%21%2168.74%2120.06%21%402101c5bf17316988258256863e71d2%2110000000093051854%21sea%21MX%210%21ABX&amp;curPageLogUid=q5huWS7YQZO9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$419.15</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de Jake The Dog para hombres y mujeres, camisetas gráficas divertidas de gran tamaño, Tops</t>
+          <t>Hebilla de cinturón punta redonda hasta la rodilla botas de mujer suela gruesa tacones gruesos negro Slip On moda concisa elegante zapatos femeninos occidentales</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005905785670.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-6&amp;pdp_npi=4%40dis%21MXN%21326.31%21120.74%21%21%21112.70%2141.70%21%402103010e17315933103727161e62dc%2112000034791319333%21sea%21MX%210%21ABX&amp;curPageLogUid=ml3rOqYAI5gX&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007552994600.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-7&amp;pdp_npi=4%40dis%21MXN%211147.54%21437.95%21%21%2154.92%2120.96%21%402101c5bf17316988258256863e71d2%2112000041268001091%21sea%21MX%210%21ABX&amp;curPageLogUid=DtJVhwUMeXGh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MX$120.74</t>
+          <t>MX$437.95</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VANCE HINES-Camiseta estampada para hombre, camisa de moda inspirada en sistemas de escape de carreras de motocicletas, informal, holgada, suave, Harajuku</t>
+          <t>Adidas Samba XLG zapatillas de Skateboarding para hombre y mujer, cómodas, versátiles, antideslizantes, resistentes al desgaste, bajas, blancas y negras</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006092827890.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-7&amp;pdp_npi=4%40dis%21MXN%21169.15%2120.87%21%21%2158.42%217.21%21%402103010e17315933103727161e62dc%2112000040819654092%21sea%21MX%210%21ABX&amp;curPageLogUid=R5q02tFz8NEn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007489436977.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-8&amp;pdp_npi=4%40dis%21MXN%211393.95%21916.67%21%21%21483.07%21317.67%21%402101c5bf17316988258256863e71d2%2112000040988141510%21sea%21MX%210%21ABX&amp;curPageLogUid=pQ8lJJrUfO7z&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MX$20.87</t>
+          <t>MX$916.67</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Camiseta de The Bad Batch para hombres y mujeres, camisa Harajuku Unisex, Hip Hop, dibujos animados, informal, diaria, clásica, manga corta</t>
+          <t>Zapatos de cuero de estilo italiano para hombre, zapatos de negocios de moda, zapatos Derby casuales, zapatos de carrera originales, zapatos concisos, negro y marrón</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007013630099.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-8&amp;pdp_npi=4%40dis%21MXN%21164.04%21147.26%21%21%217.82%217.02%21%402103010e17315933103727161e62dc%2112000039069248688%21sea%21MX%210%21ABX&amp;curPageLogUid=0trwR1X5ugoF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006262381646.html?algo_pvid=6559f60b-6872-4bc8-9338-66b4a7b2b862&amp;algo_exp_id=6559f60b-6872-4bc8-9338-66b4a7b2b862-9&amp;pdp_npi=4%40dis%21MXN%21736.32%21736.32%21%21%21255.17%21255.17%21%402101c5bf17316988258256863e71d2%2112000036515729572%21sea%21MX%210%21ABX&amp;curPageLogUid=deecZ9bhNI9J&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MX$147.26</t>
+          <t>MX$736.32</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Camiseta inicial D Nissan Skyline R34 para hombre, camisa de manga corta de algodón, estilo Harajuku japonés, moda de coche, ropa de gran tamaño</t>
+          <t>Adidas Originals Superstar "Bold Gold" zapatos de skate para hombres y mujeres ropa casual resistente amarillo negro GY2070</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006582685263.html?algo_pvid=3f486e06-9234-4120-9bed-9b7e31ed1858&amp;algo_exp_id=3f486e06-9234-4120-9bed-9b7e31ed1858-9&amp;pdp_npi=4%40dis%21MXN%21332.25%21132.90%21%21%21114.75%2145.90%21%402103010e17315933103727161e62dc%2112000037726809482%21sea%21MX%210%21ABX&amp;curPageLogUid=Q7v3RF6Ax42Y&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008071040779.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-0&amp;pdp_npi=4%40dis%21MXN%211324.49%211324.49%21%21%21459.00%21459.00%21%402101efeb17316988271474593ed078%2112000043529650723%21sea%21MX%210%21ABX&amp;curPageLogUid=js9lvwdXCC9j&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MX$132.9</t>
+          <t>MX$1,324.49</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Camiseta de la serie de Tv Friends para mujer, ropa de calle de anime harajuku, top de chica, ropa de anime harajuku</t>
+          <t>Zapatos informales transpirables con punta redonda para mujer, calzado de tacón bajo, Color negro y dorado, Primavera, Otoño e Invierno</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005970508318.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-0&amp;pdp_npi=4%40dis%21MXN%2167.54%2120.77%21%21%213.22%210.99%21%402103209b17315933117878646e6ce4%2112000035106018715%21sea%21MX%210%21ABX&amp;curPageLogUid=o4P0pNh7BRhT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007347961764.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-1&amp;pdp_npi=4%40dis%21MXN%21219.28%2120.69%21%21%2175.99%217.17%21%402101efeb17316988271474593ed078%2112000040363955703%21sea%21MX%210%21ABX&amp;curPageLogUid=2LUEPRssKRY8&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>¡BOCCHI LA ROCA! Camiseta de Anime para hombre, camiseta bonita a la moda para hombre, camiseta de Hitori Gotoh Ijichi Nijika, camisetas informales de manga corta para hombre</t>
+          <t>Botas para motociclista, zapatos para hombre, zapatos Doc Marten para hombre, botas tácticas de tendencia 20224, botas de vestir para hombre, botas de cuero para hombre, zapatillas de deporte para hombre</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006628364018.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-1&amp;pdp_npi=4%40dis%21MXN%21118.62%2120.77%21%21%2140.97%217.18%21%402103209b17315933117878646e6ce4%2112000037866177298%21sea%21MX%210%21ABX&amp;curPageLogUid=xXvxqnR5RiAF&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005008052915586.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-2&amp;pdp_npi=4%40dis%21MXN%211298.35%21593.80%21%21%21449.94%21205.78%21%402101efeb17316988271474593ed078%2112000043455365154%21sea%21MX%210%21ABX&amp;curPageLogUid=5YnkOjQ56Q7C&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$593.8</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Camiseta con estampado divertido de Mob Psycho para mujer, camiseta divertida de Anime, Hip Hop, manga corta, cuello redondo, Top de alta calidad</t>
+          <t>Zapatos de cuña de malla para mujer, zapatillas de diseñador de lujo con cordones en rojo y negro, informales, 2024</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007633198491.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-2&amp;pdp_npi=4%40dis%21MXN%21220.25%21103.51%21%21%2176.07%2135.75%21%402103209b17315933117878646e6ce4%2112000041581304228%21sea%21MX%210%21ABX&amp;curPageLogUid=pYH5NkdWTfqD&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007453331240.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-3&amp;pdp_npi=4%40dis%21MXN%21453.96%2145.77%21%21%21157.32%2115.86%21%402101efeb17316988271474593ed078%2112000040820680482%21sea%21MX%210%21ABX&amp;curPageLogUid=1ARY1jlASy8s&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MX$103.51</t>
+          <t>MX$45.77</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de levantamiento de pesas de gato, Camisetas divertidas con diseño de gimnasio, Camisetas gráficas de algodón de alta calidad, ropa para hombre</t>
+          <t>Vision Street Wear zapatos bajos de lona de gamuza para hombres y mujeres, zapatos casuales, zapatos de lona, zapatos deportivos de calle</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006916427278.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-3&amp;pdp_npi=4%40dis%21MXN%21164.92%2120.77%21%21%2156.96%217.17%21%402103209b17315933117878646e6ce4%2112000038717027273%21sea%21MX%210%21ABX&amp;curPageLogUid=3dC3oF0MEaue&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005526113024.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-4&amp;pdp_npi=4%40dis%21MXN%211598.68%21781.59%21%21%21554.02%21270.86%21%402101efeb17316988271474593ed078%2112000033417589056%21sea%21MX%210%21ABX&amp;curPageLogUid=vHHxO33elfSi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$781.59</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Camiseta de baloncesto Slam Dunk 2023, ropa deportiva con diseño de cuello de grupo Unisex de manga corta de algodón puro con tema de película de Anime</t>
+          <t>Zapatos informales de cuero negro con plataforma gruesa para hombre, zapatillas de deporte con cordones, ropa de calle brillante, estilo coreano, japonés, Karajuku</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007208848576.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-4&amp;pdp_npi=4%40dis%21MXN%21274.79%2120.77%21%21%2113.10%210.99%21%402103209b17315933117878646e6ce4%2112000039812666726%21sea%21MX%210%21ABX&amp;curPageLogUid=4iKzD2hMoec7&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007643574805.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-5&amp;pdp_npi=4%40dis%21MXN%211614.75%21694.33%21%21%2177.28%2133.23%21%402101efeb17316988271474593ed078%2112000041627198904%21sea%21MX%210%21ABX&amp;curPageLogUid=H7m9MTyf6y19&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$694.33</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Camiseta con estampado gráfico de Anime Attack On Titan Levi Ackerman para hombre y mujer, camisetas de algodón lavadas, camiseta holgada Harajuku para hombre</t>
+          <t>Zapatos de cuero transpirables para hombre, mocasines formales de lujo, zapatos italianos para conducir, color negro, talla grande 39-44</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007936717314.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-5&amp;pdp_npi=4%40dis%21MXN%21194.03%21194.03%21%21%219.25%219.25%21%402103209b17315933117878646e6ce4%2112000042934480960%21sea%21MX%210%21ABX&amp;curPageLogUid=yez1fFpzjlGw&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005637396539.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-6&amp;pdp_npi=4%40dis%21MXN%21303.60%21242.80%21%21%2114.53%2111.62%21%402101efeb17316988271474593ed078%2112000033839410679%21sea%21MX%210%21ABX&amp;curPageLogUid=P8ehDZGotW1H&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MX$194.03</t>
+          <t>MX$242.8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Camiseta de fútbol de Anime con cerradura azul para hombre y mujer, Tops deportivos de cuello redondo, Manga corta informal, novedad de verano 2024</t>
+          <t>Mocasines informales de cuero de vaca para hombre, zapatos Oxford negros Vintage, zapatos planos de diseñador, calzado de vestir informal</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007557888699.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-6&amp;pdp_npi=4%40dis%21MXN%21178.24%2144.56%21%21%2161.56%2115.39%21%402103209b17315933117878646e6ce4%2112000041285748208%21sea%21MX%210%21ABX&amp;curPageLogUid=GfIBm0oivc3s&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005003814049066.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-7&amp;pdp_npi=4%40dis%21MXN%211181.19%21590.59%21%21%21409.34%21204.67%21%402101efeb17316988271474593ed078%2112000027253309263%21sea%21MX%210%21ABX&amp;curPageLogUid=PCzlQun0HNUL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MX$44.56</t>
+          <t>MX$590.59</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Camiseta de manga corta con estampado 3D de orangután/Mono para hombre, ropa divertida Y2k, camisetas de animales geniales</t>
+          <t>Zapatos informales de piel auténtica para hombre, calzado plano de cuero de vaca, color blanco y negro, 2024, A44130</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007198441256.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-7&amp;pdp_npi=4%40dis%21MXN%21113.33%2148.73%21%21%2139.14%2116.83%21%402103209b17315933117878646e6ce4%2112000039773340912%21sea%21MX%210%21ABX&amp;curPageLogUid=N8hmz1CxD40U&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005006782491900.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-8&amp;pdp_npi=4%40dis%21MXN%21881.13%21449.44%21%21%2142.17%2121.51%21%402101efeb17316988271474593ed078%2112000038281145821%21sea%21MX%210%21ABX&amp;curPageLogUid=IR5PB42uYcgL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MX$48.73</t>
+          <t>MX$449.44</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Camiseta de cazador de monstruos de dibujos animados japoneses para hombre, camiseta de Anime Kawaii, camisetas gráficas divertidas de dinosaurio, camisetas Unisex negras para hombre</t>
+          <t>Zapatos de invierno para mujer, zapatillas informales con plataforma de lujo, cálidas y cálidas para nieve, tendencia 2024, cómodos zapatos peludos para senderismo al aire libre</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005003439341687.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-8&amp;pdp_npi=4%40dis%21MXN%21176.20%2120.77%21%21%218.40%210.99%21%402103209b17315933117878646e6ce4%2112000025795697794%21sea%21MX%210%21ABX&amp;curPageLogUid=zMkTYYOFCLhn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007931109174.html?algo_pvid=c1c1c347-133f-4d38-9c46-2813b8c55baf&amp;algo_exp_id=c1c1c347-133f-4d38-9c46-2813b8c55baf-9&amp;pdp_npi=4%40dis%21MXN%21891.65%21454.74%21%21%21309.00%21157.59%21%402101efeb17316988271474593ed078%2112000042912565291%21sea%21MX%210%21ABX&amp;curPageLogUid=qT3bcJCew5ob&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$454.74</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Tartaglia Face Meme para hombre, camiseta a la moda, camisetas de manga corta Genshin Impact Game, camisetas con cuello redondo para mujer, camiseta</t>
+          <t>Violeta 35-39 zapatillas de Skateboarding para mujer, zapatos deportivos de talla 48, nueva Idea de producto, productos, talla 35</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006350122774.html?algo_pvid=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82&amp;algo_exp_id=e0dc6488-9ff3-4960-b8f3-0d704e0c5b82-9&amp;pdp_npi=4%40dis%21MXN%21195.01%2120.77%21%21%2167.35%217.17%21%402103209b17315933117878646e6ce4%2112000036853827101%21sea%21MX%210%21ABX&amp;curPageLogUid=ITtMKSwu93Yc&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007447699705.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-0&amp;pdp_npi=4%40dis%21MXN%21160.68%21106.14%21%21%217.69%215.08%21%402101c59117316988282833008ea39e%2112000040791736323%21sea%21MX%210%21ABX&amp;curPageLogUid=HMe9axy51avh&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$106.14</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Camiseta de fútbol de Anime con cerradura azul para hombre y mujer, Tops deportivos de cuello redondo, camiseta informal de manga corta para niño, novedad de verano 2024</t>
+          <t>Zapatillas de deporte de plataforma plana talla 42, calzado de skate de talla 33, zapatos de ejercicio para hombres, deportes 2024, el más nuevo Premium Sho al aire libre</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007529495831.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-0&amp;pdp_npi=4%40dis%21MXN%21123.26%2120.77%21%21%2142.57%217.17%21%402103246417315933134483363e8619%2112000041172747046%21sea%21MX%210%21ABX&amp;curPageLogUid=WSdWSIlYaU3k&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007671857180.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-1&amp;pdp_npi=4%40dis%21MXN%21235.28%21155.25%21%21%2111.26%217.43%21%402101c59117316988282833008ea39e%2112000041739878396%21sea%21MX%210%21ABX&amp;curPageLogUid=Lr3ihjAHksND&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$155.25</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>¡BOCCHI LA ROCA! Camiseta de Anime para hombre, camiseta bonita a la moda para hombre, camiseta de Hitori Gotoh Ijichi Nijika, camisetas informales de manga corta para hombre</t>
+          <t>Sumer-Zapatillas deportivas con cordones para hombre y mujer, zapatos de Skateboarding Unisex, mocasines de baloncesto, 2024</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006628364018.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-1&amp;pdp_npi=4%40dis%21MXN%21118.62%2120.77%21%21%2140.97%217.18%21%402103246417315933134483363e8619%2112000037866177298%21sea%21MX%210%21ABX&amp;curPageLogUid=QCiDDnYONxVA&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007842384327.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-2&amp;pdp_npi=4%40dis%21MXN%21430.43%21271.21%21%21%2120.60%2112.98%21%402101c59117316988282833008ea39e%2112000042460636029%21sea%21MX%210%21ABX&amp;curPageLogUid=wVB5UOvJ2tVk&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$271.21</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Uniformes médicos de Marvel para hombre, de dibujos animados Blusa con cuello en V, Tops de fregado de enfermera, Hospital Dental</t>
+          <t>Ete-Zapatillas deportivas para hombre, zapatos de Skateboarding al aire libre, color dorado, para baloncesto, tenis, Cosplay, 2024</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007407111052.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-3&amp;pdp_npi=4%40dis%21MXN%21237.65%2120.77%21%21%2182.08%217.18%21%402103246417315933134483363e8619%2112000040666444561%21sea%21MX%210%21ABX&amp;curPageLogUid=OjpUdVJW6DqE&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007842438049.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-3&amp;pdp_npi=4%40dis%21MXN%21246.77%21155.46%21%21%2111.81%217.44%21%402101c59117316988282833008ea39e%2112000042460311196%21sea%21MX%210%21ABX&amp;curPageLogUid=PWpLyQFvSINS&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$155.46</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ropa informal estilo Hip Hop de My Hero Academia, camisetas Harajuku Todoroki, camisetas informales de manga corta de Anime Bakugou Deku, camisetas</t>
+          <t>Zapatillas Nike Dunk Low "Blanco/Negro"</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007457801731.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-4&amp;pdp_npi=4%40dis%21MXN%21114.37%2120.77%21%21%2139.50%217.17%21%402103246417315933134483363e8619%2112000040836451320%21sea%21MX%210%21ABX&amp;curPageLogUid=N1x3HnVqdp6u&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007686467334.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-4&amp;pdp_npi=4%40dis%21MXN%212132.46%212132.46%21%21%21739.00%21739.00%21%402101c59117316988282833008ea39e%2112000041835630169%21sea%21MX%210%21ABX&amp;curPageLogUid=u1rt1t6MLcWb&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$2,132.46</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Camiseta de oso Panda Bubu Dudu y sus bebés para hombre y mujer, camisa divertida de moda para pareja, camisetas informales de manga corta, ropa</t>
+          <t>Botas de Mujer, zapatos cortos de tacón alto para Mujer, Botas de Otoño Invierno para Mujer, botines tejidos, calcetín negro, Botas de tacón para Mujer</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007423278735.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-5&amp;pdp_npi=4%40dis%21MXN%21148.74%2120.77%21%21%2151.37%217.17%21%402103246417315933134483363e8619%2112000040697577159%21sea%21MX%210%21ABX&amp;curPageLogUid=gFEoilA1hFp9&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004572053620.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-5&amp;pdp_npi=4%40dis%21MXN%21164.02%2120.69%21%21%217.85%210.99%21%402101c59117316988282833008ea39e%2112000029673037092%21sea%21MX%210%21ABX&amp;curPageLogUid=v678mOvyd0Bt&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Disfraz de Demon Slayer de Anime para niños y niñas, camiseta de manga corta en 3D, ropa de calle de gran tamaño, Tops sueltos, encantador, Kamado, Nezuko, nuevo, Verano</t>
+          <t>Botines Punk negros de suela gruesa para mujer, botas de motocicleta con cordones, tacón grueso, hebilla de cinturón, zapatos gruesos de diseñador de bolsillo, Primavera</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007099396458.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-6&amp;pdp_npi=4%40dis%21MXN%2198.44%2135.44%21%21%2134.00%2112.24%21%402103246417315933134483363e8619%2112000039399939775%21sea%21MX%210%21ABX&amp;curPageLogUid=ca7LC6Mw9jEH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007462343739.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-6&amp;pdp_npi=4%40dis%21MXN%21501.48%21290.86%21%21%2124.00%2113.92%21%402101c59117316988282833008ea39e%2112000040854585718%21sea%21MX%210%21ABX&amp;curPageLogUid=Sl70lDDQ6EhH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MX$35.44</t>
+          <t>MX$290.86</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Camisetas de camuflaje para hombres y mujeres, camisas con estampado 3D de animales de caza, tops de manga corta que combinan todo, moda</t>
+          <t>Botas hasta la rodilla Vintage de diseñador para mujer, botines largos sin cordones a la moda, tacones bajos para otoño e invierno, botas occidentales largas negras para mujer</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006924499677.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-7&amp;pdp_npi=4%40dis%21MXN%21265.42%2120.77%21%21%2191.67%217.18%21%402103246417315933134483363e8619%2112000038740131573%21sea%21MX%210%21ABX&amp;curPageLogUid=8Wc1l1c4dNKo&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005975259311.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-7&amp;pdp_npi=4%40dis%21MXN%21267.66%21152.53%21%21%2112.81%217.30%21%402101c59117316988282833008ea39e%2112000035129987823%21sea%21MX%210%21ABX&amp;curPageLogUid=qFlTlmTCOPgQ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$152.53</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Camisetas de dibujos animados de Disney para hombre y mujer, ropa de calle con estampado 3D de Lilo y Stitch, Kawaii, de gran tamaño, a la moda</t>
+          <t>Botas negras hasta la rodilla para hombre, zapatos largos de motocicleta con cremallera trasera de diseñador británico, Botas del ejército de Cosplay antiguo, Botas casuales cómodas y cálidas</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007610558772.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-8&amp;pdp_npi=4%40dis%21MXN%21207.95%2120.77%21%21%2171.82%217.17%21%402103246417315933134483363e8619%2112000041523702987%21sea%21MX%210%21ABX&amp;curPageLogUid=O0CW0zgBQ9SH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005003748440383.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-8&amp;pdp_npi=4%40dis%21MXN%211284.40%21657.34%21%21%2161.47%2131.46%21%402101c59117316988282833008ea39e%2112000027029379301%21sea%21MX%210%21ABX&amp;curPageLogUid=VMEMj8yC9zLj&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$657.34</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Camiseta con estampado 3D de Anime para hombre y mujer, camisa de gran tamaño con diseño de OVNI, grandizer, Robot, estilo Harajuku, ropa de calle de Goldorak Y2k, 2024</t>
+          <t>Zapatillas deportivas de Skateboarding para hombre, calzado de Skateboarding, talla 47, número 46, talla 45, 48, de China, superofertas, Retro</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007227255540.html?algo_pvid=341a8e3c-d3b2-48b6-9556-8911b67d1a45&amp;algo_exp_id=341a8e3c-d3b2-48b6-9556-8911b67d1a45-9&amp;pdp_npi=4%40dis%21MXN%21104.23%2165.66%21%21%2136.00%2122.68%21%402103246417315933134483363e8619%2112000039879790415%21sea%21MX%210%21ABX&amp;curPageLogUid=WYob5YRGmGIi&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007842295409.html?algo_pvid=18ede091-acb4-4a68-93a9-b25680a75856&amp;algo_exp_id=18ede091-acb4-4a68-93a9-b25680a75856-9&amp;pdp_npi=4%40dis%21MXN%21373.18%21250.11%21%21%2117.86%2111.97%21%402101c59117316988282833008ea39e%2112000042460209269%21sea%21MX%210%21ABX&amp;curPageLogUid=oC3bOAvs2fa2&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MX$65.66</t>
+          <t>MX$250.11</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Camiseta con estampado Digital de Michael Jackson para mujer, Camiseta de algodón, ropa de tendencia callejera de arte divertido, Top informal de dibujos animados, moda Unisex</t>
+          <t>Adidas Clover SAMBA OG Zapatos para deportes al aire libre cómodos, simples, informales y resistentes al desgaste para hombres y mujeres</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007064736672.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-0&amp;pdp_npi=4%40dis%21MXN%21309.32%2120.77%21%21%21106.83%217.17%21%402103010c17315933149092181e5a5a%2112000039289799121%21sea%21MX%210%21ABX&amp;curPageLogUid=ZlrIbVqRwYas&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007527322191.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-0&amp;pdp_npi=4%40dis%21MXN%211388.00%211002.19%21%21%21481.01%21347.31%21%402101c5c317316988292935756ea4dd%2112000041161624231%21sea%21MX%210%21ABX&amp;curPageLogUid=L9IBUlS5U03V&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$1,002.19</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Camiseta con estampado de gato Omori para mujer, camiseta Harajuku de manga corta con cuello redondo, ropa</t>
+          <t>Zapatos deportivos con personalidad para hombre, calzado informal de suela suave a juego, gran oferta, Otoño, 2022</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006363237112.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-1&amp;pdp_npi=4%40dis%21MXN%21201.72%2120.77%21%21%2169.67%217.18%21%402103010c17315933149092181e5a5a%2112000036900144262%21sea%21MX%210%21ABX&amp;curPageLogUid=TGZut651FugY&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004604720607.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-1&amp;pdp_npi=4%40dis%21MXN%21261.18%2120.69%21%21%2112.50%210.99%21%402101c5c317316988292935756ea4dd%2112000029799102848%21sea%21MX%210%21ABX&amp;curPageLogUid=PBDUIhQNvMgx&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$20.69</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Camisetas de Ramen con aullido para hombre, camisas de castillos de demonio de fuego, 100% algodón, Vintage, cuello redondo, recién llegadas</t>
+          <t>Zapatos informales para hombre y mujer, zapatillas de cuero con diseño de correa múltiple, a la moda, con cordones, color negro</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007476570624.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-2&amp;pdp_npi=4%40dis%21MXN%21228.24%2175.97%21%21%2178.83%2126.24%21%402103010c17315933149092181e5a5a%2112000040909991158%21sea%21MX%210%21ABX&amp;curPageLogUid=ZNg4HE77eks1&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007474526083.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-2&amp;pdp_npi=4%40dis%21MXN%212695.06%212021.30%21%21%21933.97%21700.48%21%402101c5c317316988292935756ea4dd%2112000040899998234%21sea%21MX%210%21ABX&amp;curPageLogUid=5FaYQPAT7CuI&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MX$75.97</t>
+          <t>MX$2,021.3</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Si hablan detrás de yo, peido, lobo, literalmente yo, divertido Meme Emo, camiseta, ropa para hombre, Camiseta de algodón de gran tamaño Retro Harajuku</t>
+          <t>Botas de plataforma de caballero para Mujer, zapatos de tacón cuadrado largo hasta la rodilla, Botas de motocicleta gruesas Retro, Botas blancas y negras, invierno, nuevo</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007393597213.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-3&amp;pdp_npi=4%40dis%21MXN%21209.57%2120.77%21%21%2172.38%217.17%21%402103010c17315933149092181e5a5a%2112000040564206120%21sea%21MX%210%21ABX&amp;curPageLogUid=LxrYU2QaJu4p&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007510543223.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-3&amp;pdp_npi=4%40dis%21MXN%21256.47%21218.00%21%21%2188.88%2175.55%21%402101c5c317316988292935756ea4dd%2112000041077072335%21sea%21MX%210%21ABX&amp;curPageLogUid=gUUzQJ9y51PV&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$218</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Fushiguro-Camiseta con estampado de Toji para hombre y mujer, camisa de Anime Jujutsu Kaisen, camisetas holgadas informales, Camiseta de algodón lavado, Tops Harajuku para hombre</t>
+          <t>Botines cortos con cordones para mujer, calzado de cuero con plataforma negra, botas de motorista gruesas de Pu, Gyaru</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007433505104.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-4&amp;pdp_npi=4%40dis%21MXN%21237.45%21101.10%21%21%2111.32%214.82%21%402103010c17315933149092181e5a5a%2112000043230394611%21sea%21MX%210%21ABX&amp;curPageLogUid=dhE1fbb5IH9q&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007476923072.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-4&amp;pdp_npi=4%40dis%21MXN%21432.84%21216.42%21%21%21150.00%2175.00%21%402101c5c317316988292935756ea4dd%2112000040909761714%21sea%21MX%210%21ABX&amp;curPageLogUid=Wdeeb9uTYAef&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MX$101.1</t>
+          <t>MX$216.42</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Camiseta de juego de rol REO14 para hombre y mujer, pantalones cortos deportivos informales de anime con bloqueo azul, nueva camiseta de verano</t>
+          <t>Zapatos de ocio con correa de monje para Hombre, mocasines de lujo, zapatillas cómodas, Tenis masculinos, blanco y negro, nuevo</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005754948748.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-5&amp;pdp_npi=4%40dis%21MXN%21101.40%2120.77%21%21%2135.02%217.17%21%402103010c17315933149092181e5a5a%2112000034235227710%21sea%21MX%210%21ABX&amp;curPageLogUid=Y7PnUvIlpLwe&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005005976761421.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-5&amp;pdp_npi=4%40dis%21MXN%21341.63%2151.19%21%21%2116.35%212.45%21%402101c5c317316988292935756ea4dd%2112000035136481800%21sea%21MX%210%21ABX&amp;curPageLogUid=ppwqwmsGtIqJ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$51.19</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Camiseta de Anime Vintage especial Unisex, camiseta de Manga, camisa exclusiva de Anime soni</t>
+          <t>Zapatos informales de cuero blanco para hombre, zapatillas de deporte transpirables, de lujo, simples, color negro puro, de alta calidad, Italia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007540014499.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-6&amp;pdp_npi=4%40dis%21MXN%21193.88%2120.77%21%21%2166.96%217.17%21%402103010c17315933149092181e5a5a%2112000041213140421%21sea%21MX%210%21ABX&amp;curPageLogUid=gWz9XZJ5AB0d&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004874568168.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-6&amp;pdp_npi=4%40dis%21MXN%211418.97%21496.88%21%21%2167.91%2123.78%21%402101c5c317316988292935756ea4dd%2112000032451857148%21sea%21MX%210%21ABX&amp;curPageLogUid=Ge3plJAWxsDL&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$496.88</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Camiseta de algodón para hombre, camisa de Jujutsu Kaisen, Nanami Kento, Top novedoso, ropa de calle de Anime, Verano</t>
+          <t>Zapatos informales de piel auténtica para hombre, mocasines transpirables sin cordones, de marca de lujo, color negro, talla grande 38-46, 2022</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005006727446030.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-7&amp;pdp_npi=4%40dis%21MXN%21314.30%2120.77%21%21%21108.55%217.17%21%402103010c17315933149092181e5a5a%2112000038106873486%21sea%21MX%210%21ABX&amp;curPageLogUid=996eui8oJaNn&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/4000689745501.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-7&amp;pdp_npi=4%40dis%21MXN%21972.68%21583.61%21%21%21337.08%21202.25%21%402101c5c317316988292935756ea4dd%2110000006037063283%21sea%21MX%210%21ABX&amp;curPageLogUid=h7ep86OkQud0&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$583.61</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Camiseta con capucha de Anime para hombre, ropa de calle informal de Son Goku, manga corta, 3XL talla grande, nueva</t>
+          <t>Botas de tacón alto con punta estrecha para Mujer, Zapatos hasta la rodilla de diseñador, estilo Chelsea, sexys, a la moda, novedad de otoño</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005005672010323.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-8&amp;pdp_npi=4%40dis%21MXN%21192.14%2155.79%21%21%219.16%212.66%21%402103010c17315933149092181e5a5a%2112000033965159409%21sea%21MX%210%21ABX&amp;curPageLogUid=V2kyN6ozMEFC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005007081254311.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-8&amp;pdp_npi=4%40dis%21MXN%21576.49%21576.49%21%21%2127.59%2127.59%21%402101c5c317316988292935756ea4dd%2112000042656149037%21sea%21MX%210%21ABX&amp;curPageLogUid=LD8o77fRQRVp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>MX$55.79</t>
+          <t>MX$576.49</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Eren Jaeger-camisetas Vintage de algodón para hombre y mujer, camisa de Manga corta de Anime, Titan on Attack, Shingeki No Kyojin Levi Mikasa</t>
+          <t>Zapatos de vestir clásicos para hombre, con botones de Metal en relieve, negro, marrón, brillante, planos, para fiesta de graduación, oficinista</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://es.aliexpress.com/item/1005007730461803.html?algo_pvid=e3d51df5-f6a4-461d-b443-f055381389b6&amp;algo_exp_id=e3d51df5-f6a4-461d-b443-f055381389b6-9&amp;pdp_npi=4%40dis%21MXN%21326.46%2120.77%21%21%21112.75%217.17%21%402103010c17315933149092181e5a5a%2112000042013916329%21sea%21MX%210%21ABX&amp;curPageLogUid=Vj72wwqa7bqH&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+          <t>https://es.aliexpress.com/item/1005004754398986.html?algo_pvid=c9c72e6a-06be-4678-9d36-81586e24b0a9&amp;algo_exp_id=c9c72e6a-06be-4678-9d36-81586e24b0a9-9&amp;pdp_npi=4%40dis%21MXN%21919.37%21661.95%21%21%2144.00%2131.68%21%402101c5c317316988292935756ea4dd%2112000030346770246%21sea%21MX%210%21ABX&amp;curPageLogUid=UM9xfgYFxz7J&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MX$20.77</t>
+          <t>MX$661.95</t>
         </is>
       </c>
     </row>
